--- a/resource_api/raporlar/dosyalar/by_po_uretim_liste.xlsx
+++ b/resource_api/raporlar/dosyalar/by_po_uretim_liste.xlsx
@@ -15,8 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -95,17 +96,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,1685 +454,4841 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F849"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="24.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="24.77734375" customWidth="1" style="1" min="5" max="6"/>
+    <col width="24.77734375" customWidth="1" style="3" min="5" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Tarih</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Firma</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Po</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Teslim Türü</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Fob</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Ddp</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Patrick - Germany</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>23PM03-3</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="6" t="n">
         <v>78015.61</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="6" t="n">
         <v>78015.61</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Sheikh - UAE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>23SHK06</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="6" t="n">
         <v>76505.44</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="6" t="n">
         <v>75505.44</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Seth, TDWL - Ghana</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>23TDWL01-2</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="6" t="n">
         <v>52069.7</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="6" t="n">
         <v>59369.7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>2023-02-07</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Carl Max - Ghana</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>23AURA02</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="6" t="n">
         <v>38990.06</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="6" t="n">
         <v>38990.06</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>2023-01-09</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Andrea Bigeni - Malta</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>23PPP14</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="6" t="n">
         <v>36719.94</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="6" t="n">
         <v>38391.05</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>2023-03-11</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Kwabena Osei - Ghana</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>23TSE01-2</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="6" t="n">
         <v>36461.16</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="6" t="n">
         <v>37563.61</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>2023-03-11</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Kwabena Osei - Ghana</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>23TSE01-3</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="6" t="n">
         <v>34124.62</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="6" t="n">
         <v>35227.07</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>2023-04-13</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Rasma Decor - BH</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>23RASMA01</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>DAP</t>
         </is>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="6" t="n">
         <v>33439.57</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="6" t="n">
         <v>39739.57</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2023-03-07</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Bruno Perre - France</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>23EURL01-3</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>DAP</t>
         </is>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="6" t="n">
         <v>32280.12</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="6" t="n">
         <v>32280.12</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2023-01-19</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>VEIK - UAE</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>23VEIK88</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="6" t="n">
         <v>32136.12</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="6" t="n">
         <v>34086.12</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>2023-03-20</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Douglas - Belize</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>23DSP07</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="6" t="n">
         <v>31714.96</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="6" t="n">
         <v>31714.96</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>2023-02-22</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Franchesta - USA</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>23FRAN01</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="6" t="n">
         <v>31252.8</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="6" t="n">
         <v>31252.8</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Alexander Endrody - Slovakia</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>23BPO01</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="6" t="n">
         <v>30890.39</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="6" t="n">
         <v>30890.39</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>2023-01-13</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>VEIK - UAE</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>23VEIK89</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="6" t="n">
         <v>30425.42</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="6" t="n">
         <v>32375.42</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>2023-03-22</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Atu - Ghana</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>23ATU03</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="6" t="n">
         <v>30160.6</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="6" t="n">
         <v>33660.6</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>2023-01-27</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Mama Abui - Ghana</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>23MA01</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="6" t="n">
         <v>30081.67</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="6" t="n">
         <v>33731.67</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Seth, TDWL - Ghana</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>23TDWL01-1</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="6" t="n">
         <v>27686.1</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="6" t="n">
         <v>31336.1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>2023-01-19</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>VEIK - UAE</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>23VEIK90</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="6" t="n">
         <v>26765.4</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="6" t="n">
         <v>28715.4</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>2023-04-25</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Gebran - Bahrain</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>23COME07</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="6" t="n">
         <v>26671.84</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="6" t="n">
         <v>29271.84</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>2023-03-22</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>VEIK - UAE</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>23VEIK91</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="6" t="n">
         <v>26385.41</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="6" t="n">
         <v>26385.41</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>2023-03-07</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Bruno Perre - France</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>23EURL01-2</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>DAP</t>
         </is>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="6" t="n">
         <v>25762.86</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="6" t="n">
         <v>25762.86</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>2023-04-19</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Robert - Bahamas</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>23RA02</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="6" t="n">
         <v>24262.36</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="6" t="n">
         <v>31662.36</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>2023-03-11</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Kwabena Osei - Ghana</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>23TSE01-1</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="6" t="n">
         <v>23544.99</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="6" t="n">
         <v>24647.44</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>2023-03-07</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Bruno Perre - France</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>23EURL01-1</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>DAP</t>
         </is>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="6" t="n">
         <v>19421.71</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="6" t="n">
         <v>25143.71</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Bigeni - Malta</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>23PP16</t>
         </is>
       </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="6" t="n">
         <v>19156.8</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="6" t="n">
         <v>18656.8</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>2023-03-23</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Flos - Malta</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>23FLOS47</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="6" t="n">
         <v>17777.06</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="6" t="n">
         <v>17777.06</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Ardexline - Moldova</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>23FS03</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>FCA</t>
         </is>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="6" t="n">
         <v>17245.31</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="6" t="n">
         <v>18018.71</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Gebran - Bahrain</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>23COME06</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="6" t="n">
         <v>16260.99</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="6" t="n">
         <v>17560.99</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Patrick - Germany</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>23PM03-2</t>
         </is>
       </c>
-      <c r="D30" s="4" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>DAP</t>
         </is>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="6" t="n">
         <v>15163.2</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="6" t="n">
         <v>20563.2</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Cem Peker</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>23PK3000-2</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>EXW</t>
         </is>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="6" t="n">
         <v>14736.15</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="6" t="n">
         <v>14736.15</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>2023-03-08</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Oday Mosalam - Germany</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>23AOTEC01</t>
         </is>
       </c>
-      <c r="D32" s="4" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="6" t="n">
         <v>14270.65</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="6" t="n">
         <v>15651.92</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Andrey &amp; Sergey - RU</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>23ANDR01</t>
         </is>
       </c>
-      <c r="D33" s="4" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="6" t="n">
         <v>14001.12</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="6" t="n">
         <v>14001.12</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>2023-05-04</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>Tracy - AU</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>23BRP11</t>
         </is>
       </c>
-      <c r="D34" s="4" t="inlineStr">
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>FCA</t>
         </is>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E34" s="6" t="n">
         <v>12991.6</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="6" t="n">
         <v>12991.6</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>2023-01-31</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Ante Drazic - HR</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>23SAN01</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>FCA</t>
         </is>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E35" s="6" t="n">
         <v>12350.24</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="F35" s="6" t="n">
         <v>12350.24</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>2023-05-10</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>Berchie A. - Ghana</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>23BAC01</t>
         </is>
       </c>
-      <c r="D36" s="4" t="inlineStr">
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>Tracy - AU</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>23BRP10</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>11563.06</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>11563.06</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>Hotel Gab - Romania</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>23HOGA10</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>11374.95</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>11374.95</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-03</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>Sean - MALTA</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>23SEAN07</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E36" s="4" t="n">
-        <v>12000</v>
-      </c>
-      <c r="F36" s="4" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="inlineStr">
-        <is>
-          <t>2023-03-09</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>Tracy - AU</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>23BRP10</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="inlineStr">
+      <c r="E39" s="6" t="n">
+        <v>10161.7</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>10361.7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>Branislav Mikulovsky - Slovakia</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>23ALIT05</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>FOB</t>
+        </is>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>9926.370000000001</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>9391.370000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>Gebran - Bahrain</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>23COME08</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>FOB</t>
+        </is>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>7577.8</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>7577.8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael - Germany </t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>23MICK02</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>FCA</t>
         </is>
       </c>
-      <c r="E37" s="4" t="n">
-        <v>11563.06</v>
-      </c>
-      <c r="F37" s="4" t="n">
-        <v>11563.06</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="inlineStr">
-        <is>
-          <t>2023-05-06</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>Hotel Gab - Romania</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>23HOGA10</t>
-        </is>
-      </c>
-      <c r="D38" s="4" t="inlineStr">
+      <c r="E42" s="6" t="n">
+        <v>7221.68</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>7221.68</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>Ben Persell Thompson - UK</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>23RGL05</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t>FCA</t>
         </is>
       </c>
-      <c r="E38" s="4" t="n">
-        <v>11374.95</v>
-      </c>
-      <c r="F38" s="4" t="n">
-        <v>11374.95</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="inlineStr">
-        <is>
-          <t>2023-03-03</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Sean - MALTA</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>23SEAN07</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="inlineStr">
+      <c r="E43" s="6" t="n">
+        <v>6863.35</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>7224.72</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>Radu &amp; Eugen - USA</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>23WS26</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>DDP</t>
+        </is>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>6227.5</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>6227.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>Ben Persell Thompson - UK</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>23RGL04</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>5887.97</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>5887.97</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>Andrea Bigeni - Malta</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>23PPP15</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E39" s="4" t="n">
-        <v>10161.7</v>
-      </c>
-      <c r="F39" s="4" t="n">
-        <v>10361.7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="inlineStr">
-        <is>
-          <t>2023-02-02</t>
-        </is>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
-        <is>
-          <t>Branislav Mikulovsky - Slovakia</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>23ALIT05</t>
-        </is>
-      </c>
-      <c r="D40" s="4" t="inlineStr">
+      <c r="E46" s="6" t="n">
+        <v>5641.86</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>5641.86</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>Cem Peker</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>23PK3000-1</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>5358.6</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>5358.6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>Patrick - Germany</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>23PM03-1</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>DAP</t>
+        </is>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>3790.8</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>6190.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>Tayyar Yüzgeç - Turkey</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>23MTT04</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="E49" s="6" t="n">
+        <v>3345</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>3947.1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-21</t>
+        </is>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>Tayyar Yüzgeç - Turkey</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>23MTT03</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>1925.49</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>2272.08</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>Tamer ($)</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>23SU112</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>1762</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>Alexander Endrody - Slovakia</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>23BPO02</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E40" s="4" t="n">
-        <v>9926.370000000001</v>
-      </c>
-      <c r="F40" s="4" t="n">
-        <v>9391.370000000001</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="inlineStr">
-        <is>
-          <t>2023-05-05</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="E52" s="6" t="n">
+        <v>1130.25</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>1130.25</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>BKF - USA</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>23BKF08</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="E53" s="6" t="n">
+        <v>962.9400000000001</v>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>962.9400000000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>Douglas - Belize</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>23DSP06</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="E54" s="6" t="n">
+        <v>794.15</v>
+      </c>
+      <c r="F54" s="6" t="n">
+        <v>2214.15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>Manhal Najjar - Dubai</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>23DMH01</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
+      <c r="E55" s="6" t="n">
+        <v>650</v>
+      </c>
+      <c r="F55" s="6" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>Brent Losey - USA</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>23BRENT02</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t>DDP</t>
+        </is>
+      </c>
+      <c r="E56" s="6" t="n">
+        <v>567.16</v>
+      </c>
+      <c r="F56" s="6" t="n">
+        <v>1503.98</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>Sam - Ghana</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>23SAM03</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="E57" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="F57" s="6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>Ante Drazic - HR</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>23SAN02</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
+      <c r="E58" s="6" t="n">
+        <v>470</v>
+      </c>
+      <c r="F58" s="6" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>Gebran - Bahrain</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>23COME08</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>FOB</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="n">
-        <v>7577.8</v>
-      </c>
-      <c r="F41" s="4" t="n">
-        <v>7577.8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="inlineStr">
-        <is>
-          <t>2023-01-19</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael - Germany </t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>23MICK02</t>
-        </is>
-      </c>
-      <c r="D42" s="4" t="inlineStr">
-        <is>
-          <t>FCA</t>
-        </is>
-      </c>
-      <c r="E42" s="4" t="n">
-        <v>7221.68</v>
-      </c>
-      <c r="F42" s="4" t="n">
-        <v>7221.68</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="4" t="inlineStr">
-        <is>
-          <t>2023-05-05</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Ben Persell Thompson - UK</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>23RGL05</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="inlineStr">
-        <is>
-          <t>FCA</t>
-        </is>
-      </c>
-      <c r="E43" s="4" t="n">
-        <v>6863.35</v>
-      </c>
-      <c r="F43" s="4" t="n">
-        <v>7224.72</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="inlineStr">
-        <is>
-          <t>2023-02-02</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t>Radu &amp; Eugen - USA</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>23WS26</t>
-        </is>
-      </c>
-      <c r="D44" s="4" t="inlineStr">
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>23COME05</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="inlineStr">
         <is>
           <t>DDP</t>
         </is>
       </c>
-      <c r="E44" s="4" t="n">
-        <v>6227.5</v>
-      </c>
-      <c r="F44" s="4" t="n">
-        <v>6227.5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="inlineStr">
-        <is>
-          <t>2023-05-05</t>
-        </is>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>Ben Persell Thompson - UK</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>23RGL04</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="inlineStr">
-        <is>
-          <t>FCA</t>
-        </is>
-      </c>
-      <c r="E45" s="4" t="n">
-        <v>5887.97</v>
-      </c>
-      <c r="F45" s="4" t="n">
-        <v>5887.97</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="inlineStr">
-        <is>
-          <t>2023-03-01</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>Andrea Bigeni - Malta</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>23PPP15</t>
-        </is>
-      </c>
-      <c r="D46" s="4" t="inlineStr">
-        <is>
-          <t>FOB</t>
-        </is>
-      </c>
-      <c r="E46" s="4" t="n">
-        <v>5641.86</v>
-      </c>
-      <c r="F46" s="4" t="n">
-        <v>5641.86</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="inlineStr">
-        <is>
-          <t>2023-04-12</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>Cem Peker</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>23PK3000-1</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="inlineStr">
-        <is>
-          <t>EXW</t>
-        </is>
-      </c>
-      <c r="E47" s="4" t="n">
-        <v>5358.6</v>
-      </c>
-      <c r="F47" s="4" t="n">
-        <v>5358.6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="inlineStr">
-        <is>
-          <t>2023-04-24</t>
-        </is>
-      </c>
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>Patrick - Germany</t>
-        </is>
-      </c>
-      <c r="C48" s="4" t="inlineStr">
-        <is>
-          <t>23PM03-1</t>
-        </is>
-      </c>
-      <c r="D48" s="4" t="inlineStr">
-        <is>
-          <t>DAP</t>
-        </is>
-      </c>
-      <c r="E48" s="4" t="n">
-        <v>3790.8</v>
-      </c>
-      <c r="F48" s="4" t="n">
-        <v>6190.8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="inlineStr">
-        <is>
-          <t>2023-05-05</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Tayyar Yüzgeç - Turkey</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>23MTT04</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="inlineStr">
-        <is>
-          <t>EXW</t>
-        </is>
-      </c>
-      <c r="E49" s="4" t="n">
-        <v>3345</v>
-      </c>
-      <c r="F49" s="4" t="n">
-        <v>3947.1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="inlineStr">
-        <is>
-          <t>2023-02-21</t>
-        </is>
-      </c>
-      <c r="B50" s="4" t="inlineStr">
-        <is>
-          <t>Tayyar Yüzgeç - Turkey</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>23MTT03</t>
-        </is>
-      </c>
-      <c r="D50" s="4" t="inlineStr">
-        <is>
-          <t>EXW</t>
-        </is>
-      </c>
-      <c r="E50" s="4" t="n">
-        <v>1925.49</v>
-      </c>
-      <c r="F50" s="4" t="n">
-        <v>2272.08</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="inlineStr">
-        <is>
-          <t>2023-03-13</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>Tamer ($)</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>23SU112</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="inlineStr">
-        <is>
-          <t>EXW</t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="n">
-        <v>1762</v>
-      </c>
-      <c r="F51" s="4" t="n">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="4" t="inlineStr">
-        <is>
-          <t>2023-04-12</t>
-        </is>
-      </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>Alexander Endrody - Slovakia</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>23BPO02</t>
-        </is>
-      </c>
-      <c r="D52" s="4" t="inlineStr">
-        <is>
-          <t>FOB</t>
-        </is>
-      </c>
-      <c r="E52" s="4" t="n">
-        <v>1130.25</v>
-      </c>
-      <c r="F52" s="4" t="n">
-        <v>1130.25</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="4" t="inlineStr">
-        <is>
-          <t>2023-02-07</t>
-        </is>
-      </c>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t>BKF - USA</t>
-        </is>
-      </c>
-      <c r="C53" s="4" t="inlineStr">
-        <is>
-          <t>23BKF08</t>
-        </is>
-      </c>
-      <c r="D53" s="4" t="inlineStr">
-        <is>
-          <t>EXW</t>
-        </is>
-      </c>
-      <c r="E53" s="4" t="n">
-        <v>962.9400000000001</v>
-      </c>
-      <c r="F53" s="4" t="n">
-        <v>962.9400000000001</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="4" t="inlineStr">
-        <is>
-          <t>2023-04-26</t>
-        </is>
-      </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>Douglas - Belize</t>
-        </is>
-      </c>
-      <c r="C54" s="4" t="inlineStr">
-        <is>
-          <t>23DSP06</t>
-        </is>
-      </c>
-      <c r="D54" s="4" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="E54" s="4" t="n">
-        <v>794.15</v>
-      </c>
-      <c r="F54" s="4" t="n">
-        <v>2214.15</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="4" t="inlineStr">
-        <is>
-          <t>2023-04-25</t>
-        </is>
-      </c>
-      <c r="B55" s="4" t="inlineStr">
-        <is>
-          <t>Manhal Najjar - Dubai</t>
-        </is>
-      </c>
-      <c r="C55" s="4" t="inlineStr">
-        <is>
-          <t>23DMH01</t>
-        </is>
-      </c>
-      <c r="D55" s="4" t="inlineStr">
-        <is>
-          <t>FCA</t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="n">
-        <v>650</v>
-      </c>
-      <c r="F55" s="4" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="4" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t>Brent Losey - USA</t>
-        </is>
-      </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>23BRENT02</t>
-        </is>
-      </c>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
-          <t>DDP</t>
-        </is>
-      </c>
-      <c r="E56" s="4" t="n">
-        <v>567.16</v>
-      </c>
-      <c r="F56" s="4" t="n">
-        <v>1503.98</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="4" t="inlineStr">
-        <is>
-          <t>2023-02-28</t>
-        </is>
-      </c>
-      <c r="B57" s="4" t="inlineStr">
-        <is>
-          <t>Sam - Ghana</t>
-        </is>
-      </c>
-      <c r="C57" s="4" t="inlineStr">
-        <is>
-          <t>23SAM03</t>
-        </is>
-      </c>
-      <c r="D57" s="4" t="inlineStr">
-        <is>
-          <t>EXW</t>
-        </is>
-      </c>
-      <c r="E57" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="F57" s="4" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="4" t="inlineStr">
-        <is>
-          <t>2023-02-27</t>
-        </is>
-      </c>
-      <c r="B58" s="4" t="inlineStr">
-        <is>
-          <t>Ante Drazic - HR</t>
-        </is>
-      </c>
-      <c r="C58" s="4" t="inlineStr">
-        <is>
-          <t>23SAN02</t>
-        </is>
-      </c>
-      <c r="D58" s="4" t="inlineStr">
-        <is>
-          <t>FCA</t>
-        </is>
-      </c>
-      <c r="E58" s="4" t="n">
-        <v>470</v>
-      </c>
-      <c r="F58" s="4" t="n">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="4" t="inlineStr">
-        <is>
-          <t>2023-03-15</t>
-        </is>
-      </c>
-      <c r="B59" s="4" t="inlineStr">
-        <is>
-          <t>Gebran - Bahrain</t>
-        </is>
-      </c>
-      <c r="C59" s="4" t="inlineStr">
-        <is>
-          <t>23COME05</t>
-        </is>
-      </c>
-      <c r="D59" s="4" t="inlineStr">
-        <is>
-          <t>DDP</t>
-        </is>
-      </c>
-      <c r="E59" s="4" t="n">
+      <c r="E59" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F59" s="4" t="n">
+      <c r="F59" s="6" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="inlineStr">
+      <c r="A60" s="7" t="inlineStr">
         <is>
           <t>Toplam</t>
         </is>
       </c>
-      <c r="E60" s="5" t="n">
+      <c r="E60" s="8" t="n">
         <v>1105424.6</v>
       </c>
-      <c r="F60" s="5" t="n">
+      <c r="F60" s="8" t="n">
         <v>1170461.61</v>
       </c>
+    </row>
+    <row r="61">
+      <c r="E61" s="9" t="n"/>
+      <c r="F61" s="9" t="n"/>
+    </row>
+    <row r="62">
+      <c r="E62" s="9" t="n"/>
+      <c r="F62" s="9" t="n"/>
+    </row>
+    <row r="63">
+      <c r="E63" s="9" t="n"/>
+      <c r="F63" s="9" t="n"/>
+    </row>
+    <row r="64">
+      <c r="E64" s="9" t="n"/>
+      <c r="F64" s="9" t="n"/>
+    </row>
+    <row r="65">
+      <c r="E65" s="9" t="n"/>
+      <c r="F65" s="9" t="n"/>
+    </row>
+    <row r="66">
+      <c r="E66" s="9" t="n"/>
+      <c r="F66" s="9" t="n"/>
+    </row>
+    <row r="67">
+      <c r="E67" s="9" t="n"/>
+      <c r="F67" s="9" t="n"/>
+    </row>
+    <row r="68">
+      <c r="E68" s="9" t="n"/>
+      <c r="F68" s="9" t="n"/>
+    </row>
+    <row r="69">
+      <c r="E69" s="9" t="n"/>
+      <c r="F69" s="9" t="n"/>
+    </row>
+    <row r="70">
+      <c r="E70" s="9" t="n"/>
+      <c r="F70" s="9" t="n"/>
+    </row>
+    <row r="71">
+      <c r="E71" s="9" t="n"/>
+      <c r="F71" s="9" t="n"/>
+    </row>
+    <row r="72">
+      <c r="E72" s="9" t="n"/>
+      <c r="F72" s="9" t="n"/>
+    </row>
+    <row r="73">
+      <c r="E73" s="9" t="n"/>
+      <c r="F73" s="9" t="n"/>
+    </row>
+    <row r="74">
+      <c r="E74" s="9" t="n"/>
+      <c r="F74" s="9" t="n"/>
+    </row>
+    <row r="75">
+      <c r="E75" s="9" t="n"/>
+      <c r="F75" s="9" t="n"/>
+    </row>
+    <row r="76">
+      <c r="E76" s="9" t="n"/>
+      <c r="F76" s="9" t="n"/>
+    </row>
+    <row r="77">
+      <c r="E77" s="9" t="n"/>
+      <c r="F77" s="9" t="n"/>
+    </row>
+    <row r="78">
+      <c r="E78" s="9" t="n"/>
+      <c r="F78" s="9" t="n"/>
+    </row>
+    <row r="79">
+      <c r="E79" s="9" t="n"/>
+      <c r="F79" s="9" t="n"/>
+    </row>
+    <row r="80">
+      <c r="E80" s="9" t="n"/>
+      <c r="F80" s="9" t="n"/>
+    </row>
+    <row r="81">
+      <c r="E81" s="9" t="n"/>
+      <c r="F81" s="9" t="n"/>
+    </row>
+    <row r="82">
+      <c r="E82" s="9" t="n"/>
+      <c r="F82" s="9" t="n"/>
+    </row>
+    <row r="83">
+      <c r="E83" s="9" t="n"/>
+      <c r="F83" s="9" t="n"/>
+    </row>
+    <row r="84">
+      <c r="E84" s="9" t="n"/>
+      <c r="F84" s="9" t="n"/>
+    </row>
+    <row r="85">
+      <c r="E85" s="9" t="n"/>
+      <c r="F85" s="9" t="n"/>
+    </row>
+    <row r="86">
+      <c r="E86" s="9" t="n"/>
+      <c r="F86" s="9" t="n"/>
+    </row>
+    <row r="87">
+      <c r="E87" s="9" t="n"/>
+      <c r="F87" s="9" t="n"/>
+    </row>
+    <row r="88">
+      <c r="E88" s="9" t="n"/>
+      <c r="F88" s="9" t="n"/>
+    </row>
+    <row r="89">
+      <c r="E89" s="9" t="n"/>
+      <c r="F89" s="9" t="n"/>
+    </row>
+    <row r="90">
+      <c r="E90" s="9" t="n"/>
+      <c r="F90" s="9" t="n"/>
+    </row>
+    <row r="91">
+      <c r="E91" s="9" t="n"/>
+      <c r="F91" s="9" t="n"/>
+    </row>
+    <row r="92">
+      <c r="E92" s="9" t="n"/>
+      <c r="F92" s="9" t="n"/>
+    </row>
+    <row r="93">
+      <c r="E93" s="9" t="n"/>
+      <c r="F93" s="9" t="n"/>
+    </row>
+    <row r="94">
+      <c r="E94" s="9" t="n"/>
+      <c r="F94" s="9" t="n"/>
+    </row>
+    <row r="95">
+      <c r="E95" s="9" t="n"/>
+      <c r="F95" s="9" t="n"/>
+    </row>
+    <row r="96">
+      <c r="E96" s="9" t="n"/>
+      <c r="F96" s="9" t="n"/>
+    </row>
+    <row r="97">
+      <c r="E97" s="9" t="n"/>
+      <c r="F97" s="9" t="n"/>
+    </row>
+    <row r="98">
+      <c r="E98" s="9" t="n"/>
+      <c r="F98" s="9" t="n"/>
+    </row>
+    <row r="99">
+      <c r="E99" s="9" t="n"/>
+      <c r="F99" s="9" t="n"/>
+    </row>
+    <row r="100">
+      <c r="E100" s="9" t="n"/>
+      <c r="F100" s="9" t="n"/>
+    </row>
+    <row r="101">
+      <c r="E101" s="9" t="n"/>
+      <c r="F101" s="9" t="n"/>
+    </row>
+    <row r="102">
+      <c r="E102" s="9" t="n"/>
+      <c r="F102" s="9" t="n"/>
+    </row>
+    <row r="103">
+      <c r="E103" s="9" t="n"/>
+      <c r="F103" s="9" t="n"/>
+    </row>
+    <row r="104">
+      <c r="E104" s="9" t="n"/>
+      <c r="F104" s="9" t="n"/>
+    </row>
+    <row r="105">
+      <c r="E105" s="9" t="n"/>
+      <c r="F105" s="9" t="n"/>
+    </row>
+    <row r="106">
+      <c r="E106" s="9" t="n"/>
+      <c r="F106" s="9" t="n"/>
+    </row>
+    <row r="107">
+      <c r="E107" s="9" t="n"/>
+      <c r="F107" s="9" t="n"/>
+    </row>
+    <row r="108">
+      <c r="E108" s="9" t="n"/>
+      <c r="F108" s="9" t="n"/>
+    </row>
+    <row r="109">
+      <c r="E109" s="9" t="n"/>
+      <c r="F109" s="9" t="n"/>
+    </row>
+    <row r="110">
+      <c r="E110" s="9" t="n"/>
+      <c r="F110" s="9" t="n"/>
+    </row>
+    <row r="111">
+      <c r="E111" s="9" t="n"/>
+      <c r="F111" s="9" t="n"/>
+    </row>
+    <row r="112">
+      <c r="E112" s="9" t="n"/>
+      <c r="F112" s="9" t="n"/>
+    </row>
+    <row r="113">
+      <c r="E113" s="9" t="n"/>
+      <c r="F113" s="9" t="n"/>
+    </row>
+    <row r="114">
+      <c r="E114" s="9" t="n"/>
+      <c r="F114" s="9" t="n"/>
+    </row>
+    <row r="115">
+      <c r="E115" s="9" t="n"/>
+      <c r="F115" s="9" t="n"/>
+    </row>
+    <row r="116">
+      <c r="E116" s="9" t="n"/>
+      <c r="F116" s="9" t="n"/>
+    </row>
+    <row r="117">
+      <c r="E117" s="9" t="n"/>
+      <c r="F117" s="9" t="n"/>
+    </row>
+    <row r="118">
+      <c r="E118" s="9" t="n"/>
+      <c r="F118" s="9" t="n"/>
+    </row>
+    <row r="119">
+      <c r="E119" s="9" t="n"/>
+      <c r="F119" s="9" t="n"/>
+    </row>
+    <row r="120">
+      <c r="E120" s="9" t="n"/>
+      <c r="F120" s="9" t="n"/>
+    </row>
+    <row r="121">
+      <c r="E121" s="9" t="n"/>
+      <c r="F121" s="9" t="n"/>
+    </row>
+    <row r="122">
+      <c r="E122" s="9" t="n"/>
+      <c r="F122" s="9" t="n"/>
+    </row>
+    <row r="123">
+      <c r="E123" s="9" t="n"/>
+      <c r="F123" s="9" t="n"/>
+    </row>
+    <row r="124">
+      <c r="E124" s="9" t="n"/>
+      <c r="F124" s="9" t="n"/>
+    </row>
+    <row r="125">
+      <c r="E125" s="9" t="n"/>
+      <c r="F125" s="9" t="n"/>
+    </row>
+    <row r="126">
+      <c r="E126" s="9" t="n"/>
+      <c r="F126" s="9" t="n"/>
+    </row>
+    <row r="127">
+      <c r="E127" s="9" t="n"/>
+      <c r="F127" s="9" t="n"/>
+    </row>
+    <row r="128">
+      <c r="E128" s="9" t="n"/>
+      <c r="F128" s="9" t="n"/>
+    </row>
+    <row r="129">
+      <c r="E129" s="9" t="n"/>
+      <c r="F129" s="9" t="n"/>
+    </row>
+    <row r="130">
+      <c r="E130" s="9" t="n"/>
+      <c r="F130" s="9" t="n"/>
+    </row>
+    <row r="131">
+      <c r="E131" s="9" t="n"/>
+      <c r="F131" s="9" t="n"/>
+    </row>
+    <row r="132">
+      <c r="E132" s="9" t="n"/>
+      <c r="F132" s="9" t="n"/>
+    </row>
+    <row r="133">
+      <c r="E133" s="9" t="n"/>
+      <c r="F133" s="9" t="n"/>
+    </row>
+    <row r="134">
+      <c r="E134" s="9" t="n"/>
+      <c r="F134" s="9" t="n"/>
+    </row>
+    <row r="135">
+      <c r="E135" s="9" t="n"/>
+      <c r="F135" s="9" t="n"/>
+    </row>
+    <row r="136">
+      <c r="E136" s="9" t="n"/>
+      <c r="F136" s="9" t="n"/>
+    </row>
+    <row r="137">
+      <c r="E137" s="9" t="n"/>
+      <c r="F137" s="9" t="n"/>
+    </row>
+    <row r="138">
+      <c r="E138" s="9" t="n"/>
+      <c r="F138" s="9" t="n"/>
+    </row>
+    <row r="139">
+      <c r="E139" s="9" t="n"/>
+      <c r="F139" s="9" t="n"/>
+    </row>
+    <row r="140">
+      <c r="E140" s="9" t="n"/>
+      <c r="F140" s="9" t="n"/>
+    </row>
+    <row r="141">
+      <c r="E141" s="9" t="n"/>
+      <c r="F141" s="9" t="n"/>
+    </row>
+    <row r="142">
+      <c r="E142" s="9" t="n"/>
+      <c r="F142" s="9" t="n"/>
+    </row>
+    <row r="143">
+      <c r="E143" s="9" t="n"/>
+      <c r="F143" s="9" t="n"/>
+    </row>
+    <row r="144">
+      <c r="E144" s="9" t="n"/>
+      <c r="F144" s="9" t="n"/>
+    </row>
+    <row r="145">
+      <c r="E145" s="9" t="n"/>
+      <c r="F145" s="9" t="n"/>
+    </row>
+    <row r="146">
+      <c r="E146" s="9" t="n"/>
+      <c r="F146" s="9" t="n"/>
+    </row>
+    <row r="147">
+      <c r="E147" s="9" t="n"/>
+      <c r="F147" s="9" t="n"/>
+    </row>
+    <row r="148">
+      <c r="E148" s="9" t="n"/>
+      <c r="F148" s="9" t="n"/>
+    </row>
+    <row r="149">
+      <c r="E149" s="9" t="n"/>
+      <c r="F149" s="9" t="n"/>
+    </row>
+    <row r="150">
+      <c r="E150" s="9" t="n"/>
+      <c r="F150" s="9" t="n"/>
+    </row>
+    <row r="151">
+      <c r="E151" s="9" t="n"/>
+      <c r="F151" s="9" t="n"/>
+    </row>
+    <row r="152">
+      <c r="E152" s="9" t="n"/>
+      <c r="F152" s="9" t="n"/>
+    </row>
+    <row r="153">
+      <c r="E153" s="9" t="n"/>
+      <c r="F153" s="9" t="n"/>
+    </row>
+    <row r="154">
+      <c r="E154" s="9" t="n"/>
+      <c r="F154" s="9" t="n"/>
+    </row>
+    <row r="155">
+      <c r="E155" s="9" t="n"/>
+      <c r="F155" s="9" t="n"/>
+    </row>
+    <row r="156">
+      <c r="E156" s="9" t="n"/>
+      <c r="F156" s="9" t="n"/>
+    </row>
+    <row r="157">
+      <c r="E157" s="9" t="n"/>
+      <c r="F157" s="9" t="n"/>
+    </row>
+    <row r="158">
+      <c r="E158" s="9" t="n"/>
+      <c r="F158" s="9" t="n"/>
+    </row>
+    <row r="159">
+      <c r="E159" s="9" t="n"/>
+      <c r="F159" s="9" t="n"/>
+    </row>
+    <row r="160">
+      <c r="E160" s="9" t="n"/>
+      <c r="F160" s="9" t="n"/>
+    </row>
+    <row r="161">
+      <c r="E161" s="9" t="n"/>
+      <c r="F161" s="9" t="n"/>
+    </row>
+    <row r="162">
+      <c r="E162" s="9" t="n"/>
+      <c r="F162" s="9" t="n"/>
+    </row>
+    <row r="163">
+      <c r="E163" s="9" t="n"/>
+      <c r="F163" s="9" t="n"/>
+    </row>
+    <row r="164">
+      <c r="E164" s="9" t="n"/>
+      <c r="F164" s="9" t="n"/>
+    </row>
+    <row r="165">
+      <c r="E165" s="9" t="n"/>
+      <c r="F165" s="9" t="n"/>
+    </row>
+    <row r="166">
+      <c r="E166" s="9" t="n"/>
+      <c r="F166" s="9" t="n"/>
+    </row>
+    <row r="167">
+      <c r="E167" s="9" t="n"/>
+      <c r="F167" s="9" t="n"/>
+    </row>
+    <row r="168">
+      <c r="E168" s="9" t="n"/>
+      <c r="F168" s="9" t="n"/>
+    </row>
+    <row r="169">
+      <c r="E169" s="9" t="n"/>
+      <c r="F169" s="9" t="n"/>
+    </row>
+    <row r="170">
+      <c r="E170" s="9" t="n"/>
+      <c r="F170" s="9" t="n"/>
+    </row>
+    <row r="171">
+      <c r="E171" s="9" t="n"/>
+      <c r="F171" s="9" t="n"/>
+    </row>
+    <row r="172">
+      <c r="E172" s="9" t="n"/>
+      <c r="F172" s="9" t="n"/>
+    </row>
+    <row r="173">
+      <c r="E173" s="9" t="n"/>
+      <c r="F173" s="9" t="n"/>
+    </row>
+    <row r="174">
+      <c r="E174" s="9" t="n"/>
+      <c r="F174" s="9" t="n"/>
+    </row>
+    <row r="175">
+      <c r="E175" s="9" t="n"/>
+      <c r="F175" s="9" t="n"/>
+    </row>
+    <row r="176">
+      <c r="E176" s="9" t="n"/>
+      <c r="F176" s="9" t="n"/>
+    </row>
+    <row r="177">
+      <c r="E177" s="9" t="n"/>
+      <c r="F177" s="9" t="n"/>
+    </row>
+    <row r="178">
+      <c r="E178" s="9" t="n"/>
+      <c r="F178" s="9" t="n"/>
+    </row>
+    <row r="179">
+      <c r="E179" s="9" t="n"/>
+      <c r="F179" s="9" t="n"/>
+    </row>
+    <row r="180">
+      <c r="E180" s="9" t="n"/>
+      <c r="F180" s="9" t="n"/>
+    </row>
+    <row r="181">
+      <c r="E181" s="9" t="n"/>
+      <c r="F181" s="9" t="n"/>
+    </row>
+    <row r="182">
+      <c r="E182" s="9" t="n"/>
+      <c r="F182" s="9" t="n"/>
+    </row>
+    <row r="183">
+      <c r="E183" s="9" t="n"/>
+      <c r="F183" s="9" t="n"/>
+    </row>
+    <row r="184">
+      <c r="E184" s="9" t="n"/>
+      <c r="F184" s="9" t="n"/>
+    </row>
+    <row r="185">
+      <c r="E185" s="9" t="n"/>
+      <c r="F185" s="9" t="n"/>
+    </row>
+    <row r="186">
+      <c r="E186" s="9" t="n"/>
+      <c r="F186" s="9" t="n"/>
+    </row>
+    <row r="187">
+      <c r="E187" s="9" t="n"/>
+      <c r="F187" s="9" t="n"/>
+    </row>
+    <row r="188">
+      <c r="E188" s="9" t="n"/>
+      <c r="F188" s="9" t="n"/>
+    </row>
+    <row r="189">
+      <c r="E189" s="9" t="n"/>
+      <c r="F189" s="9" t="n"/>
+    </row>
+    <row r="190">
+      <c r="E190" s="9" t="n"/>
+      <c r="F190" s="9" t="n"/>
+    </row>
+    <row r="191">
+      <c r="E191" s="9" t="n"/>
+      <c r="F191" s="9" t="n"/>
+    </row>
+    <row r="192">
+      <c r="E192" s="9" t="n"/>
+      <c r="F192" s="9" t="n"/>
+    </row>
+    <row r="193">
+      <c r="E193" s="9" t="n"/>
+      <c r="F193" s="9" t="n"/>
+    </row>
+    <row r="194">
+      <c r="E194" s="9" t="n"/>
+      <c r="F194" s="9" t="n"/>
+    </row>
+    <row r="195">
+      <c r="E195" s="9" t="n"/>
+      <c r="F195" s="9" t="n"/>
+    </row>
+    <row r="196">
+      <c r="E196" s="9" t="n"/>
+      <c r="F196" s="9" t="n"/>
+    </row>
+    <row r="197">
+      <c r="E197" s="9" t="n"/>
+      <c r="F197" s="9" t="n"/>
+    </row>
+    <row r="198">
+      <c r="E198" s="9" t="n"/>
+      <c r="F198" s="9" t="n"/>
+    </row>
+    <row r="199">
+      <c r="E199" s="9" t="n"/>
+      <c r="F199" s="9" t="n"/>
+    </row>
+    <row r="200">
+      <c r="E200" s="9" t="n"/>
+      <c r="F200" s="9" t="n"/>
+    </row>
+    <row r="201">
+      <c r="E201" s="9" t="n"/>
+      <c r="F201" s="9" t="n"/>
+    </row>
+    <row r="202">
+      <c r="E202" s="9" t="n"/>
+      <c r="F202" s="9" t="n"/>
+    </row>
+    <row r="203">
+      <c r="E203" s="9" t="n"/>
+      <c r="F203" s="9" t="n"/>
+    </row>
+    <row r="204">
+      <c r="E204" s="9" t="n"/>
+      <c r="F204" s="9" t="n"/>
+    </row>
+    <row r="205">
+      <c r="E205" s="9" t="n"/>
+      <c r="F205" s="9" t="n"/>
+    </row>
+    <row r="206">
+      <c r="E206" s="9" t="n"/>
+      <c r="F206" s="9" t="n"/>
+    </row>
+    <row r="207">
+      <c r="E207" s="9" t="n"/>
+      <c r="F207" s="9" t="n"/>
+    </row>
+    <row r="208">
+      <c r="E208" s="9" t="n"/>
+      <c r="F208" s="9" t="n"/>
+    </row>
+    <row r="209">
+      <c r="E209" s="9" t="n"/>
+      <c r="F209" s="9" t="n"/>
+    </row>
+    <row r="210">
+      <c r="E210" s="9" t="n"/>
+      <c r="F210" s="9" t="n"/>
+    </row>
+    <row r="211">
+      <c r="E211" s="9" t="n"/>
+      <c r="F211" s="9" t="n"/>
+    </row>
+    <row r="212">
+      <c r="E212" s="9" t="n"/>
+      <c r="F212" s="9" t="n"/>
+    </row>
+    <row r="213">
+      <c r="E213" s="9" t="n"/>
+      <c r="F213" s="9" t="n"/>
+    </row>
+    <row r="214">
+      <c r="E214" s="9" t="n"/>
+      <c r="F214" s="9" t="n"/>
+    </row>
+    <row r="215">
+      <c r="E215" s="9" t="n"/>
+      <c r="F215" s="9" t="n"/>
+    </row>
+    <row r="216">
+      <c r="E216" s="9" t="n"/>
+      <c r="F216" s="9" t="n"/>
+    </row>
+    <row r="217">
+      <c r="E217" s="9" t="n"/>
+      <c r="F217" s="9" t="n"/>
+    </row>
+    <row r="218">
+      <c r="E218" s="9" t="n"/>
+      <c r="F218" s="9" t="n"/>
+    </row>
+    <row r="219">
+      <c r="E219" s="9" t="n"/>
+      <c r="F219" s="9" t="n"/>
+    </row>
+    <row r="220">
+      <c r="E220" s="9" t="n"/>
+      <c r="F220" s="9" t="n"/>
+    </row>
+    <row r="221">
+      <c r="E221" s="9" t="n"/>
+      <c r="F221" s="9" t="n"/>
+    </row>
+    <row r="222">
+      <c r="E222" s="9" t="n"/>
+      <c r="F222" s="9" t="n"/>
+    </row>
+    <row r="223">
+      <c r="E223" s="9" t="n"/>
+      <c r="F223" s="9" t="n"/>
+    </row>
+    <row r="224">
+      <c r="E224" s="9" t="n"/>
+      <c r="F224" s="9" t="n"/>
+    </row>
+    <row r="225">
+      <c r="E225" s="9" t="n"/>
+      <c r="F225" s="9" t="n"/>
+    </row>
+    <row r="226">
+      <c r="E226" s="9" t="n"/>
+      <c r="F226" s="9" t="n"/>
+    </row>
+    <row r="227">
+      <c r="E227" s="9" t="n"/>
+      <c r="F227" s="9" t="n"/>
+    </row>
+    <row r="228">
+      <c r="E228" s="9" t="n"/>
+      <c r="F228" s="9" t="n"/>
+    </row>
+    <row r="229">
+      <c r="E229" s="9" t="n"/>
+      <c r="F229" s="9" t="n"/>
+    </row>
+    <row r="230">
+      <c r="E230" s="9" t="n"/>
+      <c r="F230" s="9" t="n"/>
+    </row>
+    <row r="231">
+      <c r="E231" s="9" t="n"/>
+      <c r="F231" s="9" t="n"/>
+    </row>
+    <row r="232">
+      <c r="E232" s="9" t="n"/>
+      <c r="F232" s="9" t="n"/>
+    </row>
+    <row r="233">
+      <c r="E233" s="9" t="n"/>
+      <c r="F233" s="9" t="n"/>
+    </row>
+    <row r="234">
+      <c r="E234" s="9" t="n"/>
+      <c r="F234" s="9" t="n"/>
+    </row>
+    <row r="235">
+      <c r="E235" s="9" t="n"/>
+      <c r="F235" s="9" t="n"/>
+    </row>
+    <row r="236">
+      <c r="E236" s="9" t="n"/>
+      <c r="F236" s="9" t="n"/>
+    </row>
+    <row r="237">
+      <c r="E237" s="9" t="n"/>
+      <c r="F237" s="9" t="n"/>
+    </row>
+    <row r="238">
+      <c r="E238" s="9" t="n"/>
+      <c r="F238" s="9" t="n"/>
+    </row>
+    <row r="239">
+      <c r="E239" s="9" t="n"/>
+      <c r="F239" s="9" t="n"/>
+    </row>
+    <row r="240">
+      <c r="E240" s="9" t="n"/>
+      <c r="F240" s="9" t="n"/>
+    </row>
+    <row r="241">
+      <c r="E241" s="9" t="n"/>
+      <c r="F241" s="9" t="n"/>
+    </row>
+    <row r="242">
+      <c r="E242" s="9" t="n"/>
+      <c r="F242" s="9" t="n"/>
+    </row>
+    <row r="243">
+      <c r="E243" s="9" t="n"/>
+      <c r="F243" s="9" t="n"/>
+    </row>
+    <row r="244">
+      <c r="E244" s="9" t="n"/>
+      <c r="F244" s="9" t="n"/>
+    </row>
+    <row r="245">
+      <c r="E245" s="9" t="n"/>
+      <c r="F245" s="9" t="n"/>
+    </row>
+    <row r="246">
+      <c r="E246" s="9" t="n"/>
+      <c r="F246" s="9" t="n"/>
+    </row>
+    <row r="247">
+      <c r="E247" s="9" t="n"/>
+      <c r="F247" s="9" t="n"/>
+    </row>
+    <row r="248">
+      <c r="E248" s="9" t="n"/>
+      <c r="F248" s="9" t="n"/>
+    </row>
+    <row r="249">
+      <c r="E249" s="9" t="n"/>
+      <c r="F249" s="9" t="n"/>
+    </row>
+    <row r="250">
+      <c r="E250" s="9" t="n"/>
+      <c r="F250" s="9" t="n"/>
+    </row>
+    <row r="251">
+      <c r="E251" s="9" t="n"/>
+      <c r="F251" s="9" t="n"/>
+    </row>
+    <row r="252">
+      <c r="E252" s="9" t="n"/>
+      <c r="F252" s="9" t="n"/>
+    </row>
+    <row r="253">
+      <c r="E253" s="9" t="n"/>
+      <c r="F253" s="9" t="n"/>
+    </row>
+    <row r="254">
+      <c r="E254" s="9" t="n"/>
+      <c r="F254" s="9" t="n"/>
+    </row>
+    <row r="255">
+      <c r="E255" s="9" t="n"/>
+      <c r="F255" s="9" t="n"/>
+    </row>
+    <row r="256">
+      <c r="E256" s="9" t="n"/>
+      <c r="F256" s="9" t="n"/>
+    </row>
+    <row r="257">
+      <c r="E257" s="9" t="n"/>
+      <c r="F257" s="9" t="n"/>
+    </row>
+    <row r="258">
+      <c r="E258" s="9" t="n"/>
+      <c r="F258" s="9" t="n"/>
+    </row>
+    <row r="259">
+      <c r="E259" s="9" t="n"/>
+      <c r="F259" s="9" t="n"/>
+    </row>
+    <row r="260">
+      <c r="E260" s="9" t="n"/>
+      <c r="F260" s="9" t="n"/>
+    </row>
+    <row r="261">
+      <c r="E261" s="9" t="n"/>
+      <c r="F261" s="9" t="n"/>
+    </row>
+    <row r="262">
+      <c r="E262" s="9" t="n"/>
+      <c r="F262" s="9" t="n"/>
+    </row>
+    <row r="263">
+      <c r="E263" s="9" t="n"/>
+      <c r="F263" s="9" t="n"/>
+    </row>
+    <row r="264">
+      <c r="E264" s="9" t="n"/>
+      <c r="F264" s="9" t="n"/>
+    </row>
+    <row r="265">
+      <c r="E265" s="9" t="n"/>
+      <c r="F265" s="9" t="n"/>
+    </row>
+    <row r="266">
+      <c r="E266" s="9" t="n"/>
+      <c r="F266" s="9" t="n"/>
+    </row>
+    <row r="267">
+      <c r="E267" s="9" t="n"/>
+      <c r="F267" s="9" t="n"/>
+    </row>
+    <row r="268">
+      <c r="E268" s="9" t="n"/>
+      <c r="F268" s="9" t="n"/>
+    </row>
+    <row r="269">
+      <c r="E269" s="9" t="n"/>
+      <c r="F269" s="9" t="n"/>
+    </row>
+    <row r="270">
+      <c r="E270" s="9" t="n"/>
+      <c r="F270" s="9" t="n"/>
+    </row>
+    <row r="271">
+      <c r="E271" s="9" t="n"/>
+      <c r="F271" s="9" t="n"/>
+    </row>
+    <row r="272">
+      <c r="E272" s="9" t="n"/>
+      <c r="F272" s="9" t="n"/>
+    </row>
+    <row r="273">
+      <c r="E273" s="9" t="n"/>
+      <c r="F273" s="9" t="n"/>
+    </row>
+    <row r="274">
+      <c r="E274" s="9" t="n"/>
+      <c r="F274" s="9" t="n"/>
+    </row>
+    <row r="275">
+      <c r="E275" s="9" t="n"/>
+      <c r="F275" s="9" t="n"/>
+    </row>
+    <row r="276">
+      <c r="E276" s="9" t="n"/>
+      <c r="F276" s="9" t="n"/>
+    </row>
+    <row r="277">
+      <c r="E277" s="9" t="n"/>
+      <c r="F277" s="9" t="n"/>
+    </row>
+    <row r="278">
+      <c r="E278" s="9" t="n"/>
+      <c r="F278" s="9" t="n"/>
+    </row>
+    <row r="279">
+      <c r="E279" s="9" t="n"/>
+      <c r="F279" s="9" t="n"/>
+    </row>
+    <row r="280">
+      <c r="E280" s="9" t="n"/>
+      <c r="F280" s="9" t="n"/>
+    </row>
+    <row r="281">
+      <c r="E281" s="9" t="n"/>
+      <c r="F281" s="9" t="n"/>
+    </row>
+    <row r="282">
+      <c r="E282" s="9" t="n"/>
+      <c r="F282" s="9" t="n"/>
+    </row>
+    <row r="283">
+      <c r="E283" s="9" t="n"/>
+      <c r="F283" s="9" t="n"/>
+    </row>
+    <row r="284">
+      <c r="E284" s="9" t="n"/>
+      <c r="F284" s="9" t="n"/>
+    </row>
+    <row r="285">
+      <c r="E285" s="9" t="n"/>
+      <c r="F285" s="9" t="n"/>
+    </row>
+    <row r="286">
+      <c r="E286" s="9" t="n"/>
+      <c r="F286" s="9" t="n"/>
+    </row>
+    <row r="287">
+      <c r="E287" s="9" t="n"/>
+      <c r="F287" s="9" t="n"/>
+    </row>
+    <row r="288">
+      <c r="E288" s="9" t="n"/>
+      <c r="F288" s="9" t="n"/>
+    </row>
+    <row r="289">
+      <c r="E289" s="9" t="n"/>
+      <c r="F289" s="9" t="n"/>
+    </row>
+    <row r="290">
+      <c r="E290" s="9" t="n"/>
+      <c r="F290" s="9" t="n"/>
+    </row>
+    <row r="291">
+      <c r="E291" s="9" t="n"/>
+      <c r="F291" s="9" t="n"/>
+    </row>
+    <row r="292">
+      <c r="E292" s="9" t="n"/>
+      <c r="F292" s="9" t="n"/>
+    </row>
+    <row r="293">
+      <c r="E293" s="9" t="n"/>
+      <c r="F293" s="9" t="n"/>
+    </row>
+    <row r="294">
+      <c r="E294" s="9" t="n"/>
+      <c r="F294" s="9" t="n"/>
+    </row>
+    <row r="295">
+      <c r="E295" s="9" t="n"/>
+      <c r="F295" s="9" t="n"/>
+    </row>
+    <row r="296">
+      <c r="E296" s="9" t="n"/>
+      <c r="F296" s="9" t="n"/>
+    </row>
+    <row r="297">
+      <c r="E297" s="9" t="n"/>
+      <c r="F297" s="9" t="n"/>
+    </row>
+    <row r="298">
+      <c r="E298" s="9" t="n"/>
+      <c r="F298" s="9" t="n"/>
+    </row>
+    <row r="299">
+      <c r="E299" s="9" t="n"/>
+      <c r="F299" s="9" t="n"/>
+    </row>
+    <row r="300">
+      <c r="E300" s="9" t="n"/>
+      <c r="F300" s="9" t="n"/>
+    </row>
+    <row r="301">
+      <c r="E301" s="9" t="n"/>
+      <c r="F301" s="9" t="n"/>
+    </row>
+    <row r="302">
+      <c r="E302" s="9" t="n"/>
+      <c r="F302" s="9" t="n"/>
+    </row>
+    <row r="303">
+      <c r="E303" s="9" t="n"/>
+      <c r="F303" s="9" t="n"/>
+    </row>
+    <row r="304">
+      <c r="E304" s="9" t="n"/>
+      <c r="F304" s="9" t="n"/>
+    </row>
+    <row r="305">
+      <c r="E305" s="9" t="n"/>
+      <c r="F305" s="9" t="n"/>
+    </row>
+    <row r="306">
+      <c r="E306" s="9" t="n"/>
+      <c r="F306" s="9" t="n"/>
+    </row>
+    <row r="307">
+      <c r="E307" s="9" t="n"/>
+      <c r="F307" s="9" t="n"/>
+    </row>
+    <row r="308">
+      <c r="E308" s="9" t="n"/>
+      <c r="F308" s="9" t="n"/>
+    </row>
+    <row r="309">
+      <c r="E309" s="9" t="n"/>
+      <c r="F309" s="9" t="n"/>
+    </row>
+    <row r="310">
+      <c r="E310" s="9" t="n"/>
+      <c r="F310" s="9" t="n"/>
+    </row>
+    <row r="311">
+      <c r="E311" s="9" t="n"/>
+      <c r="F311" s="9" t="n"/>
+    </row>
+    <row r="312">
+      <c r="E312" s="9" t="n"/>
+      <c r="F312" s="9" t="n"/>
+    </row>
+    <row r="313">
+      <c r="E313" s="9" t="n"/>
+      <c r="F313" s="9" t="n"/>
+    </row>
+    <row r="314">
+      <c r="E314" s="9" t="n"/>
+      <c r="F314" s="9" t="n"/>
+    </row>
+    <row r="315">
+      <c r="E315" s="9" t="n"/>
+      <c r="F315" s="9" t="n"/>
+    </row>
+    <row r="316">
+      <c r="E316" s="9" t="n"/>
+      <c r="F316" s="9" t="n"/>
+    </row>
+    <row r="317">
+      <c r="E317" s="9" t="n"/>
+      <c r="F317" s="9" t="n"/>
+    </row>
+    <row r="318">
+      <c r="E318" s="9" t="n"/>
+      <c r="F318" s="9" t="n"/>
+    </row>
+    <row r="319">
+      <c r="E319" s="9" t="n"/>
+      <c r="F319" s="9" t="n"/>
+    </row>
+    <row r="320">
+      <c r="E320" s="9" t="n"/>
+      <c r="F320" s="9" t="n"/>
+    </row>
+    <row r="321">
+      <c r="E321" s="9" t="n"/>
+      <c r="F321" s="9" t="n"/>
+    </row>
+    <row r="322">
+      <c r="E322" s="9" t="n"/>
+      <c r="F322" s="9" t="n"/>
+    </row>
+    <row r="323">
+      <c r="E323" s="9" t="n"/>
+      <c r="F323" s="9" t="n"/>
+    </row>
+    <row r="324">
+      <c r="E324" s="9" t="n"/>
+      <c r="F324" s="9" t="n"/>
+    </row>
+    <row r="325">
+      <c r="E325" s="9" t="n"/>
+      <c r="F325" s="9" t="n"/>
+    </row>
+    <row r="326">
+      <c r="E326" s="9" t="n"/>
+      <c r="F326" s="9" t="n"/>
+    </row>
+    <row r="327">
+      <c r="E327" s="9" t="n"/>
+      <c r="F327" s="9" t="n"/>
+    </row>
+    <row r="328">
+      <c r="E328" s="9" t="n"/>
+      <c r="F328" s="9" t="n"/>
+    </row>
+    <row r="329">
+      <c r="E329" s="9" t="n"/>
+      <c r="F329" s="9" t="n"/>
+    </row>
+    <row r="330">
+      <c r="E330" s="9" t="n"/>
+      <c r="F330" s="9" t="n"/>
+    </row>
+    <row r="331">
+      <c r="E331" s="9" t="n"/>
+      <c r="F331" s="9" t="n"/>
+    </row>
+    <row r="332">
+      <c r="E332" s="9" t="n"/>
+      <c r="F332" s="9" t="n"/>
+    </row>
+    <row r="333">
+      <c r="E333" s="9" t="n"/>
+      <c r="F333" s="9" t="n"/>
+    </row>
+    <row r="334">
+      <c r="E334" s="9" t="n"/>
+      <c r="F334" s="9" t="n"/>
+    </row>
+    <row r="335">
+      <c r="E335" s="9" t="n"/>
+      <c r="F335" s="9" t="n"/>
+    </row>
+    <row r="336">
+      <c r="E336" s="9" t="n"/>
+      <c r="F336" s="9" t="n"/>
+    </row>
+    <row r="337">
+      <c r="E337" s="9" t="n"/>
+      <c r="F337" s="9" t="n"/>
+    </row>
+    <row r="338">
+      <c r="E338" s="9" t="n"/>
+      <c r="F338" s="9" t="n"/>
+    </row>
+    <row r="339">
+      <c r="E339" s="9" t="n"/>
+      <c r="F339" s="9" t="n"/>
+    </row>
+    <row r="340">
+      <c r="E340" s="9" t="n"/>
+      <c r="F340" s="9" t="n"/>
+    </row>
+    <row r="341">
+      <c r="E341" s="9" t="n"/>
+      <c r="F341" s="9" t="n"/>
+    </row>
+    <row r="342">
+      <c r="E342" s="9" t="n"/>
+      <c r="F342" s="9" t="n"/>
+    </row>
+    <row r="343">
+      <c r="E343" s="9" t="n"/>
+      <c r="F343" s="9" t="n"/>
+    </row>
+    <row r="344">
+      <c r="E344" s="9" t="n"/>
+      <c r="F344" s="9" t="n"/>
+    </row>
+    <row r="345">
+      <c r="E345" s="9" t="n"/>
+      <c r="F345" s="9" t="n"/>
+    </row>
+    <row r="346">
+      <c r="E346" s="9" t="n"/>
+      <c r="F346" s="9" t="n"/>
+    </row>
+    <row r="347">
+      <c r="E347" s="9" t="n"/>
+      <c r="F347" s="9" t="n"/>
+    </row>
+    <row r="348">
+      <c r="E348" s="9" t="n"/>
+      <c r="F348" s="9" t="n"/>
+    </row>
+    <row r="349">
+      <c r="E349" s="9" t="n"/>
+      <c r="F349" s="9" t="n"/>
+    </row>
+    <row r="350">
+      <c r="E350" s="9" t="n"/>
+      <c r="F350" s="9" t="n"/>
+    </row>
+    <row r="351">
+      <c r="E351" s="9" t="n"/>
+      <c r="F351" s="9" t="n"/>
+    </row>
+    <row r="352">
+      <c r="E352" s="9" t="n"/>
+      <c r="F352" s="9" t="n"/>
+    </row>
+    <row r="353">
+      <c r="E353" s="9" t="n"/>
+      <c r="F353" s="9" t="n"/>
+    </row>
+    <row r="354">
+      <c r="E354" s="9" t="n"/>
+      <c r="F354" s="9" t="n"/>
+    </row>
+    <row r="355">
+      <c r="E355" s="9" t="n"/>
+      <c r="F355" s="9" t="n"/>
+    </row>
+    <row r="356">
+      <c r="E356" s="9" t="n"/>
+      <c r="F356" s="9" t="n"/>
+    </row>
+    <row r="357">
+      <c r="E357" s="9" t="n"/>
+      <c r="F357" s="9" t="n"/>
+    </row>
+    <row r="358">
+      <c r="E358" s="9" t="n"/>
+      <c r="F358" s="9" t="n"/>
+    </row>
+    <row r="359">
+      <c r="E359" s="9" t="n"/>
+      <c r="F359" s="9" t="n"/>
+    </row>
+    <row r="360">
+      <c r="E360" s="9" t="n"/>
+      <c r="F360" s="9" t="n"/>
+    </row>
+    <row r="361">
+      <c r="E361" s="9" t="n"/>
+      <c r="F361" s="9" t="n"/>
+    </row>
+    <row r="362">
+      <c r="E362" s="9" t="n"/>
+      <c r="F362" s="9" t="n"/>
+    </row>
+    <row r="363">
+      <c r="E363" s="9" t="n"/>
+      <c r="F363" s="9" t="n"/>
+    </row>
+    <row r="364">
+      <c r="E364" s="9" t="n"/>
+      <c r="F364" s="9" t="n"/>
+    </row>
+    <row r="365">
+      <c r="E365" s="9" t="n"/>
+      <c r="F365" s="9" t="n"/>
+    </row>
+    <row r="366">
+      <c r="E366" s="9" t="n"/>
+      <c r="F366" s="9" t="n"/>
+    </row>
+    <row r="367">
+      <c r="E367" s="9" t="n"/>
+      <c r="F367" s="9" t="n"/>
+    </row>
+    <row r="368">
+      <c r="E368" s="9" t="n"/>
+      <c r="F368" s="9" t="n"/>
+    </row>
+    <row r="369">
+      <c r="E369" s="9" t="n"/>
+      <c r="F369" s="9" t="n"/>
+    </row>
+    <row r="370">
+      <c r="E370" s="9" t="n"/>
+      <c r="F370" s="9" t="n"/>
+    </row>
+    <row r="371">
+      <c r="E371" s="9" t="n"/>
+      <c r="F371" s="9" t="n"/>
+    </row>
+    <row r="372">
+      <c r="E372" s="9" t="n"/>
+      <c r="F372" s="9" t="n"/>
+    </row>
+    <row r="373">
+      <c r="E373" s="9" t="n"/>
+      <c r="F373" s="9" t="n"/>
+    </row>
+    <row r="374">
+      <c r="E374" s="9" t="n"/>
+      <c r="F374" s="9" t="n"/>
+    </row>
+    <row r="375">
+      <c r="E375" s="9" t="n"/>
+      <c r="F375" s="9" t="n"/>
+    </row>
+    <row r="376">
+      <c r="E376" s="9" t="n"/>
+      <c r="F376" s="9" t="n"/>
+    </row>
+    <row r="377">
+      <c r="E377" s="9" t="n"/>
+      <c r="F377" s="9" t="n"/>
+    </row>
+    <row r="378">
+      <c r="E378" s="9" t="n"/>
+      <c r="F378" s="9" t="n"/>
+    </row>
+    <row r="379">
+      <c r="E379" s="9" t="n"/>
+      <c r="F379" s="9" t="n"/>
+    </row>
+    <row r="380">
+      <c r="E380" s="9" t="n"/>
+      <c r="F380" s="9" t="n"/>
+    </row>
+    <row r="381">
+      <c r="E381" s="9" t="n"/>
+      <c r="F381" s="9" t="n"/>
+    </row>
+    <row r="382">
+      <c r="E382" s="9" t="n"/>
+      <c r="F382" s="9" t="n"/>
+    </row>
+    <row r="383">
+      <c r="E383" s="9" t="n"/>
+      <c r="F383" s="9" t="n"/>
+    </row>
+    <row r="384">
+      <c r="E384" s="9" t="n"/>
+      <c r="F384" s="9" t="n"/>
+    </row>
+    <row r="385">
+      <c r="E385" s="9" t="n"/>
+      <c r="F385" s="9" t="n"/>
+    </row>
+    <row r="386">
+      <c r="E386" s="9" t="n"/>
+      <c r="F386" s="9" t="n"/>
+    </row>
+    <row r="387">
+      <c r="E387" s="9" t="n"/>
+      <c r="F387" s="9" t="n"/>
+    </row>
+    <row r="388">
+      <c r="E388" s="9" t="n"/>
+      <c r="F388" s="9" t="n"/>
+    </row>
+    <row r="389">
+      <c r="E389" s="9" t="n"/>
+      <c r="F389" s="9" t="n"/>
+    </row>
+    <row r="390">
+      <c r="E390" s="9" t="n"/>
+      <c r="F390" s="9" t="n"/>
+    </row>
+    <row r="391">
+      <c r="E391" s="9" t="n"/>
+      <c r="F391" s="9" t="n"/>
+    </row>
+    <row r="392">
+      <c r="E392" s="9" t="n"/>
+      <c r="F392" s="9" t="n"/>
+    </row>
+    <row r="393">
+      <c r="E393" s="9" t="n"/>
+      <c r="F393" s="9" t="n"/>
+    </row>
+    <row r="394">
+      <c r="E394" s="9" t="n"/>
+      <c r="F394" s="9" t="n"/>
+    </row>
+    <row r="395">
+      <c r="E395" s="9" t="n"/>
+      <c r="F395" s="9" t="n"/>
+    </row>
+    <row r="396">
+      <c r="E396" s="9" t="n"/>
+      <c r="F396" s="9" t="n"/>
+    </row>
+    <row r="397">
+      <c r="E397" s="9" t="n"/>
+      <c r="F397" s="9" t="n"/>
+    </row>
+    <row r="398">
+      <c r="E398" s="9" t="n"/>
+      <c r="F398" s="9" t="n"/>
+    </row>
+    <row r="399">
+      <c r="E399" s="9" t="n"/>
+      <c r="F399" s="9" t="n"/>
+    </row>
+    <row r="400">
+      <c r="E400" s="9" t="n"/>
+      <c r="F400" s="9" t="n"/>
+    </row>
+    <row r="401">
+      <c r="E401" s="9" t="n"/>
+      <c r="F401" s="9" t="n"/>
+    </row>
+    <row r="402">
+      <c r="E402" s="9" t="n"/>
+      <c r="F402" s="9" t="n"/>
+    </row>
+    <row r="403">
+      <c r="E403" s="9" t="n"/>
+      <c r="F403" s="9" t="n"/>
+    </row>
+    <row r="404">
+      <c r="E404" s="9" t="n"/>
+      <c r="F404" s="9" t="n"/>
+    </row>
+    <row r="405">
+      <c r="E405" s="9" t="n"/>
+      <c r="F405" s="9" t="n"/>
+    </row>
+    <row r="406">
+      <c r="E406" s="9" t="n"/>
+      <c r="F406" s="9" t="n"/>
+    </row>
+    <row r="407">
+      <c r="E407" s="9" t="n"/>
+      <c r="F407" s="9" t="n"/>
+    </row>
+    <row r="408">
+      <c r="E408" s="9" t="n"/>
+      <c r="F408" s="9" t="n"/>
+    </row>
+    <row r="409">
+      <c r="E409" s="9" t="n"/>
+      <c r="F409" s="9" t="n"/>
+    </row>
+    <row r="410">
+      <c r="E410" s="9" t="n"/>
+      <c r="F410" s="9" t="n"/>
+    </row>
+    <row r="411">
+      <c r="E411" s="9" t="n"/>
+      <c r="F411" s="9" t="n"/>
+    </row>
+    <row r="412">
+      <c r="E412" s="9" t="n"/>
+      <c r="F412" s="9" t="n"/>
+    </row>
+    <row r="413">
+      <c r="E413" s="9" t="n"/>
+      <c r="F413" s="9" t="n"/>
+    </row>
+    <row r="414">
+      <c r="E414" s="9" t="n"/>
+      <c r="F414" s="9" t="n"/>
+    </row>
+    <row r="415">
+      <c r="E415" s="9" t="n"/>
+      <c r="F415" s="9" t="n"/>
+    </row>
+    <row r="416">
+      <c r="E416" s="9" t="n"/>
+      <c r="F416" s="9" t="n"/>
+    </row>
+    <row r="417">
+      <c r="E417" s="9" t="n"/>
+      <c r="F417" s="9" t="n"/>
+    </row>
+    <row r="418">
+      <c r="E418" s="9" t="n"/>
+      <c r="F418" s="9" t="n"/>
+    </row>
+    <row r="419">
+      <c r="E419" s="9" t="n"/>
+      <c r="F419" s="9" t="n"/>
+    </row>
+    <row r="420">
+      <c r="E420" s="9" t="n"/>
+      <c r="F420" s="9" t="n"/>
+    </row>
+    <row r="421">
+      <c r="E421" s="9" t="n"/>
+      <c r="F421" s="9" t="n"/>
+    </row>
+    <row r="422">
+      <c r="E422" s="9" t="n"/>
+      <c r="F422" s="9" t="n"/>
+    </row>
+    <row r="423">
+      <c r="E423" s="9" t="n"/>
+      <c r="F423" s="9" t="n"/>
+    </row>
+    <row r="424">
+      <c r="E424" s="9" t="n"/>
+      <c r="F424" s="9" t="n"/>
+    </row>
+    <row r="425">
+      <c r="E425" s="9" t="n"/>
+      <c r="F425" s="9" t="n"/>
+    </row>
+    <row r="426">
+      <c r="E426" s="9" t="n"/>
+      <c r="F426" s="9" t="n"/>
+    </row>
+    <row r="427">
+      <c r="E427" s="9" t="n"/>
+      <c r="F427" s="9" t="n"/>
+    </row>
+    <row r="428">
+      <c r="E428" s="9" t="n"/>
+      <c r="F428" s="9" t="n"/>
+    </row>
+    <row r="429">
+      <c r="E429" s="9" t="n"/>
+      <c r="F429" s="9" t="n"/>
+    </row>
+    <row r="430">
+      <c r="E430" s="9" t="n"/>
+      <c r="F430" s="9" t="n"/>
+    </row>
+    <row r="431">
+      <c r="E431" s="9" t="n"/>
+      <c r="F431" s="9" t="n"/>
+    </row>
+    <row r="432">
+      <c r="E432" s="9" t="n"/>
+      <c r="F432" s="9" t="n"/>
+    </row>
+    <row r="433">
+      <c r="E433" s="9" t="n"/>
+      <c r="F433" s="9" t="n"/>
+    </row>
+    <row r="434">
+      <c r="E434" s="9" t="n"/>
+      <c r="F434" s="9" t="n"/>
+    </row>
+    <row r="435">
+      <c r="E435" s="9" t="n"/>
+      <c r="F435" s="9" t="n"/>
+    </row>
+    <row r="436">
+      <c r="E436" s="9" t="n"/>
+      <c r="F436" s="9" t="n"/>
+    </row>
+    <row r="437">
+      <c r="E437" s="9" t="n"/>
+      <c r="F437" s="9" t="n"/>
+    </row>
+    <row r="438">
+      <c r="E438" s="9" t="n"/>
+      <c r="F438" s="9" t="n"/>
+    </row>
+    <row r="439">
+      <c r="E439" s="9" t="n"/>
+      <c r="F439" s="9" t="n"/>
+    </row>
+    <row r="440">
+      <c r="E440" s="9" t="n"/>
+      <c r="F440" s="9" t="n"/>
+    </row>
+    <row r="441">
+      <c r="E441" s="9" t="n"/>
+      <c r="F441" s="9" t="n"/>
+    </row>
+    <row r="442">
+      <c r="E442" s="9" t="n"/>
+      <c r="F442" s="9" t="n"/>
+    </row>
+    <row r="443">
+      <c r="E443" s="9" t="n"/>
+      <c r="F443" s="9" t="n"/>
+    </row>
+    <row r="444">
+      <c r="E444" s="9" t="n"/>
+      <c r="F444" s="9" t="n"/>
+    </row>
+    <row r="445">
+      <c r="E445" s="9" t="n"/>
+      <c r="F445" s="9" t="n"/>
+    </row>
+    <row r="446">
+      <c r="E446" s="9" t="n"/>
+      <c r="F446" s="9" t="n"/>
+    </row>
+    <row r="447">
+      <c r="E447" s="9" t="n"/>
+      <c r="F447" s="9" t="n"/>
+    </row>
+    <row r="448">
+      <c r="E448" s="9" t="n"/>
+      <c r="F448" s="9" t="n"/>
+    </row>
+    <row r="449">
+      <c r="E449" s="9" t="n"/>
+      <c r="F449" s="9" t="n"/>
+    </row>
+    <row r="450">
+      <c r="E450" s="9" t="n"/>
+      <c r="F450" s="9" t="n"/>
+    </row>
+    <row r="451">
+      <c r="E451" s="9" t="n"/>
+      <c r="F451" s="9" t="n"/>
+    </row>
+    <row r="452">
+      <c r="E452" s="9" t="n"/>
+      <c r="F452" s="9" t="n"/>
+    </row>
+    <row r="453">
+      <c r="E453" s="9" t="n"/>
+      <c r="F453" s="9" t="n"/>
+    </row>
+    <row r="454">
+      <c r="E454" s="9" t="n"/>
+      <c r="F454" s="9" t="n"/>
+    </row>
+    <row r="455">
+      <c r="E455" s="9" t="n"/>
+      <c r="F455" s="9" t="n"/>
+    </row>
+    <row r="456">
+      <c r="E456" s="9" t="n"/>
+      <c r="F456" s="9" t="n"/>
+    </row>
+    <row r="457">
+      <c r="E457" s="9" t="n"/>
+      <c r="F457" s="9" t="n"/>
+    </row>
+    <row r="458">
+      <c r="E458" s="9" t="n"/>
+      <c r="F458" s="9" t="n"/>
+    </row>
+    <row r="459">
+      <c r="E459" s="9" t="n"/>
+      <c r="F459" s="9" t="n"/>
+    </row>
+    <row r="460">
+      <c r="E460" s="9" t="n"/>
+      <c r="F460" s="9" t="n"/>
+    </row>
+    <row r="461">
+      <c r="E461" s="9" t="n"/>
+      <c r="F461" s="9" t="n"/>
+    </row>
+    <row r="462">
+      <c r="E462" s="9" t="n"/>
+      <c r="F462" s="9" t="n"/>
+    </row>
+    <row r="463">
+      <c r="E463" s="9" t="n"/>
+      <c r="F463" s="9" t="n"/>
+    </row>
+    <row r="464">
+      <c r="E464" s="9" t="n"/>
+      <c r="F464" s="9" t="n"/>
+    </row>
+    <row r="465">
+      <c r="E465" s="9" t="n"/>
+      <c r="F465" s="9" t="n"/>
+    </row>
+    <row r="466">
+      <c r="E466" s="9" t="n"/>
+      <c r="F466" s="9" t="n"/>
+    </row>
+    <row r="467">
+      <c r="E467" s="9" t="n"/>
+      <c r="F467" s="9" t="n"/>
+    </row>
+    <row r="468">
+      <c r="E468" s="9" t="n"/>
+      <c r="F468" s="9" t="n"/>
+    </row>
+    <row r="469">
+      <c r="E469" s="9" t="n"/>
+      <c r="F469" s="9" t="n"/>
+    </row>
+    <row r="470">
+      <c r="E470" s="9" t="n"/>
+      <c r="F470" s="9" t="n"/>
+    </row>
+    <row r="471">
+      <c r="E471" s="9" t="n"/>
+      <c r="F471" s="9" t="n"/>
+    </row>
+    <row r="472">
+      <c r="E472" s="9" t="n"/>
+      <c r="F472" s="9" t="n"/>
+    </row>
+    <row r="473">
+      <c r="E473" s="9" t="n"/>
+      <c r="F473" s="9" t="n"/>
+    </row>
+    <row r="474">
+      <c r="E474" s="9" t="n"/>
+      <c r="F474" s="9" t="n"/>
+    </row>
+    <row r="475">
+      <c r="E475" s="9" t="n"/>
+      <c r="F475" s="9" t="n"/>
+    </row>
+    <row r="476">
+      <c r="E476" s="9" t="n"/>
+      <c r="F476" s="9" t="n"/>
+    </row>
+    <row r="477">
+      <c r="E477" s="9" t="n"/>
+      <c r="F477" s="9" t="n"/>
+    </row>
+    <row r="478">
+      <c r="E478" s="9" t="n"/>
+      <c r="F478" s="9" t="n"/>
+    </row>
+    <row r="479">
+      <c r="E479" s="9" t="n"/>
+      <c r="F479" s="9" t="n"/>
+    </row>
+    <row r="480">
+      <c r="E480" s="9" t="n"/>
+      <c r="F480" s="9" t="n"/>
+    </row>
+    <row r="481">
+      <c r="E481" s="9" t="n"/>
+      <c r="F481" s="9" t="n"/>
+    </row>
+    <row r="482">
+      <c r="E482" s="9" t="n"/>
+      <c r="F482" s="9" t="n"/>
+    </row>
+    <row r="483">
+      <c r="E483" s="9" t="n"/>
+      <c r="F483" s="9" t="n"/>
+    </row>
+    <row r="484">
+      <c r="E484" s="9" t="n"/>
+      <c r="F484" s="9" t="n"/>
+    </row>
+    <row r="485">
+      <c r="E485" s="9" t="n"/>
+      <c r="F485" s="9" t="n"/>
+    </row>
+    <row r="486">
+      <c r="E486" s="9" t="n"/>
+      <c r="F486" s="9" t="n"/>
+    </row>
+    <row r="487">
+      <c r="E487" s="9" t="n"/>
+      <c r="F487" s="9" t="n"/>
+    </row>
+    <row r="488">
+      <c r="E488" s="9" t="n"/>
+      <c r="F488" s="9" t="n"/>
+    </row>
+    <row r="489">
+      <c r="E489" s="9" t="n"/>
+      <c r="F489" s="9" t="n"/>
+    </row>
+    <row r="490">
+      <c r="E490" s="9" t="n"/>
+      <c r="F490" s="9" t="n"/>
+    </row>
+    <row r="491">
+      <c r="E491" s="9" t="n"/>
+      <c r="F491" s="9" t="n"/>
+    </row>
+    <row r="492">
+      <c r="E492" s="9" t="n"/>
+      <c r="F492" s="9" t="n"/>
+    </row>
+    <row r="493">
+      <c r="E493" s="9" t="n"/>
+      <c r="F493" s="9" t="n"/>
+    </row>
+    <row r="494">
+      <c r="E494" s="9" t="n"/>
+      <c r="F494" s="9" t="n"/>
+    </row>
+    <row r="495">
+      <c r="E495" s="9" t="n"/>
+      <c r="F495" s="9" t="n"/>
+    </row>
+    <row r="496">
+      <c r="E496" s="9" t="n"/>
+      <c r="F496" s="9" t="n"/>
+    </row>
+    <row r="497">
+      <c r="E497" s="9" t="n"/>
+      <c r="F497" s="9" t="n"/>
+    </row>
+    <row r="498">
+      <c r="E498" s="9" t="n"/>
+      <c r="F498" s="9" t="n"/>
+    </row>
+    <row r="499">
+      <c r="E499" s="9" t="n"/>
+      <c r="F499" s="9" t="n"/>
+    </row>
+    <row r="500">
+      <c r="E500" s="9" t="n"/>
+      <c r="F500" s="9" t="n"/>
+    </row>
+    <row r="501">
+      <c r="E501" s="9" t="n"/>
+      <c r="F501" s="9" t="n"/>
+    </row>
+    <row r="502">
+      <c r="E502" s="9" t="n"/>
+      <c r="F502" s="9" t="n"/>
+    </row>
+    <row r="503">
+      <c r="E503" s="9" t="n"/>
+      <c r="F503" s="9" t="n"/>
+    </row>
+    <row r="504">
+      <c r="E504" s="9" t="n"/>
+      <c r="F504" s="9" t="n"/>
+    </row>
+    <row r="505">
+      <c r="E505" s="9" t="n"/>
+      <c r="F505" s="9" t="n"/>
+    </row>
+    <row r="506">
+      <c r="E506" s="9" t="n"/>
+      <c r="F506" s="9" t="n"/>
+    </row>
+    <row r="507">
+      <c r="E507" s="9" t="n"/>
+      <c r="F507" s="9" t="n"/>
+    </row>
+    <row r="508">
+      <c r="E508" s="9" t="n"/>
+      <c r="F508" s="9" t="n"/>
+    </row>
+    <row r="509">
+      <c r="E509" s="9" t="n"/>
+      <c r="F509" s="9" t="n"/>
+    </row>
+    <row r="510">
+      <c r="E510" s="9" t="n"/>
+      <c r="F510" s="9" t="n"/>
+    </row>
+    <row r="511">
+      <c r="E511" s="9" t="n"/>
+      <c r="F511" s="9" t="n"/>
+    </row>
+    <row r="512">
+      <c r="E512" s="9" t="n"/>
+      <c r="F512" s="9" t="n"/>
+    </row>
+    <row r="513">
+      <c r="E513" s="9" t="n"/>
+      <c r="F513" s="9" t="n"/>
+    </row>
+    <row r="514">
+      <c r="E514" s="9" t="n"/>
+      <c r="F514" s="9" t="n"/>
+    </row>
+    <row r="515">
+      <c r="E515" s="9" t="n"/>
+      <c r="F515" s="9" t="n"/>
+    </row>
+    <row r="516">
+      <c r="E516" s="9" t="n"/>
+      <c r="F516" s="9" t="n"/>
+    </row>
+    <row r="517">
+      <c r="E517" s="9" t="n"/>
+      <c r="F517" s="9" t="n"/>
+    </row>
+    <row r="518">
+      <c r="E518" s="9" t="n"/>
+      <c r="F518" s="9" t="n"/>
+    </row>
+    <row r="519">
+      <c r="E519" s="9" t="n"/>
+      <c r="F519" s="9" t="n"/>
+    </row>
+    <row r="520">
+      <c r="E520" s="9" t="n"/>
+      <c r="F520" s="9" t="n"/>
+    </row>
+    <row r="521">
+      <c r="E521" s="9" t="n"/>
+      <c r="F521" s="9" t="n"/>
+    </row>
+    <row r="522">
+      <c r="E522" s="9" t="n"/>
+      <c r="F522" s="9" t="n"/>
+    </row>
+    <row r="523">
+      <c r="E523" s="9" t="n"/>
+      <c r="F523" s="9" t="n"/>
+    </row>
+    <row r="524">
+      <c r="E524" s="9" t="n"/>
+      <c r="F524" s="9" t="n"/>
+    </row>
+    <row r="525">
+      <c r="E525" s="9" t="n"/>
+      <c r="F525" s="9" t="n"/>
+    </row>
+    <row r="526">
+      <c r="E526" s="9" t="n"/>
+      <c r="F526" s="9" t="n"/>
+    </row>
+    <row r="527">
+      <c r="E527" s="9" t="n"/>
+      <c r="F527" s="9" t="n"/>
+    </row>
+    <row r="528">
+      <c r="E528" s="9" t="n"/>
+      <c r="F528" s="9" t="n"/>
+    </row>
+    <row r="529">
+      <c r="E529" s="9" t="n"/>
+      <c r="F529" s="9" t="n"/>
+    </row>
+    <row r="530">
+      <c r="E530" s="9" t="n"/>
+      <c r="F530" s="9" t="n"/>
+    </row>
+    <row r="531">
+      <c r="E531" s="9" t="n"/>
+      <c r="F531" s="9" t="n"/>
+    </row>
+    <row r="532">
+      <c r="E532" s="9" t="n"/>
+      <c r="F532" s="9" t="n"/>
+    </row>
+    <row r="533">
+      <c r="E533" s="9" t="n"/>
+      <c r="F533" s="9" t="n"/>
+    </row>
+    <row r="534">
+      <c r="E534" s="9" t="n"/>
+      <c r="F534" s="9" t="n"/>
+    </row>
+    <row r="535">
+      <c r="E535" s="9" t="n"/>
+      <c r="F535" s="9" t="n"/>
+    </row>
+    <row r="536">
+      <c r="E536" s="9" t="n"/>
+      <c r="F536" s="9" t="n"/>
+    </row>
+    <row r="537">
+      <c r="E537" s="9" t="n"/>
+      <c r="F537" s="9" t="n"/>
+    </row>
+    <row r="538">
+      <c r="E538" s="9" t="n"/>
+      <c r="F538" s="9" t="n"/>
+    </row>
+    <row r="539">
+      <c r="E539" s="9" t="n"/>
+      <c r="F539" s="9" t="n"/>
+    </row>
+    <row r="540">
+      <c r="E540" s="9" t="n"/>
+      <c r="F540" s="9" t="n"/>
+    </row>
+    <row r="541">
+      <c r="E541" s="9" t="n"/>
+      <c r="F541" s="9" t="n"/>
+    </row>
+    <row r="542">
+      <c r="E542" s="9" t="n"/>
+      <c r="F542" s="9" t="n"/>
+    </row>
+    <row r="543">
+      <c r="E543" s="9" t="n"/>
+      <c r="F543" s="9" t="n"/>
+    </row>
+    <row r="544">
+      <c r="E544" s="9" t="n"/>
+      <c r="F544" s="9" t="n"/>
+    </row>
+    <row r="545">
+      <c r="E545" s="9" t="n"/>
+      <c r="F545" s="9" t="n"/>
+    </row>
+    <row r="546">
+      <c r="E546" s="9" t="n"/>
+      <c r="F546" s="9" t="n"/>
+    </row>
+    <row r="547">
+      <c r="E547" s="9" t="n"/>
+      <c r="F547" s="9" t="n"/>
+    </row>
+    <row r="548">
+      <c r="E548" s="9" t="n"/>
+      <c r="F548" s="9" t="n"/>
+    </row>
+    <row r="549">
+      <c r="E549" s="9" t="n"/>
+      <c r="F549" s="9" t="n"/>
+    </row>
+    <row r="550">
+      <c r="E550" s="9" t="n"/>
+      <c r="F550" s="9" t="n"/>
+    </row>
+    <row r="551">
+      <c r="E551" s="9" t="n"/>
+      <c r="F551" s="9" t="n"/>
+    </row>
+    <row r="552">
+      <c r="E552" s="9" t="n"/>
+      <c r="F552" s="9" t="n"/>
+    </row>
+    <row r="553">
+      <c r="E553" s="9" t="n"/>
+      <c r="F553" s="9" t="n"/>
+    </row>
+    <row r="554">
+      <c r="E554" s="9" t="n"/>
+      <c r="F554" s="9" t="n"/>
+    </row>
+    <row r="555">
+      <c r="E555" s="9" t="n"/>
+      <c r="F555" s="9" t="n"/>
+    </row>
+    <row r="556">
+      <c r="E556" s="9" t="n"/>
+      <c r="F556" s="9" t="n"/>
+    </row>
+    <row r="557">
+      <c r="E557" s="9" t="n"/>
+      <c r="F557" s="9" t="n"/>
+    </row>
+    <row r="558">
+      <c r="E558" s="9" t="n"/>
+      <c r="F558" s="9" t="n"/>
+    </row>
+    <row r="559">
+      <c r="E559" s="9" t="n"/>
+      <c r="F559" s="9" t="n"/>
+    </row>
+    <row r="560">
+      <c r="E560" s="9" t="n"/>
+      <c r="F560" s="9" t="n"/>
+    </row>
+    <row r="561">
+      <c r="E561" s="9" t="n"/>
+      <c r="F561" s="9" t="n"/>
+    </row>
+    <row r="562">
+      <c r="E562" s="9" t="n"/>
+      <c r="F562" s="9" t="n"/>
+    </row>
+    <row r="563">
+      <c r="E563" s="9" t="n"/>
+      <c r="F563" s="9" t="n"/>
+    </row>
+    <row r="564">
+      <c r="E564" s="9" t="n"/>
+      <c r="F564" s="9" t="n"/>
+    </row>
+    <row r="565">
+      <c r="E565" s="9" t="n"/>
+      <c r="F565" s="9" t="n"/>
+    </row>
+    <row r="566">
+      <c r="E566" s="9" t="n"/>
+      <c r="F566" s="9" t="n"/>
+    </row>
+    <row r="567">
+      <c r="E567" s="9" t="n"/>
+      <c r="F567" s="9" t="n"/>
+    </row>
+    <row r="568">
+      <c r="E568" s="9" t="n"/>
+      <c r="F568" s="9" t="n"/>
+    </row>
+    <row r="569">
+      <c r="E569" s="9" t="n"/>
+      <c r="F569" s="9" t="n"/>
+    </row>
+    <row r="570">
+      <c r="E570" s="9" t="n"/>
+      <c r="F570" s="9" t="n"/>
+    </row>
+    <row r="571">
+      <c r="E571" s="9" t="n"/>
+      <c r="F571" s="9" t="n"/>
+    </row>
+    <row r="572">
+      <c r="E572" s="9" t="n"/>
+      <c r="F572" s="9" t="n"/>
+    </row>
+    <row r="573">
+      <c r="E573" s="9" t="n"/>
+      <c r="F573" s="9" t="n"/>
+    </row>
+    <row r="574">
+      <c r="E574" s="9" t="n"/>
+      <c r="F574" s="9" t="n"/>
+    </row>
+    <row r="575">
+      <c r="E575" s="9" t="n"/>
+      <c r="F575" s="9" t="n"/>
+    </row>
+    <row r="576">
+      <c r="E576" s="9" t="n"/>
+      <c r="F576" s="9" t="n"/>
+    </row>
+    <row r="577">
+      <c r="E577" s="9" t="n"/>
+      <c r="F577" s="9" t="n"/>
+    </row>
+    <row r="578">
+      <c r="E578" s="9" t="n"/>
+      <c r="F578" s="9" t="n"/>
+    </row>
+    <row r="579">
+      <c r="E579" s="9" t="n"/>
+      <c r="F579" s="9" t="n"/>
+    </row>
+    <row r="580">
+      <c r="E580" s="9" t="n"/>
+      <c r="F580" s="9" t="n"/>
+    </row>
+    <row r="581">
+      <c r="E581" s="9" t="n"/>
+      <c r="F581" s="9" t="n"/>
+    </row>
+    <row r="582">
+      <c r="E582" s="9" t="n"/>
+      <c r="F582" s="9" t="n"/>
+    </row>
+    <row r="583">
+      <c r="E583" s="9" t="n"/>
+      <c r="F583" s="9" t="n"/>
+    </row>
+    <row r="584">
+      <c r="E584" s="9" t="n"/>
+      <c r="F584" s="9" t="n"/>
+    </row>
+    <row r="585">
+      <c r="E585" s="9" t="n"/>
+      <c r="F585" s="9" t="n"/>
+    </row>
+    <row r="586">
+      <c r="E586" s="9" t="n"/>
+      <c r="F586" s="9" t="n"/>
+    </row>
+    <row r="587">
+      <c r="E587" s="9" t="n"/>
+      <c r="F587" s="9" t="n"/>
+    </row>
+    <row r="588">
+      <c r="E588" s="9" t="n"/>
+      <c r="F588" s="9" t="n"/>
+    </row>
+    <row r="589">
+      <c r="E589" s="9" t="n"/>
+      <c r="F589" s="9" t="n"/>
+    </row>
+    <row r="590">
+      <c r="E590" s="9" t="n"/>
+      <c r="F590" s="9" t="n"/>
+    </row>
+    <row r="591">
+      <c r="E591" s="9" t="n"/>
+      <c r="F591" s="9" t="n"/>
+    </row>
+    <row r="592">
+      <c r="E592" s="9" t="n"/>
+      <c r="F592" s="9" t="n"/>
+    </row>
+    <row r="593">
+      <c r="E593" s="9" t="n"/>
+      <c r="F593" s="9" t="n"/>
+    </row>
+    <row r="594">
+      <c r="E594" s="9" t="n"/>
+      <c r="F594" s="9" t="n"/>
+    </row>
+    <row r="595">
+      <c r="E595" s="9" t="n"/>
+      <c r="F595" s="9" t="n"/>
+    </row>
+    <row r="596">
+      <c r="E596" s="9" t="n"/>
+      <c r="F596" s="9" t="n"/>
+    </row>
+    <row r="597">
+      <c r="E597" s="9" t="n"/>
+      <c r="F597" s="9" t="n"/>
+    </row>
+    <row r="598">
+      <c r="E598" s="9" t="n"/>
+      <c r="F598" s="9" t="n"/>
+    </row>
+    <row r="599">
+      <c r="E599" s="9" t="n"/>
+      <c r="F599" s="9" t="n"/>
+    </row>
+    <row r="600">
+      <c r="E600" s="9" t="n"/>
+      <c r="F600" s="9" t="n"/>
+    </row>
+    <row r="601">
+      <c r="E601" s="9" t="n"/>
+      <c r="F601" s="9" t="n"/>
+    </row>
+    <row r="602">
+      <c r="E602" s="9" t="n"/>
+      <c r="F602" s="9" t="n"/>
+    </row>
+    <row r="603">
+      <c r="E603" s="9" t="n"/>
+      <c r="F603" s="9" t="n"/>
+    </row>
+    <row r="604">
+      <c r="E604" s="9" t="n"/>
+      <c r="F604" s="9" t="n"/>
+    </row>
+    <row r="605">
+      <c r="E605" s="9" t="n"/>
+      <c r="F605" s="9" t="n"/>
+    </row>
+    <row r="606">
+      <c r="E606" s="9" t="n"/>
+      <c r="F606" s="9" t="n"/>
+    </row>
+    <row r="607">
+      <c r="E607" s="9" t="n"/>
+      <c r="F607" s="9" t="n"/>
+    </row>
+    <row r="608">
+      <c r="E608" s="9" t="n"/>
+      <c r="F608" s="9" t="n"/>
+    </row>
+    <row r="609">
+      <c r="E609" s="9" t="n"/>
+      <c r="F609" s="9" t="n"/>
+    </row>
+    <row r="610">
+      <c r="E610" s="9" t="n"/>
+      <c r="F610" s="9" t="n"/>
+    </row>
+    <row r="611">
+      <c r="E611" s="9" t="n"/>
+      <c r="F611" s="9" t="n"/>
+    </row>
+    <row r="612">
+      <c r="E612" s="9" t="n"/>
+      <c r="F612" s="9" t="n"/>
+    </row>
+    <row r="613">
+      <c r="E613" s="9" t="n"/>
+      <c r="F613" s="9" t="n"/>
+    </row>
+    <row r="614">
+      <c r="E614" s="9" t="n"/>
+      <c r="F614" s="9" t="n"/>
+    </row>
+    <row r="615">
+      <c r="E615" s="9" t="n"/>
+      <c r="F615" s="9" t="n"/>
+    </row>
+    <row r="616">
+      <c r="E616" s="9" t="n"/>
+      <c r="F616" s="9" t="n"/>
+    </row>
+    <row r="617">
+      <c r="E617" s="9" t="n"/>
+      <c r="F617" s="9" t="n"/>
+    </row>
+    <row r="618">
+      <c r="E618" s="9" t="n"/>
+      <c r="F618" s="9" t="n"/>
+    </row>
+    <row r="619">
+      <c r="E619" s="9" t="n"/>
+      <c r="F619" s="9" t="n"/>
+    </row>
+    <row r="620">
+      <c r="E620" s="9" t="n"/>
+      <c r="F620" s="9" t="n"/>
+    </row>
+    <row r="621">
+      <c r="E621" s="9" t="n"/>
+      <c r="F621" s="9" t="n"/>
+    </row>
+    <row r="622">
+      <c r="E622" s="9" t="n"/>
+      <c r="F622" s="9" t="n"/>
+    </row>
+    <row r="623">
+      <c r="E623" s="9" t="n"/>
+      <c r="F623" s="9" t="n"/>
+    </row>
+    <row r="624">
+      <c r="E624" s="9" t="n"/>
+      <c r="F624" s="9" t="n"/>
+    </row>
+    <row r="625">
+      <c r="E625" s="9" t="n"/>
+      <c r="F625" s="9" t="n"/>
+    </row>
+    <row r="626">
+      <c r="E626" s="9" t="n"/>
+      <c r="F626" s="9" t="n"/>
+    </row>
+    <row r="627">
+      <c r="E627" s="9" t="n"/>
+      <c r="F627" s="9" t="n"/>
+    </row>
+    <row r="628">
+      <c r="E628" s="9" t="n"/>
+      <c r="F628" s="9" t="n"/>
+    </row>
+    <row r="629">
+      <c r="E629" s="9" t="n"/>
+      <c r="F629" s="9" t="n"/>
+    </row>
+    <row r="630">
+      <c r="E630" s="9" t="n"/>
+      <c r="F630" s="9" t="n"/>
+    </row>
+    <row r="631">
+      <c r="E631" s="9" t="n"/>
+      <c r="F631" s="9" t="n"/>
+    </row>
+    <row r="632">
+      <c r="E632" s="9" t="n"/>
+      <c r="F632" s="9" t="n"/>
+    </row>
+    <row r="633">
+      <c r="E633" s="9" t="n"/>
+      <c r="F633" s="9" t="n"/>
+    </row>
+    <row r="634">
+      <c r="E634" s="9" t="n"/>
+      <c r="F634" s="9" t="n"/>
+    </row>
+    <row r="635">
+      <c r="E635" s="9" t="n"/>
+      <c r="F635" s="9" t="n"/>
+    </row>
+    <row r="636">
+      <c r="E636" s="9" t="n"/>
+      <c r="F636" s="9" t="n"/>
+    </row>
+    <row r="637">
+      <c r="E637" s="9" t="n"/>
+      <c r="F637" s="9" t="n"/>
+    </row>
+    <row r="638">
+      <c r="E638" s="9" t="n"/>
+      <c r="F638" s="9" t="n"/>
+    </row>
+    <row r="639">
+      <c r="E639" s="9" t="n"/>
+      <c r="F639" s="9" t="n"/>
+    </row>
+    <row r="640">
+      <c r="E640" s="9" t="n"/>
+      <c r="F640" s="9" t="n"/>
+    </row>
+    <row r="641">
+      <c r="E641" s="9" t="n"/>
+      <c r="F641" s="9" t="n"/>
+    </row>
+    <row r="642">
+      <c r="E642" s="9" t="n"/>
+      <c r="F642" s="9" t="n"/>
+    </row>
+    <row r="643">
+      <c r="E643" s="9" t="n"/>
+      <c r="F643" s="9" t="n"/>
+    </row>
+    <row r="644">
+      <c r="E644" s="9" t="n"/>
+      <c r="F644" s="9" t="n"/>
+    </row>
+    <row r="645">
+      <c r="E645" s="9" t="n"/>
+      <c r="F645" s="9" t="n"/>
+    </row>
+    <row r="646">
+      <c r="E646" s="9" t="n"/>
+      <c r="F646" s="9" t="n"/>
+    </row>
+    <row r="647">
+      <c r="E647" s="9" t="n"/>
+      <c r="F647" s="9" t="n"/>
+    </row>
+    <row r="648">
+      <c r="E648" s="9" t="n"/>
+      <c r="F648" s="9" t="n"/>
+    </row>
+    <row r="649">
+      <c r="E649" s="9" t="n"/>
+      <c r="F649" s="9" t="n"/>
+    </row>
+    <row r="650">
+      <c r="E650" s="9" t="n"/>
+      <c r="F650" s="9" t="n"/>
+    </row>
+    <row r="651">
+      <c r="E651" s="9" t="n"/>
+      <c r="F651" s="9" t="n"/>
+    </row>
+    <row r="652">
+      <c r="E652" s="9" t="n"/>
+      <c r="F652" s="9" t="n"/>
+    </row>
+    <row r="653">
+      <c r="E653" s="9" t="n"/>
+      <c r="F653" s="9" t="n"/>
+    </row>
+    <row r="654">
+      <c r="E654" s="9" t="n"/>
+      <c r="F654" s="9" t="n"/>
+    </row>
+    <row r="655">
+      <c r="E655" s="9" t="n"/>
+      <c r="F655" s="9" t="n"/>
+    </row>
+    <row r="656">
+      <c r="E656" s="9" t="n"/>
+      <c r="F656" s="9" t="n"/>
+    </row>
+    <row r="657">
+      <c r="E657" s="9" t="n"/>
+      <c r="F657" s="9" t="n"/>
+    </row>
+    <row r="658">
+      <c r="E658" s="9" t="n"/>
+      <c r="F658" s="9" t="n"/>
+    </row>
+    <row r="659">
+      <c r="E659" s="9" t="n"/>
+      <c r="F659" s="9" t="n"/>
+    </row>
+    <row r="660">
+      <c r="E660" s="9" t="n"/>
+      <c r="F660" s="9" t="n"/>
+    </row>
+    <row r="661">
+      <c r="E661" s="9" t="n"/>
+      <c r="F661" s="9" t="n"/>
+    </row>
+    <row r="662">
+      <c r="E662" s="9" t="n"/>
+      <c r="F662" s="9" t="n"/>
+    </row>
+    <row r="663">
+      <c r="E663" s="9" t="n"/>
+      <c r="F663" s="9" t="n"/>
+    </row>
+    <row r="664">
+      <c r="E664" s="9" t="n"/>
+      <c r="F664" s="9" t="n"/>
+    </row>
+    <row r="665">
+      <c r="E665" s="9" t="n"/>
+      <c r="F665" s="9" t="n"/>
+    </row>
+    <row r="666">
+      <c r="E666" s="9" t="n"/>
+      <c r="F666" s="9" t="n"/>
+    </row>
+    <row r="667">
+      <c r="E667" s="9" t="n"/>
+      <c r="F667" s="9" t="n"/>
+    </row>
+    <row r="668">
+      <c r="E668" s="9" t="n"/>
+      <c r="F668" s="9" t="n"/>
+    </row>
+    <row r="669">
+      <c r="E669" s="9" t="n"/>
+      <c r="F669" s="9" t="n"/>
+    </row>
+    <row r="670">
+      <c r="E670" s="9" t="n"/>
+      <c r="F670" s="9" t="n"/>
+    </row>
+    <row r="671">
+      <c r="E671" s="9" t="n"/>
+      <c r="F671" s="9" t="n"/>
+    </row>
+    <row r="672">
+      <c r="E672" s="9" t="n"/>
+      <c r="F672" s="9" t="n"/>
+    </row>
+    <row r="673">
+      <c r="E673" s="9" t="n"/>
+      <c r="F673" s="9" t="n"/>
+    </row>
+    <row r="674">
+      <c r="E674" s="9" t="n"/>
+      <c r="F674" s="9" t="n"/>
+    </row>
+    <row r="675">
+      <c r="E675" s="9" t="n"/>
+      <c r="F675" s="9" t="n"/>
+    </row>
+    <row r="676">
+      <c r="E676" s="9" t="n"/>
+      <c r="F676" s="9" t="n"/>
+    </row>
+    <row r="677">
+      <c r="E677" s="9" t="n"/>
+      <c r="F677" s="9" t="n"/>
+    </row>
+    <row r="678">
+      <c r="E678" s="9" t="n"/>
+      <c r="F678" s="9" t="n"/>
+    </row>
+    <row r="679">
+      <c r="E679" s="9" t="n"/>
+      <c r="F679" s="9" t="n"/>
+    </row>
+    <row r="680">
+      <c r="E680" s="9" t="n"/>
+      <c r="F680" s="9" t="n"/>
+    </row>
+    <row r="681">
+      <c r="E681" s="9" t="n"/>
+      <c r="F681" s="9" t="n"/>
+    </row>
+    <row r="682">
+      <c r="E682" s="9" t="n"/>
+      <c r="F682" s="9" t="n"/>
+    </row>
+    <row r="683">
+      <c r="E683" s="9" t="n"/>
+      <c r="F683" s="9" t="n"/>
+    </row>
+    <row r="684">
+      <c r="E684" s="9" t="n"/>
+      <c r="F684" s="9" t="n"/>
+    </row>
+    <row r="685">
+      <c r="E685" s="9" t="n"/>
+      <c r="F685" s="9" t="n"/>
+    </row>
+    <row r="686">
+      <c r="E686" s="9" t="n"/>
+      <c r="F686" s="9" t="n"/>
+    </row>
+    <row r="687">
+      <c r="E687" s="9" t="n"/>
+      <c r="F687" s="9" t="n"/>
+    </row>
+    <row r="688">
+      <c r="E688" s="9" t="n"/>
+      <c r="F688" s="9" t="n"/>
+    </row>
+    <row r="689">
+      <c r="E689" s="9" t="n"/>
+      <c r="F689" s="9" t="n"/>
+    </row>
+    <row r="690">
+      <c r="E690" s="9" t="n"/>
+      <c r="F690" s="9" t="n"/>
+    </row>
+    <row r="691">
+      <c r="E691" s="9" t="n"/>
+      <c r="F691" s="9" t="n"/>
+    </row>
+    <row r="692">
+      <c r="E692" s="9" t="n"/>
+      <c r="F692" s="9" t="n"/>
+    </row>
+    <row r="693">
+      <c r="E693" s="9" t="n"/>
+      <c r="F693" s="9" t="n"/>
+    </row>
+    <row r="694">
+      <c r="E694" s="9" t="n"/>
+      <c r="F694" s="9" t="n"/>
+    </row>
+    <row r="695">
+      <c r="E695" s="9" t="n"/>
+      <c r="F695" s="9" t="n"/>
+    </row>
+    <row r="696">
+      <c r="E696" s="9" t="n"/>
+      <c r="F696" s="9" t="n"/>
+    </row>
+    <row r="697">
+      <c r="E697" s="9" t="n"/>
+      <c r="F697" s="9" t="n"/>
+    </row>
+    <row r="698">
+      <c r="E698" s="9" t="n"/>
+      <c r="F698" s="9" t="n"/>
+    </row>
+    <row r="699">
+      <c r="E699" s="9" t="n"/>
+      <c r="F699" s="9" t="n"/>
+    </row>
+    <row r="700">
+      <c r="E700" s="9" t="n"/>
+      <c r="F700" s="9" t="n"/>
+    </row>
+    <row r="701">
+      <c r="E701" s="9" t="n"/>
+      <c r="F701" s="9" t="n"/>
+    </row>
+    <row r="702">
+      <c r="E702" s="9" t="n"/>
+      <c r="F702" s="9" t="n"/>
+    </row>
+    <row r="703">
+      <c r="E703" s="9" t="n"/>
+      <c r="F703" s="9" t="n"/>
+    </row>
+    <row r="704">
+      <c r="E704" s="9" t="n"/>
+      <c r="F704" s="9" t="n"/>
+    </row>
+    <row r="705">
+      <c r="E705" s="9" t="n"/>
+      <c r="F705" s="9" t="n"/>
+    </row>
+    <row r="706">
+      <c r="E706" s="9" t="n"/>
+      <c r="F706" s="9" t="n"/>
+    </row>
+    <row r="707">
+      <c r="E707" s="9" t="n"/>
+      <c r="F707" s="9" t="n"/>
+    </row>
+    <row r="708">
+      <c r="E708" s="9" t="n"/>
+      <c r="F708" s="9" t="n"/>
+    </row>
+    <row r="709">
+      <c r="E709" s="9" t="n"/>
+      <c r="F709" s="9" t="n"/>
+    </row>
+    <row r="710">
+      <c r="E710" s="9" t="n"/>
+      <c r="F710" s="9" t="n"/>
+    </row>
+    <row r="711">
+      <c r="E711" s="9" t="n"/>
+      <c r="F711" s="9" t="n"/>
+    </row>
+    <row r="712">
+      <c r="E712" s="9" t="n"/>
+      <c r="F712" s="9" t="n"/>
+    </row>
+    <row r="713">
+      <c r="E713" s="9" t="n"/>
+      <c r="F713" s="9" t="n"/>
+    </row>
+    <row r="714">
+      <c r="E714" s="9" t="n"/>
+      <c r="F714" s="9" t="n"/>
+    </row>
+    <row r="715">
+      <c r="E715" s="9" t="n"/>
+      <c r="F715" s="9" t="n"/>
+    </row>
+    <row r="716">
+      <c r="E716" s="9" t="n"/>
+      <c r="F716" s="9" t="n"/>
+    </row>
+    <row r="717">
+      <c r="E717" s="9" t="n"/>
+      <c r="F717" s="9" t="n"/>
+    </row>
+    <row r="718">
+      <c r="E718" s="9" t="n"/>
+      <c r="F718" s="9" t="n"/>
+    </row>
+    <row r="719">
+      <c r="E719" s="9" t="n"/>
+      <c r="F719" s="9" t="n"/>
+    </row>
+    <row r="720">
+      <c r="E720" s="9" t="n"/>
+      <c r="F720" s="9" t="n"/>
+    </row>
+    <row r="721">
+      <c r="E721" s="9" t="n"/>
+      <c r="F721" s="9" t="n"/>
+    </row>
+    <row r="722">
+      <c r="E722" s="9" t="n"/>
+      <c r="F722" s="9" t="n"/>
+    </row>
+    <row r="723">
+      <c r="E723" s="9" t="n"/>
+      <c r="F723" s="9" t="n"/>
+    </row>
+    <row r="724">
+      <c r="E724" s="9" t="n"/>
+      <c r="F724" s="9" t="n"/>
+    </row>
+    <row r="725">
+      <c r="E725" s="9" t="n"/>
+      <c r="F725" s="9" t="n"/>
+    </row>
+    <row r="726">
+      <c r="E726" s="9" t="n"/>
+      <c r="F726" s="9" t="n"/>
+    </row>
+    <row r="727">
+      <c r="E727" s="9" t="n"/>
+      <c r="F727" s="9" t="n"/>
+    </row>
+    <row r="728">
+      <c r="E728" s="9" t="n"/>
+      <c r="F728" s="9" t="n"/>
+    </row>
+    <row r="729">
+      <c r="E729" s="9" t="n"/>
+      <c r="F729" s="9" t="n"/>
+    </row>
+    <row r="730">
+      <c r="E730" s="9" t="n"/>
+      <c r="F730" s="9" t="n"/>
+    </row>
+    <row r="731">
+      <c r="E731" s="9" t="n"/>
+      <c r="F731" s="9" t="n"/>
+    </row>
+    <row r="732">
+      <c r="E732" s="9" t="n"/>
+      <c r="F732" s="9" t="n"/>
+    </row>
+    <row r="733">
+      <c r="E733" s="9" t="n"/>
+      <c r="F733" s="9" t="n"/>
+    </row>
+    <row r="734">
+      <c r="E734" s="9" t="n"/>
+      <c r="F734" s="9" t="n"/>
+    </row>
+    <row r="735">
+      <c r="E735" s="9" t="n"/>
+      <c r="F735" s="9" t="n"/>
+    </row>
+    <row r="736">
+      <c r="E736" s="9" t="n"/>
+      <c r="F736" s="9" t="n"/>
+    </row>
+    <row r="737">
+      <c r="E737" s="9" t="n"/>
+      <c r="F737" s="9" t="n"/>
+    </row>
+    <row r="738">
+      <c r="E738" s="9" t="n"/>
+      <c r="F738" s="9" t="n"/>
+    </row>
+    <row r="739">
+      <c r="E739" s="9" t="n"/>
+      <c r="F739" s="9" t="n"/>
+    </row>
+    <row r="740">
+      <c r="E740" s="9" t="n"/>
+      <c r="F740" s="9" t="n"/>
+    </row>
+    <row r="741">
+      <c r="E741" s="9" t="n"/>
+      <c r="F741" s="9" t="n"/>
+    </row>
+    <row r="742">
+      <c r="E742" s="9" t="n"/>
+      <c r="F742" s="9" t="n"/>
+    </row>
+    <row r="743">
+      <c r="E743" s="9" t="n"/>
+      <c r="F743" s="9" t="n"/>
+    </row>
+    <row r="744">
+      <c r="E744" s="9" t="n"/>
+      <c r="F744" s="9" t="n"/>
+    </row>
+    <row r="745">
+      <c r="E745" s="9" t="n"/>
+      <c r="F745" s="9" t="n"/>
+    </row>
+    <row r="746">
+      <c r="E746" s="9" t="n"/>
+      <c r="F746" s="9" t="n"/>
+    </row>
+    <row r="747">
+      <c r="E747" s="9" t="n"/>
+      <c r="F747" s="9" t="n"/>
+    </row>
+    <row r="748">
+      <c r="E748" s="9" t="n"/>
+      <c r="F748" s="9" t="n"/>
+    </row>
+    <row r="749">
+      <c r="E749" s="9" t="n"/>
+      <c r="F749" s="9" t="n"/>
+    </row>
+    <row r="750">
+      <c r="E750" s="9" t="n"/>
+      <c r="F750" s="9" t="n"/>
+    </row>
+    <row r="751">
+      <c r="E751" s="9" t="n"/>
+      <c r="F751" s="9" t="n"/>
+    </row>
+    <row r="752">
+      <c r="E752" s="9" t="n"/>
+      <c r="F752" s="9" t="n"/>
+    </row>
+    <row r="753">
+      <c r="E753" s="9" t="n"/>
+      <c r="F753" s="9" t="n"/>
+    </row>
+    <row r="754">
+      <c r="E754" s="9" t="n"/>
+      <c r="F754" s="9" t="n"/>
+    </row>
+    <row r="755">
+      <c r="E755" s="9" t="n"/>
+      <c r="F755" s="9" t="n"/>
+    </row>
+    <row r="756">
+      <c r="E756" s="9" t="n"/>
+      <c r="F756" s="9" t="n"/>
+    </row>
+    <row r="757">
+      <c r="E757" s="9" t="n"/>
+      <c r="F757" s="9" t="n"/>
+    </row>
+    <row r="758">
+      <c r="E758" s="9" t="n"/>
+      <c r="F758" s="9" t="n"/>
+    </row>
+    <row r="759">
+      <c r="E759" s="9" t="n"/>
+      <c r="F759" s="9" t="n"/>
+    </row>
+    <row r="760">
+      <c r="E760" s="9" t="n"/>
+      <c r="F760" s="9" t="n"/>
+    </row>
+    <row r="761">
+      <c r="E761" s="9" t="n"/>
+      <c r="F761" s="9" t="n"/>
+    </row>
+    <row r="762">
+      <c r="E762" s="9" t="n"/>
+      <c r="F762" s="9" t="n"/>
+    </row>
+    <row r="763">
+      <c r="E763" s="9" t="n"/>
+      <c r="F763" s="9" t="n"/>
+    </row>
+    <row r="764">
+      <c r="E764" s="9" t="n"/>
+      <c r="F764" s="9" t="n"/>
+    </row>
+    <row r="765">
+      <c r="E765" s="9" t="n"/>
+      <c r="F765" s="9" t="n"/>
+    </row>
+    <row r="766">
+      <c r="E766" s="9" t="n"/>
+      <c r="F766" s="9" t="n"/>
+    </row>
+    <row r="767">
+      <c r="E767" s="9" t="n"/>
+      <c r="F767" s="9" t="n"/>
+    </row>
+    <row r="768">
+      <c r="E768" s="9" t="n"/>
+      <c r="F768" s="9" t="n"/>
+    </row>
+    <row r="769">
+      <c r="E769" s="9" t="n"/>
+      <c r="F769" s="9" t="n"/>
+    </row>
+    <row r="770">
+      <c r="E770" s="9" t="n"/>
+      <c r="F770" s="9" t="n"/>
+    </row>
+    <row r="771">
+      <c r="E771" s="9" t="n"/>
+      <c r="F771" s="9" t="n"/>
+    </row>
+    <row r="772">
+      <c r="E772" s="9" t="n"/>
+      <c r="F772" s="9" t="n"/>
+    </row>
+    <row r="773">
+      <c r="E773" s="9" t="n"/>
+      <c r="F773" s="9" t="n"/>
+    </row>
+    <row r="774">
+      <c r="E774" s="9" t="n"/>
+      <c r="F774" s="9" t="n"/>
+    </row>
+    <row r="775">
+      <c r="E775" s="9" t="n"/>
+      <c r="F775" s="9" t="n"/>
+    </row>
+    <row r="776">
+      <c r="E776" s="9" t="n"/>
+      <c r="F776" s="9" t="n"/>
+    </row>
+    <row r="777">
+      <c r="E777" s="9" t="n"/>
+      <c r="F777" s="9" t="n"/>
+    </row>
+    <row r="778">
+      <c r="E778" s="9" t="n"/>
+      <c r="F778" s="9" t="n"/>
+    </row>
+    <row r="779">
+      <c r="E779" s="9" t="n"/>
+      <c r="F779" s="9" t="n"/>
+    </row>
+    <row r="780">
+      <c r="E780" s="9" t="n"/>
+      <c r="F780" s="9" t="n"/>
+    </row>
+    <row r="781">
+      <c r="E781" s="9" t="n"/>
+      <c r="F781" s="9" t="n"/>
+    </row>
+    <row r="782">
+      <c r="E782" s="9" t="n"/>
+      <c r="F782" s="9" t="n"/>
+    </row>
+    <row r="783">
+      <c r="E783" s="9" t="n"/>
+      <c r="F783" s="9" t="n"/>
+    </row>
+    <row r="784">
+      <c r="E784" s="9" t="n"/>
+      <c r="F784" s="9" t="n"/>
+    </row>
+    <row r="785">
+      <c r="E785" s="9" t="n"/>
+      <c r="F785" s="9" t="n"/>
+    </row>
+    <row r="786">
+      <c r="E786" s="9" t="n"/>
+      <c r="F786" s="9" t="n"/>
+    </row>
+    <row r="787">
+      <c r="E787" s="9" t="n"/>
+      <c r="F787" s="9" t="n"/>
+    </row>
+    <row r="788">
+      <c r="E788" s="9" t="n"/>
+      <c r="F788" s="9" t="n"/>
+    </row>
+    <row r="789">
+      <c r="E789" s="9" t="n"/>
+      <c r="F789" s="9" t="n"/>
+    </row>
+    <row r="790">
+      <c r="E790" s="9" t="n"/>
+      <c r="F790" s="9" t="n"/>
+    </row>
+    <row r="791">
+      <c r="E791" s="9" t="n"/>
+      <c r="F791" s="9" t="n"/>
+    </row>
+    <row r="792">
+      <c r="E792" s="9" t="n"/>
+      <c r="F792" s="9" t="n"/>
+    </row>
+    <row r="793">
+      <c r="E793" s="9" t="n"/>
+      <c r="F793" s="9" t="n"/>
+    </row>
+    <row r="794">
+      <c r="E794" s="9" t="n"/>
+      <c r="F794" s="9" t="n"/>
+    </row>
+    <row r="795">
+      <c r="E795" s="9" t="n"/>
+      <c r="F795" s="9" t="n"/>
+    </row>
+    <row r="796">
+      <c r="E796" s="9" t="n"/>
+      <c r="F796" s="9" t="n"/>
+    </row>
+    <row r="797">
+      <c r="E797" s="9" t="n"/>
+      <c r="F797" s="9" t="n"/>
+    </row>
+    <row r="798">
+      <c r="E798" s="9" t="n"/>
+      <c r="F798" s="9" t="n"/>
+    </row>
+    <row r="799">
+      <c r="E799" s="9" t="n"/>
+      <c r="F799" s="9" t="n"/>
+    </row>
+    <row r="800">
+      <c r="E800" s="9" t="n"/>
+      <c r="F800" s="9" t="n"/>
+    </row>
+    <row r="801">
+      <c r="E801" s="9" t="n"/>
+      <c r="F801" s="9" t="n"/>
+    </row>
+    <row r="802">
+      <c r="E802" s="9" t="n"/>
+      <c r="F802" s="9" t="n"/>
+    </row>
+    <row r="803">
+      <c r="E803" s="9" t="n"/>
+      <c r="F803" s="9" t="n"/>
+    </row>
+    <row r="804">
+      <c r="E804" s="9" t="n"/>
+      <c r="F804" s="9" t="n"/>
+    </row>
+    <row r="805">
+      <c r="E805" s="9" t="n"/>
+      <c r="F805" s="9" t="n"/>
+    </row>
+    <row r="806">
+      <c r="E806" s="9" t="n"/>
+      <c r="F806" s="9" t="n"/>
+    </row>
+    <row r="807">
+      <c r="E807" s="9" t="n"/>
+      <c r="F807" s="9" t="n"/>
+    </row>
+    <row r="808">
+      <c r="E808" s="9" t="n"/>
+      <c r="F808" s="9" t="n"/>
+    </row>
+    <row r="809">
+      <c r="E809" s="9" t="n"/>
+      <c r="F809" s="9" t="n"/>
+    </row>
+    <row r="810">
+      <c r="E810" s="9" t="n"/>
+      <c r="F810" s="9" t="n"/>
+    </row>
+    <row r="811">
+      <c r="E811" s="9" t="n"/>
+      <c r="F811" s="9" t="n"/>
+    </row>
+    <row r="812">
+      <c r="E812" s="9" t="n"/>
+      <c r="F812" s="9" t="n"/>
+    </row>
+    <row r="813">
+      <c r="E813" s="9" t="n"/>
+      <c r="F813" s="9" t="n"/>
+    </row>
+    <row r="814">
+      <c r="E814" s="9" t="n"/>
+      <c r="F814" s="9" t="n"/>
+    </row>
+    <row r="815">
+      <c r="E815" s="9" t="n"/>
+      <c r="F815" s="9" t="n"/>
+    </row>
+    <row r="816">
+      <c r="E816" s="9" t="n"/>
+      <c r="F816" s="9" t="n"/>
+    </row>
+    <row r="817">
+      <c r="E817" s="9" t="n"/>
+      <c r="F817" s="9" t="n"/>
+    </row>
+    <row r="818">
+      <c r="E818" s="9" t="n"/>
+      <c r="F818" s="9" t="n"/>
+    </row>
+    <row r="819">
+      <c r="E819" s="9" t="n"/>
+      <c r="F819" s="9" t="n"/>
+    </row>
+    <row r="820">
+      <c r="E820" s="9" t="n"/>
+      <c r="F820" s="9" t="n"/>
+    </row>
+    <row r="821">
+      <c r="E821" s="9" t="n"/>
+      <c r="F821" s="9" t="n"/>
+    </row>
+    <row r="822">
+      <c r="E822" s="9" t="n"/>
+      <c r="F822" s="9" t="n"/>
+    </row>
+    <row r="823">
+      <c r="E823" s="9" t="n"/>
+      <c r="F823" s="9" t="n"/>
+    </row>
+    <row r="824">
+      <c r="E824" s="9" t="n"/>
+      <c r="F824" s="9" t="n"/>
+    </row>
+    <row r="825">
+      <c r="E825" s="9" t="n"/>
+      <c r="F825" s="9" t="n"/>
+    </row>
+    <row r="826">
+      <c r="E826" s="9" t="n"/>
+      <c r="F826" s="9" t="n"/>
+    </row>
+    <row r="827">
+      <c r="E827" s="9" t="n"/>
+      <c r="F827" s="9" t="n"/>
+    </row>
+    <row r="828">
+      <c r="E828" s="9" t="n"/>
+      <c r="F828" s="9" t="n"/>
+    </row>
+    <row r="829">
+      <c r="E829" s="9" t="n"/>
+      <c r="F829" s="9" t="n"/>
+    </row>
+    <row r="830">
+      <c r="E830" s="9" t="n"/>
+      <c r="F830" s="9" t="n"/>
+    </row>
+    <row r="831">
+      <c r="E831" s="9" t="n"/>
+      <c r="F831" s="9" t="n"/>
+    </row>
+    <row r="832">
+      <c r="E832" s="9" t="n"/>
+      <c r="F832" s="9" t="n"/>
+    </row>
+    <row r="833">
+      <c r="E833" s="9" t="n"/>
+      <c r="F833" s="9" t="n"/>
+    </row>
+    <row r="834">
+      <c r="E834" s="9" t="n"/>
+      <c r="F834" s="9" t="n"/>
+    </row>
+    <row r="835">
+      <c r="E835" s="9" t="n"/>
+      <c r="F835" s="9" t="n"/>
+    </row>
+    <row r="836">
+      <c r="E836" s="9" t="n"/>
+      <c r="F836" s="9" t="n"/>
+    </row>
+    <row r="837">
+      <c r="E837" s="9" t="n"/>
+      <c r="F837" s="9" t="n"/>
+    </row>
+    <row r="838">
+      <c r="E838" s="9" t="n"/>
+      <c r="F838" s="9" t="n"/>
+    </row>
+    <row r="839">
+      <c r="E839" s="9" t="n"/>
+      <c r="F839" s="9" t="n"/>
+    </row>
+    <row r="840">
+      <c r="E840" s="9" t="n"/>
+      <c r="F840" s="9" t="n"/>
+    </row>
+    <row r="841">
+      <c r="E841" s="9" t="n"/>
+      <c r="F841" s="9" t="n"/>
+    </row>
+    <row r="842">
+      <c r="E842" s="9" t="n"/>
+      <c r="F842" s="9" t="n"/>
+    </row>
+    <row r="843">
+      <c r="E843" s="9" t="n"/>
+      <c r="F843" s="9" t="n"/>
+    </row>
+    <row r="844">
+      <c r="E844" s="9" t="n"/>
+      <c r="F844" s="9" t="n"/>
+    </row>
+    <row r="845">
+      <c r="E845" s="9" t="n"/>
+      <c r="F845" s="9" t="n"/>
+    </row>
+    <row r="846">
+      <c r="E846" s="9" t="n"/>
+      <c r="F846" s="9" t="n"/>
+    </row>
+    <row r="847">
+      <c r="E847" s="9" t="n"/>
+      <c r="F847" s="9" t="n"/>
+    </row>
+    <row r="848">
+      <c r="E848" s="9" t="n"/>
+      <c r="F848" s="9" t="n"/>
+    </row>
+    <row r="849">
+      <c r="E849" s="9" t="n"/>
+      <c r="F849" s="9" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource_api/raporlar/dosyalar/by_po_uretim_liste.xlsx
+++ b/resource_api/raporlar/dosyalar/by_po_uretim_liste.xlsx
@@ -19,7 +19,7 @@
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,6 +34,13 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -55,7 +62,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -79,6 +86,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -96,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -106,11 +122,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +473,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F849"/>
+  <dimension ref="A1:F850"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="24.77734375" defaultRowHeight="14.4"/>
@@ -465,4832 +484,4847 @@
     <col width="24.77734375" customWidth="1" style="3" min="5" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>2023 YILI BAŞINDAN İTİBAREN ALINAN SİPARİŞLER</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="n"/>
+      <c r="C1" s="6" t="n"/>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+    </row>
+    <row r="2" ht="15.6" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Tarih</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Firma</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Po</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>Teslim Türü</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Fob</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Ddp</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>Patrick - Germany</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>23PM03-3</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D3" s="7" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E3" s="8" t="n">
         <v>78015.61</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F3" s="8" t="n">
         <v>78015.61</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>Sheikh - UAE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>23SHK06</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E4" s="8" t="n">
         <v>76505.44</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F4" s="8" t="n">
         <v>75505.44</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B5" s="7" t="inlineStr">
         <is>
           <t>Seth, TDWL - Ghana</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>23TDWL01-2</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E5" s="8" t="n">
         <v>52069.7</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F5" s="8" t="n">
         <v>59369.7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>2023-02-07</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Carl Max - Ghana</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>23AURA02</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E6" s="8" t="n">
         <v>38990.06</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F6" s="8" t="n">
         <v>38990.06</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>2023-01-09</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>Andrea Bigeni - Malta</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>23PPP14</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D7" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E7" s="8" t="n">
         <v>36719.94</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F7" s="8" t="n">
         <v>38391.05</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>2023-03-11</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B8" s="7" t="inlineStr">
         <is>
           <t>Kwabena Osei - Ghana</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
         <is>
           <t>23TSE01-2</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D8" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E8" s="8" t="n">
         <v>36461.16</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F8" s="8" t="n">
         <v>37563.61</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>2023-03-11</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Kwabena Osei - Ghana</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C9" s="7" t="inlineStr">
         <is>
           <t>23TSE01-3</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E9" s="8" t="n">
         <v>34124.62</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F9" s="8" t="n">
         <v>35227.07</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>2023-04-13</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Rasma Decor - BH</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C10" s="7" t="inlineStr">
         <is>
           <t>23RASMA01</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D10" s="7" t="inlineStr">
         <is>
           <t>DAP</t>
         </is>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E10" s="8" t="n">
         <v>33439.57</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F10" s="8" t="n">
         <v>39739.57</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>2023-03-07</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Bruno Perre - France</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>23EURL01-3</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D11" s="7" t="inlineStr">
         <is>
           <t>DAP</t>
         </is>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E11" s="8" t="n">
         <v>32280.12</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F11" s="8" t="n">
         <v>32280.12</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>2023-01-19</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B12" s="7" t="inlineStr">
         <is>
           <t>VEIK - UAE</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>23VEIK88</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D12" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E12" s="8" t="n">
         <v>32136.12</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F12" s="8" t="n">
         <v>34086.12</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>2023-03-20</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B13" s="7" t="inlineStr">
         <is>
           <t>Douglas - Belize</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C13" s="7" t="inlineStr">
         <is>
           <t>23DSP07</t>
         </is>
       </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="D13" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E13" s="8" t="n">
         <v>31714.96</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F13" s="8" t="n">
         <v>31714.96</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>2023-02-22</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Franchesta - USA</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C14" s="7" t="inlineStr">
         <is>
           <t>23FRAN01</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr">
+      <c r="D14" s="7" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E14" s="8" t="n">
         <v>31252.8</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F14" s="8" t="n">
         <v>31252.8</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B15" s="7" t="inlineStr">
         <is>
           <t>Alexander Endrody - Slovakia</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t>23BPO01</t>
         </is>
       </c>
-      <c r="D14" s="5" t="inlineStr">
+      <c r="D15" s="7" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E15" s="8" t="n">
         <v>30890.39</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F15" s="8" t="n">
         <v>30890.39</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
         <is>
           <t>2023-01-13</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>VEIK - UAE</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C16" s="7" t="inlineStr">
         <is>
           <t>23VEIK89</t>
         </is>
       </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="D16" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E16" s="8" t="n">
         <v>30425.42</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F16" s="8" t="n">
         <v>32375.42</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
         <is>
           <t>2023-03-22</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="B17" s="7" t="inlineStr">
         <is>
           <t>Atu - Ghana</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="C17" s="7" t="inlineStr">
         <is>
           <t>23ATU03</t>
         </is>
       </c>
-      <c r="D16" s="5" t="inlineStr">
+      <c r="D17" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E17" s="8" t="n">
         <v>30160.6</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F17" s="8" t="n">
         <v>33660.6</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
         <is>
           <t>2023-01-27</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B18" s="7" t="inlineStr">
         <is>
           <t>Mama Abui - Ghana</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="C18" s="7" t="inlineStr">
         <is>
           <t>23MA01</t>
         </is>
       </c>
-      <c r="D17" s="5" t="inlineStr">
+      <c r="D18" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E18" s="8" t="n">
         <v>30081.67</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F18" s="8" t="n">
         <v>33731.67</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
         <is>
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B19" s="7" t="inlineStr">
         <is>
           <t>Seth, TDWL - Ghana</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C19" s="7" t="inlineStr">
         <is>
           <t>23TDWL01-1</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
+      <c r="D19" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E19" s="8" t="n">
         <v>27686.1</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F19" s="8" t="n">
         <v>31336.1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
         <is>
           <t>2023-01-19</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
         <is>
           <t>VEIK - UAE</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C20" s="7" t="inlineStr">
         <is>
           <t>23VEIK90</t>
         </is>
       </c>
-      <c r="D19" s="5" t="inlineStr">
+      <c r="D20" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E20" s="8" t="n">
         <v>26765.4</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F20" s="8" t="n">
         <v>28715.4</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>2023-04-25</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B21" s="7" t="inlineStr">
         <is>
           <t>Gebran - Bahrain</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C21" s="7" t="inlineStr">
         <is>
           <t>23COME07</t>
         </is>
       </c>
-      <c r="D20" s="5" t="inlineStr">
+      <c r="D21" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E21" s="8" t="n">
         <v>26671.84</v>
       </c>
-      <c r="F20" s="6" t="n">
+      <c r="F21" s="8" t="n">
         <v>29271.84</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
         <is>
           <t>2023-03-22</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="B22" s="7" t="inlineStr">
         <is>
           <t>VEIK - UAE</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="C22" s="7" t="inlineStr">
         <is>
           <t>23VEIK91</t>
         </is>
       </c>
-      <c r="D21" s="5" t="inlineStr">
+      <c r="D22" s="7" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E22" s="8" t="n">
         <v>26385.41</v>
       </c>
-      <c r="F21" s="6" t="n">
+      <c r="F22" s="8" t="n">
         <v>26385.41</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
         <is>
           <t>2023-03-07</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B23" s="7" t="inlineStr">
         <is>
           <t>Bruno Perre - France</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="C23" s="7" t="inlineStr">
         <is>
           <t>23EURL01-2</t>
         </is>
       </c>
-      <c r="D22" s="5" t="inlineStr">
+      <c r="D23" s="7" t="inlineStr">
         <is>
           <t>DAP</t>
         </is>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E23" s="8" t="n">
         <v>25762.86</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="F23" s="8" t="n">
         <v>25762.86</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
         <is>
           <t>2023-04-19</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="B24" s="7" t="inlineStr">
         <is>
           <t>Robert - Bahamas</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="C24" s="7" t="inlineStr">
         <is>
           <t>23RA02</t>
         </is>
       </c>
-      <c r="D23" s="5" t="inlineStr">
+      <c r="D24" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E24" s="8" t="n">
         <v>24262.36</v>
       </c>
-      <c r="F23" s="6" t="n">
+      <c r="F24" s="8" t="n">
         <v>31662.36</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
         <is>
           <t>2023-03-11</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="B25" s="7" t="inlineStr">
         <is>
           <t>Kwabena Osei - Ghana</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="C25" s="7" t="inlineStr">
         <is>
           <t>23TSE01-1</t>
         </is>
       </c>
-      <c r="D24" s="5" t="inlineStr">
+      <c r="D25" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E25" s="8" t="n">
         <v>23544.99</v>
       </c>
-      <c r="F24" s="6" t="n">
+      <c r="F25" s="8" t="n">
         <v>24647.44</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
         <is>
           <t>2023-03-07</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="B26" s="7" t="inlineStr">
         <is>
           <t>Bruno Perre - France</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="C26" s="7" t="inlineStr">
         <is>
           <t>23EURL01-1</t>
         </is>
       </c>
-      <c r="D25" s="5" t="inlineStr">
+      <c r="D26" s="7" t="inlineStr">
         <is>
           <t>DAP</t>
         </is>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E26" s="8" t="n">
         <v>19421.71</v>
       </c>
-      <c r="F25" s="6" t="n">
+      <c r="F26" s="8" t="n">
         <v>25143.71</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
         <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="B27" s="7" t="inlineStr">
         <is>
           <t>Bigeni - Malta</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="C27" s="7" t="inlineStr">
         <is>
           <t>23PP16</t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr">
+      <c r="D27" s="7" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E27" s="8" t="n">
         <v>19156.8</v>
       </c>
-      <c r="F26" s="6" t="n">
+      <c r="F27" s="8" t="n">
         <v>18656.8</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
         <is>
           <t>2023-03-23</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="B28" s="7" t="inlineStr">
         <is>
           <t>Flos - Malta</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="C28" s="7" t="inlineStr">
         <is>
           <t>23FLOS47</t>
         </is>
       </c>
-      <c r="D27" s="5" t="inlineStr">
+      <c r="D28" s="7" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="E28" s="8" t="n">
         <v>17777.06</v>
       </c>
-      <c r="F27" s="6" t="n">
+      <c r="F28" s="8" t="n">
         <v>17777.06</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="B29" s="7" t="inlineStr">
         <is>
           <t>Ardexline - Moldova</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="C29" s="7" t="inlineStr">
         <is>
           <t>23FS03</t>
         </is>
       </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="D29" s="7" t="inlineStr">
         <is>
           <t>FCA</t>
         </is>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E29" s="8" t="n">
         <v>17245.31</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F29" s="8" t="n">
         <v>18018.71</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="B30" s="7" t="inlineStr">
         <is>
           <t>Gebran - Bahrain</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="C30" s="7" t="inlineStr">
         <is>
           <t>23COME06</t>
         </is>
       </c>
-      <c r="D29" s="5" t="inlineStr">
+      <c r="D30" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E30" s="8" t="n">
         <v>16260.99</v>
       </c>
-      <c r="F29" s="6" t="n">
+      <c r="F30" s="8" t="n">
         <v>17560.99</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="B31" s="7" t="inlineStr">
         <is>
           <t>Patrick - Germany</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="C31" s="7" t="inlineStr">
         <is>
           <t>23PM03-2</t>
         </is>
       </c>
-      <c r="D30" s="5" t="inlineStr">
+      <c r="D31" s="7" t="inlineStr">
         <is>
           <t>DAP</t>
         </is>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E31" s="8" t="n">
         <v>15163.2</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F31" s="8" t="n">
         <v>20563.2</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="B32" s="7" t="inlineStr">
         <is>
           <t>Cem Peker</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="C32" s="7" t="inlineStr">
         <is>
           <t>23PK3000-2</t>
         </is>
       </c>
-      <c r="D31" s="5" t="inlineStr">
+      <c r="D32" s="7" t="inlineStr">
         <is>
           <t>EXW</t>
         </is>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E32" s="8" t="n">
         <v>14736.15</v>
       </c>
-      <c r="F31" s="6" t="n">
+      <c r="F32" s="8" t="n">
         <v>14736.15</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
         <is>
           <t>2023-03-08</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="B33" s="7" t="inlineStr">
         <is>
           <t>Oday Mosalam - Germany</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="C33" s="7" t="inlineStr">
         <is>
           <t>23AOTEC01</t>
         </is>
       </c>
-      <c r="D32" s="5" t="inlineStr">
+      <c r="D33" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E33" s="8" t="n">
         <v>14270.65</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F33" s="8" t="n">
         <v>15651.92</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="B34" s="7" t="inlineStr">
         <is>
           <t>Andrey &amp; Sergey - RU</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="C34" s="7" t="inlineStr">
         <is>
           <t>23ANDR01</t>
         </is>
       </c>
-      <c r="D33" s="5" t="inlineStr">
+      <c r="D34" s="7" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E34" s="8" t="n">
         <v>14001.12</v>
       </c>
-      <c r="F33" s="6" t="n">
+      <c r="F34" s="8" t="n">
         <v>14001.12</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
         <is>
           <t>2023-05-04</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="B35" s="7" t="inlineStr">
         <is>
           <t>Tracy - AU</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="C35" s="7" t="inlineStr">
         <is>
           <t>23BRP11</t>
         </is>
       </c>
-      <c r="D34" s="5" t="inlineStr">
+      <c r="D35" s="7" t="inlineStr">
         <is>
           <t>FCA</t>
         </is>
       </c>
-      <c r="E34" s="6" t="n">
+      <c r="E35" s="8" t="n">
         <v>12991.6</v>
       </c>
-      <c r="F34" s="6" t="n">
+      <c r="F35" s="8" t="n">
         <v>12991.6</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
         <is>
           <t>2023-01-31</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="B36" s="7" t="inlineStr">
         <is>
           <t>Ante Drazic - HR</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="C36" s="7" t="inlineStr">
         <is>
           <t>23SAN01</t>
         </is>
       </c>
-      <c r="D35" s="5" t="inlineStr">
+      <c r="D36" s="7" t="inlineStr">
         <is>
           <t>FCA</t>
         </is>
       </c>
-      <c r="E35" s="6" t="n">
+      <c r="E36" s="8" t="n">
         <v>12350.24</v>
       </c>
-      <c r="F35" s="6" t="n">
+      <c r="F36" s="8" t="n">
         <v>12350.24</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="5" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="7" t="inlineStr">
         <is>
           <t>2023-05-10</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="B37" s="7" t="inlineStr">
         <is>
           <t>Berchie A. - Ghana</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
+      <c r="C37" s="7" t="inlineStr">
         <is>
           <t>23BAC01</t>
         </is>
       </c>
-      <c r="D36" s="5" t="inlineStr">
+      <c r="D37" s="7" t="inlineStr">
         <is>
           <t>EXW</t>
         </is>
       </c>
-      <c r="E36" s="6" t="n">
+      <c r="E37" s="8" t="n">
         <v>12000</v>
       </c>
-      <c r="F36" s="6" t="n">
+      <c r="F37" s="8" t="n">
         <v>12000</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="5" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="7" t="inlineStr">
         <is>
           <t>2023-03-09</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B38" s="7" t="inlineStr">
         <is>
           <t>Tracy - AU</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="C38" s="7" t="inlineStr">
         <is>
           <t>23BRP10</t>
         </is>
       </c>
-      <c r="D37" s="5" t="inlineStr">
+      <c r="D38" s="7" t="inlineStr">
         <is>
           <t>FCA</t>
         </is>
       </c>
-      <c r="E37" s="6" t="n">
+      <c r="E38" s="8" t="n">
         <v>11563.06</v>
       </c>
-      <c r="F37" s="6" t="n">
+      <c r="F38" s="8" t="n">
         <v>11563.06</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="5" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="7" t="inlineStr">
         <is>
           <t>2023-05-06</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="B39" s="7" t="inlineStr">
         <is>
           <t>Hotel Gab - Romania</t>
         </is>
       </c>
-      <c r="C38" s="5" t="inlineStr">
+      <c r="C39" s="7" t="inlineStr">
         <is>
           <t>23HOGA10</t>
         </is>
       </c>
-      <c r="D38" s="5" t="inlineStr">
+      <c r="D39" s="7" t="inlineStr">
         <is>
           <t>FCA</t>
         </is>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="E39" s="8" t="n">
         <v>11374.95</v>
       </c>
-      <c r="F38" s="6" t="n">
+      <c r="F39" s="8" t="n">
         <v>11374.95</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="5" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="7" t="inlineStr">
         <is>
           <t>2023-03-03</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="B40" s="7" t="inlineStr">
         <is>
           <t>Sean - MALTA</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="C40" s="7" t="inlineStr">
         <is>
           <t>23SEAN07</t>
         </is>
       </c>
-      <c r="D39" s="5" t="inlineStr">
+      <c r="D40" s="7" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E39" s="6" t="n">
+      <c r="E40" s="8" t="n">
         <v>10161.7</v>
       </c>
-      <c r="F39" s="6" t="n">
+      <c r="F40" s="8" t="n">
         <v>10361.7</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="5" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="7" t="inlineStr">
         <is>
           <t>2023-02-02</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="B41" s="7" t="inlineStr">
         <is>
           <t>Branislav Mikulovsky - Slovakia</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
+      <c r="C41" s="7" t="inlineStr">
         <is>
           <t>23ALIT05</t>
         </is>
       </c>
-      <c r="D40" s="5" t="inlineStr">
+      <c r="D41" s="7" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E40" s="6" t="n">
+      <c r="E41" s="8" t="n">
         <v>9926.370000000001</v>
       </c>
-      <c r="F40" s="6" t="n">
+      <c r="F41" s="8" t="n">
         <v>9391.370000000001</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="5" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="7" t="inlineStr">
         <is>
           <t>2023-05-05</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="B42" s="7" t="inlineStr">
         <is>
           <t>Gebran - Bahrain</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
+      <c r="C42" s="7" t="inlineStr">
         <is>
           <t>23COME08</t>
         </is>
       </c>
-      <c r="D41" s="5" t="inlineStr">
+      <c r="D42" s="7" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E41" s="6" t="n">
+      <c r="E42" s="8" t="n">
         <v>7577.8</v>
       </c>
-      <c r="F41" s="6" t="n">
+      <c r="F42" s="8" t="n">
         <v>7577.8</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="5" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="7" t="inlineStr">
         <is>
           <t>2023-01-19</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="B43" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael - Germany </t>
         </is>
       </c>
-      <c r="C42" s="5" t="inlineStr">
+      <c r="C43" s="7" t="inlineStr">
         <is>
           <t>23MICK02</t>
         </is>
       </c>
-      <c r="D42" s="5" t="inlineStr">
+      <c r="D43" s="7" t="inlineStr">
         <is>
           <t>FCA</t>
         </is>
       </c>
-      <c r="E42" s="6" t="n">
+      <c r="E43" s="8" t="n">
         <v>7221.68</v>
       </c>
-      <c r="F42" s="6" t="n">
+      <c r="F43" s="8" t="n">
         <v>7221.68</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="5" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="7" t="inlineStr">
         <is>
           <t>2023-05-05</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr">
+      <c r="B44" s="7" t="inlineStr">
         <is>
           <t>Ben Persell Thompson - UK</t>
         </is>
       </c>
-      <c r="C43" s="5" t="inlineStr">
+      <c r="C44" s="7" t="inlineStr">
         <is>
           <t>23RGL05</t>
         </is>
       </c>
-      <c r="D43" s="5" t="inlineStr">
+      <c r="D44" s="7" t="inlineStr">
         <is>
           <t>FCA</t>
         </is>
       </c>
-      <c r="E43" s="6" t="n">
+      <c r="E44" s="8" t="n">
         <v>6863.35</v>
       </c>
-      <c r="F43" s="6" t="n">
+      <c r="F44" s="8" t="n">
         <v>7224.72</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="5" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="7" t="inlineStr">
         <is>
           <t>2023-02-02</t>
         </is>
       </c>
-      <c r="B44" s="5" t="inlineStr">
+      <c r="B45" s="7" t="inlineStr">
         <is>
           <t>Radu &amp; Eugen - USA</t>
         </is>
       </c>
-      <c r="C44" s="5" t="inlineStr">
+      <c r="C45" s="7" t="inlineStr">
         <is>
           <t>23WS26</t>
         </is>
       </c>
-      <c r="D44" s="5" t="inlineStr">
+      <c r="D45" s="7" t="inlineStr">
         <is>
           <t>DDP</t>
         </is>
       </c>
-      <c r="E44" s="6" t="n">
+      <c r="E45" s="8" t="n">
         <v>6227.5</v>
       </c>
-      <c r="F44" s="6" t="n">
+      <c r="F45" s="8" t="n">
         <v>6227.5</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="5" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="7" t="inlineStr">
         <is>
           <t>2023-05-05</t>
         </is>
       </c>
-      <c r="B45" s="5" t="inlineStr">
+      <c r="B46" s="7" t="inlineStr">
         <is>
           <t>Ben Persell Thompson - UK</t>
         </is>
       </c>
-      <c r="C45" s="5" t="inlineStr">
+      <c r="C46" s="7" t="inlineStr">
         <is>
           <t>23RGL04</t>
         </is>
       </c>
-      <c r="D45" s="5" t="inlineStr">
+      <c r="D46" s="7" t="inlineStr">
         <is>
           <t>FCA</t>
         </is>
       </c>
-      <c r="E45" s="6" t="n">
+      <c r="E46" s="8" t="n">
         <v>5887.97</v>
       </c>
-      <c r="F45" s="6" t="n">
+      <c r="F46" s="8" t="n">
         <v>5887.97</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="5" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="7" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="B46" s="5" t="inlineStr">
+      <c r="B47" s="7" t="inlineStr">
         <is>
           <t>Andrea Bigeni - Malta</t>
         </is>
       </c>
-      <c r="C46" s="5" t="inlineStr">
+      <c r="C47" s="7" t="inlineStr">
         <is>
           <t>23PPP15</t>
         </is>
       </c>
-      <c r="D46" s="5" t="inlineStr">
+      <c r="D47" s="7" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E46" s="6" t="n">
+      <c r="E47" s="8" t="n">
         <v>5641.86</v>
       </c>
-      <c r="F46" s="6" t="n">
+      <c r="F47" s="8" t="n">
         <v>5641.86</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="5" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="7" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="B47" s="5" t="inlineStr">
+      <c r="B48" s="7" t="inlineStr">
         <is>
           <t>Cem Peker</t>
         </is>
       </c>
-      <c r="C47" s="5" t="inlineStr">
+      <c r="C48" s="7" t="inlineStr">
         <is>
           <t>23PK3000-1</t>
         </is>
       </c>
-      <c r="D47" s="5" t="inlineStr">
+      <c r="D48" s="7" t="inlineStr">
         <is>
           <t>EXW</t>
         </is>
       </c>
-      <c r="E47" s="6" t="n">
+      <c r="E48" s="8" t="n">
         <v>5358.6</v>
       </c>
-      <c r="F47" s="6" t="n">
+      <c r="F48" s="8" t="n">
         <v>5358.6</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="5" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="7" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
       </c>
-      <c r="B48" s="5" t="inlineStr">
+      <c r="B49" s="7" t="inlineStr">
         <is>
           <t>Patrick - Germany</t>
         </is>
       </c>
-      <c r="C48" s="5" t="inlineStr">
+      <c r="C49" s="7" t="inlineStr">
         <is>
           <t>23PM03-1</t>
         </is>
       </c>
-      <c r="D48" s="5" t="inlineStr">
+      <c r="D49" s="7" t="inlineStr">
         <is>
           <t>DAP</t>
         </is>
       </c>
-      <c r="E48" s="6" t="n">
+      <c r="E49" s="8" t="n">
         <v>3790.8</v>
       </c>
-      <c r="F48" s="6" t="n">
+      <c r="F49" s="8" t="n">
         <v>6190.8</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="5" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="7" t="inlineStr">
         <is>
           <t>2023-05-05</t>
         </is>
       </c>
-      <c r="B49" s="5" t="inlineStr">
+      <c r="B50" s="7" t="inlineStr">
         <is>
           <t>Tayyar Yüzgeç - Turkey</t>
         </is>
       </c>
-      <c r="C49" s="5" t="inlineStr">
+      <c r="C50" s="7" t="inlineStr">
         <is>
           <t>23MTT04</t>
         </is>
       </c>
-      <c r="D49" s="5" t="inlineStr">
+      <c r="D50" s="7" t="inlineStr">
         <is>
           <t>EXW</t>
         </is>
       </c>
-      <c r="E49" s="6" t="n">
+      <c r="E50" s="8" t="n">
         <v>3345</v>
       </c>
-      <c r="F49" s="6" t="n">
+      <c r="F50" s="8" t="n">
         <v>3947.1</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="5" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="7" t="inlineStr">
         <is>
           <t>2023-02-21</t>
         </is>
       </c>
-      <c r="B50" s="5" t="inlineStr">
+      <c r="B51" s="7" t="inlineStr">
         <is>
           <t>Tayyar Yüzgeç - Turkey</t>
         </is>
       </c>
-      <c r="C50" s="5" t="inlineStr">
+      <c r="C51" s="7" t="inlineStr">
         <is>
           <t>23MTT03</t>
         </is>
       </c>
-      <c r="D50" s="5" t="inlineStr">
+      <c r="D51" s="7" t="inlineStr">
         <is>
           <t>EXW</t>
         </is>
       </c>
-      <c r="E50" s="6" t="n">
+      <c r="E51" s="8" t="n">
         <v>1925.49</v>
       </c>
-      <c r="F50" s="6" t="n">
+      <c r="F51" s="8" t="n">
         <v>2272.08</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="5" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="7" t="inlineStr">
         <is>
           <t>2023-03-13</t>
         </is>
       </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="B52" s="7" t="inlineStr">
         <is>
           <t>Tamer ($)</t>
         </is>
       </c>
-      <c r="C51" s="5" t="inlineStr">
+      <c r="C52" s="7" t="inlineStr">
         <is>
           <t>23SU112</t>
         </is>
       </c>
-      <c r="D51" s="5" t="inlineStr">
+      <c r="D52" s="7" t="inlineStr">
         <is>
           <t>EXW</t>
         </is>
       </c>
-      <c r="E51" s="6" t="n">
+      <c r="E52" s="8" t="n">
         <v>1762</v>
       </c>
-      <c r="F51" s="6" t="n">
+      <c r="F52" s="8" t="n">
         <v>1762</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="5" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="7" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B53" s="7" t="inlineStr">
         <is>
           <t>Alexander Endrody - Slovakia</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
+      <c r="C53" s="7" t="inlineStr">
         <is>
           <t>23BPO02</t>
         </is>
       </c>
-      <c r="D52" s="5" t="inlineStr">
+      <c r="D53" s="7" t="inlineStr">
         <is>
           <t>FOB</t>
         </is>
       </c>
-      <c r="E52" s="6" t="n">
+      <c r="E53" s="8" t="n">
         <v>1130.25</v>
       </c>
-      <c r="F52" s="6" t="n">
+      <c r="F53" s="8" t="n">
         <v>1130.25</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="5" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="7" t="inlineStr">
         <is>
           <t>2023-02-07</t>
         </is>
       </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="B54" s="7" t="inlineStr">
         <is>
           <t>BKF - USA</t>
         </is>
       </c>
-      <c r="C53" s="5" t="inlineStr">
+      <c r="C54" s="7" t="inlineStr">
         <is>
           <t>23BKF08</t>
         </is>
       </c>
-      <c r="D53" s="5" t="inlineStr">
+      <c r="D54" s="7" t="inlineStr">
         <is>
           <t>EXW</t>
         </is>
       </c>
-      <c r="E53" s="6" t="n">
+      <c r="E54" s="8" t="n">
         <v>962.9400000000001</v>
       </c>
-      <c r="F53" s="6" t="n">
+      <c r="F54" s="8" t="n">
         <v>962.9400000000001</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="5" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="7" t="inlineStr">
         <is>
           <t>2023-04-26</t>
         </is>
       </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="B55" s="7" t="inlineStr">
         <is>
           <t>Douglas - Belize</t>
         </is>
       </c>
-      <c r="C54" s="5" t="inlineStr">
+      <c r="C55" s="7" t="inlineStr">
         <is>
           <t>23DSP06</t>
         </is>
       </c>
-      <c r="D54" s="5" t="inlineStr">
+      <c r="D55" s="7" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="E54" s="6" t="n">
+      <c r="E55" s="8" t="n">
         <v>794.15</v>
       </c>
-      <c r="F54" s="6" t="n">
+      <c r="F55" s="8" t="n">
         <v>2214.15</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="5" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="7" t="inlineStr">
         <is>
           <t>2023-04-25</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="B56" s="7" t="inlineStr">
         <is>
           <t>Manhal Najjar - Dubai</t>
         </is>
       </c>
-      <c r="C55" s="5" t="inlineStr">
+      <c r="C56" s="7" t="inlineStr">
         <is>
           <t>23DMH01</t>
         </is>
       </c>
-      <c r="D55" s="5" t="inlineStr">
+      <c r="D56" s="7" t="inlineStr">
         <is>
           <t>FCA</t>
         </is>
       </c>
-      <c r="E55" s="6" t="n">
+      <c r="E56" s="8" t="n">
         <v>650</v>
       </c>
-      <c r="F55" s="6" t="n">
+      <c r="F56" s="8" t="n">
         <v>650</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="7" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="B57" s="7" t="inlineStr">
         <is>
           <t>Brent Losey - USA</t>
         </is>
       </c>
-      <c r="C56" s="5" t="inlineStr">
+      <c r="C57" s="7" t="inlineStr">
         <is>
           <t>23BRENT02</t>
         </is>
       </c>
-      <c r="D56" s="5" t="inlineStr">
+      <c r="D57" s="7" t="inlineStr">
         <is>
           <t>DDP</t>
         </is>
       </c>
-      <c r="E56" s="6" t="n">
+      <c r="E57" s="8" t="n">
         <v>567.16</v>
       </c>
-      <c r="F56" s="6" t="n">
+      <c r="F57" s="8" t="n">
         <v>1503.98</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="5" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="7" t="inlineStr">
         <is>
           <t>2023-02-28</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="B58" s="7" t="inlineStr">
         <is>
           <t>Sam - Ghana</t>
         </is>
       </c>
-      <c r="C57" s="5" t="inlineStr">
+      <c r="C58" s="7" t="inlineStr">
         <is>
           <t>23SAM03</t>
         </is>
       </c>
-      <c r="D57" s="5" t="inlineStr">
+      <c r="D58" s="7" t="inlineStr">
         <is>
           <t>EXW</t>
         </is>
       </c>
-      <c r="E57" s="6" t="n">
+      <c r="E58" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="F57" s="6" t="n">
+      <c r="F58" s="8" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="5" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="7" t="inlineStr">
         <is>
           <t>2023-02-27</t>
         </is>
       </c>
-      <c r="B58" s="5" t="inlineStr">
+      <c r="B59" s="7" t="inlineStr">
         <is>
           <t>Ante Drazic - HR</t>
         </is>
       </c>
-      <c r="C58" s="5" t="inlineStr">
+      <c r="C59" s="7" t="inlineStr">
         <is>
           <t>23SAN02</t>
         </is>
       </c>
-      <c r="D58" s="5" t="inlineStr">
+      <c r="D59" s="7" t="inlineStr">
         <is>
           <t>FCA</t>
         </is>
       </c>
-      <c r="E58" s="6" t="n">
+      <c r="E59" s="8" t="n">
         <v>470</v>
       </c>
-      <c r="F58" s="6" t="n">
+      <c r="F59" s="8" t="n">
         <v>470</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="inlineStr">
-        <is>
-          <t>2023-03-15</t>
-        </is>
-      </c>
-      <c r="B59" s="5" t="inlineStr">
-        <is>
-          <t>Gebran - Bahrain</t>
-        </is>
-      </c>
-      <c r="C59" s="5" t="inlineStr">
-        <is>
-          <t>23COME05</t>
-        </is>
-      </c>
-      <c r="D59" s="5" t="inlineStr">
-        <is>
-          <t>DDP</t>
-        </is>
-      </c>
-      <c r="E59" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="6" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="7" t="inlineStr">
         <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
+      <c r="B60" s="7" t="inlineStr">
+        <is>
+          <t>Gebran - Bahrain</t>
+        </is>
+      </c>
+      <c r="C60" s="7" t="inlineStr">
+        <is>
+          <t>23COME05</t>
+        </is>
+      </c>
+      <c r="D60" s="7" t="inlineStr">
+        <is>
+          <t>DDP</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="inlineStr">
+        <is>
           <t>Toplam</t>
         </is>
       </c>
-      <c r="E60" s="8" t="n">
+      <c r="E61" s="10" t="n">
         <v>1105424.6</v>
       </c>
-      <c r="F60" s="8" t="n">
+      <c r="F61" s="10" t="n">
         <v>1170461.61</v>
       </c>
     </row>
-    <row r="61">
-      <c r="E61" s="9" t="n"/>
-      <c r="F61" s="9" t="n"/>
-    </row>
     <row r="62">
-      <c r="E62" s="9" t="n"/>
-      <c r="F62" s="9" t="n"/>
+      <c r="E62" s="4" t="n"/>
+      <c r="F62" s="4" t="n"/>
     </row>
     <row r="63">
-      <c r="E63" s="9" t="n"/>
-      <c r="F63" s="9" t="n"/>
+      <c r="E63" s="4" t="n"/>
+      <c r="F63" s="4" t="n"/>
     </row>
     <row r="64">
-      <c r="E64" s="9" t="n"/>
-      <c r="F64" s="9" t="n"/>
+      <c r="E64" s="4" t="n"/>
+      <c r="F64" s="4" t="n"/>
     </row>
     <row r="65">
-      <c r="E65" s="9" t="n"/>
-      <c r="F65" s="9" t="n"/>
+      <c r="E65" s="4" t="n"/>
+      <c r="F65" s="4" t="n"/>
     </row>
     <row r="66">
-      <c r="E66" s="9" t="n"/>
-      <c r="F66" s="9" t="n"/>
+      <c r="E66" s="4" t="n"/>
+      <c r="F66" s="4" t="n"/>
     </row>
     <row r="67">
-      <c r="E67" s="9" t="n"/>
-      <c r="F67" s="9" t="n"/>
+      <c r="E67" s="4" t="n"/>
+      <c r="F67" s="4" t="n"/>
     </row>
     <row r="68">
-      <c r="E68" s="9" t="n"/>
-      <c r="F68" s="9" t="n"/>
+      <c r="E68" s="4" t="n"/>
+      <c r="F68" s="4" t="n"/>
     </row>
     <row r="69">
-      <c r="E69" s="9" t="n"/>
-      <c r="F69" s="9" t="n"/>
+      <c r="E69" s="4" t="n"/>
+      <c r="F69" s="4" t="n"/>
     </row>
     <row r="70">
-      <c r="E70" s="9" t="n"/>
-      <c r="F70" s="9" t="n"/>
+      <c r="E70" s="4" t="n"/>
+      <c r="F70" s="4" t="n"/>
     </row>
     <row r="71">
-      <c r="E71" s="9" t="n"/>
-      <c r="F71" s="9" t="n"/>
+      <c r="E71" s="4" t="n"/>
+      <c r="F71" s="4" t="n"/>
     </row>
     <row r="72">
-      <c r="E72" s="9" t="n"/>
-      <c r="F72" s="9" t="n"/>
+      <c r="E72" s="4" t="n"/>
+      <c r="F72" s="4" t="n"/>
     </row>
     <row r="73">
-      <c r="E73" s="9" t="n"/>
-      <c r="F73" s="9" t="n"/>
+      <c r="E73" s="4" t="n"/>
+      <c r="F73" s="4" t="n"/>
     </row>
     <row r="74">
-      <c r="E74" s="9" t="n"/>
-      <c r="F74" s="9" t="n"/>
+      <c r="E74" s="4" t="n"/>
+      <c r="F74" s="4" t="n"/>
     </row>
     <row r="75">
-      <c r="E75" s="9" t="n"/>
-      <c r="F75" s="9" t="n"/>
+      <c r="E75" s="4" t="n"/>
+      <c r="F75" s="4" t="n"/>
     </row>
     <row r="76">
-      <c r="E76" s="9" t="n"/>
-      <c r="F76" s="9" t="n"/>
+      <c r="E76" s="4" t="n"/>
+      <c r="F76" s="4" t="n"/>
     </row>
     <row r="77">
-      <c r="E77" s="9" t="n"/>
-      <c r="F77" s="9" t="n"/>
+      <c r="E77" s="4" t="n"/>
+      <c r="F77" s="4" t="n"/>
     </row>
     <row r="78">
-      <c r="E78" s="9" t="n"/>
-      <c r="F78" s="9" t="n"/>
+      <c r="E78" s="4" t="n"/>
+      <c r="F78" s="4" t="n"/>
     </row>
     <row r="79">
-      <c r="E79" s="9" t="n"/>
-      <c r="F79" s="9" t="n"/>
+      <c r="E79" s="4" t="n"/>
+      <c r="F79" s="4" t="n"/>
     </row>
     <row r="80">
-      <c r="E80" s="9" t="n"/>
-      <c r="F80" s="9" t="n"/>
+      <c r="E80" s="4" t="n"/>
+      <c r="F80" s="4" t="n"/>
     </row>
     <row r="81">
-      <c r="E81" s="9" t="n"/>
-      <c r="F81" s="9" t="n"/>
+      <c r="E81" s="4" t="n"/>
+      <c r="F81" s="4" t="n"/>
     </row>
     <row r="82">
-      <c r="E82" s="9" t="n"/>
-      <c r="F82" s="9" t="n"/>
+      <c r="E82" s="4" t="n"/>
+      <c r="F82" s="4" t="n"/>
     </row>
     <row r="83">
-      <c r="E83" s="9" t="n"/>
-      <c r="F83" s="9" t="n"/>
+      <c r="E83" s="4" t="n"/>
+      <c r="F83" s="4" t="n"/>
     </row>
     <row r="84">
-      <c r="E84" s="9" t="n"/>
-      <c r="F84" s="9" t="n"/>
+      <c r="E84" s="4" t="n"/>
+      <c r="F84" s="4" t="n"/>
     </row>
     <row r="85">
-      <c r="E85" s="9" t="n"/>
-      <c r="F85" s="9" t="n"/>
+      <c r="E85" s="4" t="n"/>
+      <c r="F85" s="4" t="n"/>
     </row>
     <row r="86">
-      <c r="E86" s="9" t="n"/>
-      <c r="F86" s="9" t="n"/>
+      <c r="E86" s="4" t="n"/>
+      <c r="F86" s="4" t="n"/>
     </row>
     <row r="87">
-      <c r="E87" s="9" t="n"/>
-      <c r="F87" s="9" t="n"/>
+      <c r="E87" s="4" t="n"/>
+      <c r="F87" s="4" t="n"/>
     </row>
     <row r="88">
-      <c r="E88" s="9" t="n"/>
-      <c r="F88" s="9" t="n"/>
+      <c r="E88" s="4" t="n"/>
+      <c r="F88" s="4" t="n"/>
     </row>
     <row r="89">
-      <c r="E89" s="9" t="n"/>
-      <c r="F89" s="9" t="n"/>
+      <c r="E89" s="4" t="n"/>
+      <c r="F89" s="4" t="n"/>
     </row>
     <row r="90">
-      <c r="E90" s="9" t="n"/>
-      <c r="F90" s="9" t="n"/>
+      <c r="E90" s="4" t="n"/>
+      <c r="F90" s="4" t="n"/>
     </row>
     <row r="91">
-      <c r="E91" s="9" t="n"/>
-      <c r="F91" s="9" t="n"/>
+      <c r="E91" s="4" t="n"/>
+      <c r="F91" s="4" t="n"/>
     </row>
     <row r="92">
-      <c r="E92" s="9" t="n"/>
-      <c r="F92" s="9" t="n"/>
+      <c r="E92" s="4" t="n"/>
+      <c r="F92" s="4" t="n"/>
     </row>
     <row r="93">
-      <c r="E93" s="9" t="n"/>
-      <c r="F93" s="9" t="n"/>
+      <c r="E93" s="4" t="n"/>
+      <c r="F93" s="4" t="n"/>
     </row>
     <row r="94">
-      <c r="E94" s="9" t="n"/>
-      <c r="F94" s="9" t="n"/>
+      <c r="E94" s="4" t="n"/>
+      <c r="F94" s="4" t="n"/>
     </row>
     <row r="95">
-      <c r="E95" s="9" t="n"/>
-      <c r="F95" s="9" t="n"/>
+      <c r="E95" s="4" t="n"/>
+      <c r="F95" s="4" t="n"/>
     </row>
     <row r="96">
-      <c r="E96" s="9" t="n"/>
-      <c r="F96" s="9" t="n"/>
+      <c r="E96" s="4" t="n"/>
+      <c r="F96" s="4" t="n"/>
     </row>
     <row r="97">
-      <c r="E97" s="9" t="n"/>
-      <c r="F97" s="9" t="n"/>
+      <c r="E97" s="4" t="n"/>
+      <c r="F97" s="4" t="n"/>
     </row>
     <row r="98">
-      <c r="E98" s="9" t="n"/>
-      <c r="F98" s="9" t="n"/>
+      <c r="E98" s="4" t="n"/>
+      <c r="F98" s="4" t="n"/>
     </row>
     <row r="99">
-      <c r="E99" s="9" t="n"/>
-      <c r="F99" s="9" t="n"/>
+      <c r="E99" s="4" t="n"/>
+      <c r="F99" s="4" t="n"/>
     </row>
     <row r="100">
-      <c r="E100" s="9" t="n"/>
-      <c r="F100" s="9" t="n"/>
+      <c r="E100" s="4" t="n"/>
+      <c r="F100" s="4" t="n"/>
     </row>
     <row r="101">
-      <c r="E101" s="9" t="n"/>
-      <c r="F101" s="9" t="n"/>
+      <c r="E101" s="4" t="n"/>
+      <c r="F101" s="4" t="n"/>
     </row>
     <row r="102">
-      <c r="E102" s="9" t="n"/>
-      <c r="F102" s="9" t="n"/>
+      <c r="E102" s="4" t="n"/>
+      <c r="F102" s="4" t="n"/>
     </row>
     <row r="103">
-      <c r="E103" s="9" t="n"/>
-      <c r="F103" s="9" t="n"/>
+      <c r="E103" s="4" t="n"/>
+      <c r="F103" s="4" t="n"/>
     </row>
     <row r="104">
-      <c r="E104" s="9" t="n"/>
-      <c r="F104" s="9" t="n"/>
+      <c r="E104" s="4" t="n"/>
+      <c r="F104" s="4" t="n"/>
     </row>
     <row r="105">
-      <c r="E105" s="9" t="n"/>
-      <c r="F105" s="9" t="n"/>
+      <c r="E105" s="4" t="n"/>
+      <c r="F105" s="4" t="n"/>
     </row>
     <row r="106">
-      <c r="E106" s="9" t="n"/>
-      <c r="F106" s="9" t="n"/>
+      <c r="E106" s="4" t="n"/>
+      <c r="F106" s="4" t="n"/>
     </row>
     <row r="107">
-      <c r="E107" s="9" t="n"/>
-      <c r="F107" s="9" t="n"/>
+      <c r="E107" s="4" t="n"/>
+      <c r="F107" s="4" t="n"/>
     </row>
     <row r="108">
-      <c r="E108" s="9" t="n"/>
-      <c r="F108" s="9" t="n"/>
+      <c r="E108" s="4" t="n"/>
+      <c r="F108" s="4" t="n"/>
     </row>
     <row r="109">
-      <c r="E109" s="9" t="n"/>
-      <c r="F109" s="9" t="n"/>
+      <c r="E109" s="4" t="n"/>
+      <c r="F109" s="4" t="n"/>
     </row>
     <row r="110">
-      <c r="E110" s="9" t="n"/>
-      <c r="F110" s="9" t="n"/>
+      <c r="E110" s="4" t="n"/>
+      <c r="F110" s="4" t="n"/>
     </row>
     <row r="111">
-      <c r="E111" s="9" t="n"/>
-      <c r="F111" s="9" t="n"/>
+      <c r="E111" s="4" t="n"/>
+      <c r="F111" s="4" t="n"/>
     </row>
     <row r="112">
-      <c r="E112" s="9" t="n"/>
-      <c r="F112" s="9" t="n"/>
+      <c r="E112" s="4" t="n"/>
+      <c r="F112" s="4" t="n"/>
     </row>
     <row r="113">
-      <c r="E113" s="9" t="n"/>
-      <c r="F113" s="9" t="n"/>
+      <c r="E113" s="4" t="n"/>
+      <c r="F113" s="4" t="n"/>
     </row>
     <row r="114">
-      <c r="E114" s="9" t="n"/>
-      <c r="F114" s="9" t="n"/>
+      <c r="E114" s="4" t="n"/>
+      <c r="F114" s="4" t="n"/>
     </row>
     <row r="115">
-      <c r="E115" s="9" t="n"/>
-      <c r="F115" s="9" t="n"/>
+      <c r="E115" s="4" t="n"/>
+      <c r="F115" s="4" t="n"/>
     </row>
     <row r="116">
-      <c r="E116" s="9" t="n"/>
-      <c r="F116" s="9" t="n"/>
+      <c r="E116" s="4" t="n"/>
+      <c r="F116" s="4" t="n"/>
     </row>
     <row r="117">
-      <c r="E117" s="9" t="n"/>
-      <c r="F117" s="9" t="n"/>
+      <c r="E117" s="4" t="n"/>
+      <c r="F117" s="4" t="n"/>
     </row>
     <row r="118">
-      <c r="E118" s="9" t="n"/>
-      <c r="F118" s="9" t="n"/>
+      <c r="E118" s="4" t="n"/>
+      <c r="F118" s="4" t="n"/>
     </row>
     <row r="119">
-      <c r="E119" s="9" t="n"/>
-      <c r="F119" s="9" t="n"/>
+      <c r="E119" s="4" t="n"/>
+      <c r="F119" s="4" t="n"/>
     </row>
     <row r="120">
-      <c r="E120" s="9" t="n"/>
-      <c r="F120" s="9" t="n"/>
+      <c r="E120" s="4" t="n"/>
+      <c r="F120" s="4" t="n"/>
     </row>
     <row r="121">
-      <c r="E121" s="9" t="n"/>
-      <c r="F121" s="9" t="n"/>
+      <c r="E121" s="4" t="n"/>
+      <c r="F121" s="4" t="n"/>
     </row>
     <row r="122">
-      <c r="E122" s="9" t="n"/>
-      <c r="F122" s="9" t="n"/>
+      <c r="E122" s="4" t="n"/>
+      <c r="F122" s="4" t="n"/>
     </row>
     <row r="123">
-      <c r="E123" s="9" t="n"/>
-      <c r="F123" s="9" t="n"/>
+      <c r="E123" s="4" t="n"/>
+      <c r="F123" s="4" t="n"/>
     </row>
     <row r="124">
-      <c r="E124" s="9" t="n"/>
-      <c r="F124" s="9" t="n"/>
+      <c r="E124" s="4" t="n"/>
+      <c r="F124" s="4" t="n"/>
     </row>
     <row r="125">
-      <c r="E125" s="9" t="n"/>
-      <c r="F125" s="9" t="n"/>
+      <c r="E125" s="4" t="n"/>
+      <c r="F125" s="4" t="n"/>
     </row>
     <row r="126">
-      <c r="E126" s="9" t="n"/>
-      <c r="F126" s="9" t="n"/>
+      <c r="E126" s="4" t="n"/>
+      <c r="F126" s="4" t="n"/>
     </row>
     <row r="127">
-      <c r="E127" s="9" t="n"/>
-      <c r="F127" s="9" t="n"/>
+      <c r="E127" s="4" t="n"/>
+      <c r="F127" s="4" t="n"/>
     </row>
     <row r="128">
-      <c r="E128" s="9" t="n"/>
-      <c r="F128" s="9" t="n"/>
+      <c r="E128" s="4" t="n"/>
+      <c r="F128" s="4" t="n"/>
     </row>
     <row r="129">
-      <c r="E129" s="9" t="n"/>
-      <c r="F129" s="9" t="n"/>
+      <c r="E129" s="4" t="n"/>
+      <c r="F129" s="4" t="n"/>
     </row>
     <row r="130">
-      <c r="E130" s="9" t="n"/>
-      <c r="F130" s="9" t="n"/>
+      <c r="E130" s="4" t="n"/>
+      <c r="F130" s="4" t="n"/>
     </row>
     <row r="131">
-      <c r="E131" s="9" t="n"/>
-      <c r="F131" s="9" t="n"/>
+      <c r="E131" s="4" t="n"/>
+      <c r="F131" s="4" t="n"/>
     </row>
     <row r="132">
-      <c r="E132" s="9" t="n"/>
-      <c r="F132" s="9" t="n"/>
+      <c r="E132" s="4" t="n"/>
+      <c r="F132" s="4" t="n"/>
     </row>
     <row r="133">
-      <c r="E133" s="9" t="n"/>
-      <c r="F133" s="9" t="n"/>
+      <c r="E133" s="4" t="n"/>
+      <c r="F133" s="4" t="n"/>
     </row>
     <row r="134">
-      <c r="E134" s="9" t="n"/>
-      <c r="F134" s="9" t="n"/>
+      <c r="E134" s="4" t="n"/>
+      <c r="F134" s="4" t="n"/>
     </row>
     <row r="135">
-      <c r="E135" s="9" t="n"/>
-      <c r="F135" s="9" t="n"/>
+      <c r="E135" s="4" t="n"/>
+      <c r="F135" s="4" t="n"/>
     </row>
     <row r="136">
-      <c r="E136" s="9" t="n"/>
-      <c r="F136" s="9" t="n"/>
+      <c r="E136" s="4" t="n"/>
+      <c r="F136" s="4" t="n"/>
     </row>
     <row r="137">
-      <c r="E137" s="9" t="n"/>
-      <c r="F137" s="9" t="n"/>
+      <c r="E137" s="4" t="n"/>
+      <c r="F137" s="4" t="n"/>
     </row>
     <row r="138">
-      <c r="E138" s="9" t="n"/>
-      <c r="F138" s="9" t="n"/>
+      <c r="E138" s="4" t="n"/>
+      <c r="F138" s="4" t="n"/>
     </row>
     <row r="139">
-      <c r="E139" s="9" t="n"/>
-      <c r="F139" s="9" t="n"/>
+      <c r="E139" s="4" t="n"/>
+      <c r="F139" s="4" t="n"/>
     </row>
     <row r="140">
-      <c r="E140" s="9" t="n"/>
-      <c r="F140" s="9" t="n"/>
+      <c r="E140" s="4" t="n"/>
+      <c r="F140" s="4" t="n"/>
     </row>
     <row r="141">
-      <c r="E141" s="9" t="n"/>
-      <c r="F141" s="9" t="n"/>
+      <c r="E141" s="4" t="n"/>
+      <c r="F141" s="4" t="n"/>
     </row>
     <row r="142">
-      <c r="E142" s="9" t="n"/>
-      <c r="F142" s="9" t="n"/>
+      <c r="E142" s="4" t="n"/>
+      <c r="F142" s="4" t="n"/>
     </row>
     <row r="143">
-      <c r="E143" s="9" t="n"/>
-      <c r="F143" s="9" t="n"/>
+      <c r="E143" s="4" t="n"/>
+      <c r="F143" s="4" t="n"/>
     </row>
     <row r="144">
-      <c r="E144" s="9" t="n"/>
-      <c r="F144" s="9" t="n"/>
+      <c r="E144" s="4" t="n"/>
+      <c r="F144" s="4" t="n"/>
     </row>
     <row r="145">
-      <c r="E145" s="9" t="n"/>
-      <c r="F145" s="9" t="n"/>
+      <c r="E145" s="4" t="n"/>
+      <c r="F145" s="4" t="n"/>
     </row>
     <row r="146">
-      <c r="E146" s="9" t="n"/>
-      <c r="F146" s="9" t="n"/>
+      <c r="E146" s="4" t="n"/>
+      <c r="F146" s="4" t="n"/>
     </row>
     <row r="147">
-      <c r="E147" s="9" t="n"/>
-      <c r="F147" s="9" t="n"/>
+      <c r="E147" s="4" t="n"/>
+      <c r="F147" s="4" t="n"/>
     </row>
     <row r="148">
-      <c r="E148" s="9" t="n"/>
-      <c r="F148" s="9" t="n"/>
+      <c r="E148" s="4" t="n"/>
+      <c r="F148" s="4" t="n"/>
     </row>
     <row r="149">
-      <c r="E149" s="9" t="n"/>
-      <c r="F149" s="9" t="n"/>
+      <c r="E149" s="4" t="n"/>
+      <c r="F149" s="4" t="n"/>
     </row>
     <row r="150">
-      <c r="E150" s="9" t="n"/>
-      <c r="F150" s="9" t="n"/>
+      <c r="E150" s="4" t="n"/>
+      <c r="F150" s="4" t="n"/>
     </row>
     <row r="151">
-      <c r="E151" s="9" t="n"/>
-      <c r="F151" s="9" t="n"/>
+      <c r="E151" s="4" t="n"/>
+      <c r="F151" s="4" t="n"/>
     </row>
     <row r="152">
-      <c r="E152" s="9" t="n"/>
-      <c r="F152" s="9" t="n"/>
+      <c r="E152" s="4" t="n"/>
+      <c r="F152" s="4" t="n"/>
     </row>
     <row r="153">
-      <c r="E153" s="9" t="n"/>
-      <c r="F153" s="9" t="n"/>
+      <c r="E153" s="4" t="n"/>
+      <c r="F153" s="4" t="n"/>
     </row>
     <row r="154">
-      <c r="E154" s="9" t="n"/>
-      <c r="F154" s="9" t="n"/>
+      <c r="E154" s="4" t="n"/>
+      <c r="F154" s="4" t="n"/>
     </row>
     <row r="155">
-      <c r="E155" s="9" t="n"/>
-      <c r="F155" s="9" t="n"/>
+      <c r="E155" s="4" t="n"/>
+      <c r="F155" s="4" t="n"/>
     </row>
     <row r="156">
-      <c r="E156" s="9" t="n"/>
-      <c r="F156" s="9" t="n"/>
+      <c r="E156" s="4" t="n"/>
+      <c r="F156" s="4" t="n"/>
     </row>
     <row r="157">
-      <c r="E157" s="9" t="n"/>
-      <c r="F157" s="9" t="n"/>
+      <c r="E157" s="4" t="n"/>
+      <c r="F157" s="4" t="n"/>
     </row>
     <row r="158">
-      <c r="E158" s="9" t="n"/>
-      <c r="F158" s="9" t="n"/>
+      <c r="E158" s="4" t="n"/>
+      <c r="F158" s="4" t="n"/>
     </row>
     <row r="159">
-      <c r="E159" s="9" t="n"/>
-      <c r="F159" s="9" t="n"/>
+      <c r="E159" s="4" t="n"/>
+      <c r="F159" s="4" t="n"/>
     </row>
     <row r="160">
-      <c r="E160" s="9" t="n"/>
-      <c r="F160" s="9" t="n"/>
+      <c r="E160" s="4" t="n"/>
+      <c r="F160" s="4" t="n"/>
     </row>
     <row r="161">
-      <c r="E161" s="9" t="n"/>
-      <c r="F161" s="9" t="n"/>
+      <c r="E161" s="4" t="n"/>
+      <c r="F161" s="4" t="n"/>
     </row>
     <row r="162">
-      <c r="E162" s="9" t="n"/>
-      <c r="F162" s="9" t="n"/>
+      <c r="E162" s="4" t="n"/>
+      <c r="F162" s="4" t="n"/>
     </row>
     <row r="163">
-      <c r="E163" s="9" t="n"/>
-      <c r="F163" s="9" t="n"/>
+      <c r="E163" s="4" t="n"/>
+      <c r="F163" s="4" t="n"/>
     </row>
     <row r="164">
-      <c r="E164" s="9" t="n"/>
-      <c r="F164" s="9" t="n"/>
+      <c r="E164" s="4" t="n"/>
+      <c r="F164" s="4" t="n"/>
     </row>
     <row r="165">
-      <c r="E165" s="9" t="n"/>
-      <c r="F165" s="9" t="n"/>
+      <c r="E165" s="4" t="n"/>
+      <c r="F165" s="4" t="n"/>
     </row>
     <row r="166">
-      <c r="E166" s="9" t="n"/>
-      <c r="F166" s="9" t="n"/>
+      <c r="E166" s="4" t="n"/>
+      <c r="F166" s="4" t="n"/>
     </row>
     <row r="167">
-      <c r="E167" s="9" t="n"/>
-      <c r="F167" s="9" t="n"/>
+      <c r="E167" s="4" t="n"/>
+      <c r="F167" s="4" t="n"/>
     </row>
     <row r="168">
-      <c r="E168" s="9" t="n"/>
-      <c r="F168" s="9" t="n"/>
+      <c r="E168" s="4" t="n"/>
+      <c r="F168" s="4" t="n"/>
     </row>
     <row r="169">
-      <c r="E169" s="9" t="n"/>
-      <c r="F169" s="9" t="n"/>
+      <c r="E169" s="4" t="n"/>
+      <c r="F169" s="4" t="n"/>
     </row>
     <row r="170">
-      <c r="E170" s="9" t="n"/>
-      <c r="F170" s="9" t="n"/>
+      <c r="E170" s="4" t="n"/>
+      <c r="F170" s="4" t="n"/>
     </row>
     <row r="171">
-      <c r="E171" s="9" t="n"/>
-      <c r="F171" s="9" t="n"/>
+      <c r="E171" s="4" t="n"/>
+      <c r="F171" s="4" t="n"/>
     </row>
     <row r="172">
-      <c r="E172" s="9" t="n"/>
-      <c r="F172" s="9" t="n"/>
+      <c r="E172" s="4" t="n"/>
+      <c r="F172" s="4" t="n"/>
     </row>
     <row r="173">
-      <c r="E173" s="9" t="n"/>
-      <c r="F173" s="9" t="n"/>
+      <c r="E173" s="4" t="n"/>
+      <c r="F173" s="4" t="n"/>
     </row>
     <row r="174">
-      <c r="E174" s="9" t="n"/>
-      <c r="F174" s="9" t="n"/>
+      <c r="E174" s="4" t="n"/>
+      <c r="F174" s="4" t="n"/>
     </row>
     <row r="175">
-      <c r="E175" s="9" t="n"/>
-      <c r="F175" s="9" t="n"/>
+      <c r="E175" s="4" t="n"/>
+      <c r="F175" s="4" t="n"/>
     </row>
     <row r="176">
-      <c r="E176" s="9" t="n"/>
-      <c r="F176" s="9" t="n"/>
+      <c r="E176" s="4" t="n"/>
+      <c r="F176" s="4" t="n"/>
     </row>
     <row r="177">
-      <c r="E177" s="9" t="n"/>
-      <c r="F177" s="9" t="n"/>
+      <c r="E177" s="4" t="n"/>
+      <c r="F177" s="4" t="n"/>
     </row>
     <row r="178">
-      <c r="E178" s="9" t="n"/>
-      <c r="F178" s="9" t="n"/>
+      <c r="E178" s="4" t="n"/>
+      <c r="F178" s="4" t="n"/>
     </row>
     <row r="179">
-      <c r="E179" s="9" t="n"/>
-      <c r="F179" s="9" t="n"/>
+      <c r="E179" s="4" t="n"/>
+      <c r="F179" s="4" t="n"/>
     </row>
     <row r="180">
-      <c r="E180" s="9" t="n"/>
-      <c r="F180" s="9" t="n"/>
+      <c r="E180" s="4" t="n"/>
+      <c r="F180" s="4" t="n"/>
     </row>
     <row r="181">
-      <c r="E181" s="9" t="n"/>
-      <c r="F181" s="9" t="n"/>
+      <c r="E181" s="4" t="n"/>
+      <c r="F181" s="4" t="n"/>
     </row>
     <row r="182">
-      <c r="E182" s="9" t="n"/>
-      <c r="F182" s="9" t="n"/>
+      <c r="E182" s="4" t="n"/>
+      <c r="F182" s="4" t="n"/>
     </row>
     <row r="183">
-      <c r="E183" s="9" t="n"/>
-      <c r="F183" s="9" t="n"/>
+      <c r="E183" s="4" t="n"/>
+      <c r="F183" s="4" t="n"/>
     </row>
     <row r="184">
-      <c r="E184" s="9" t="n"/>
-      <c r="F184" s="9" t="n"/>
+      <c r="E184" s="4" t="n"/>
+      <c r="F184" s="4" t="n"/>
     </row>
     <row r="185">
-      <c r="E185" s="9" t="n"/>
-      <c r="F185" s="9" t="n"/>
+      <c r="E185" s="4" t="n"/>
+      <c r="F185" s="4" t="n"/>
     </row>
     <row r="186">
-      <c r="E186" s="9" t="n"/>
-      <c r="F186" s="9" t="n"/>
+      <c r="E186" s="4" t="n"/>
+      <c r="F186" s="4" t="n"/>
     </row>
     <row r="187">
-      <c r="E187" s="9" t="n"/>
-      <c r="F187" s="9" t="n"/>
+      <c r="E187" s="4" t="n"/>
+      <c r="F187" s="4" t="n"/>
     </row>
     <row r="188">
-      <c r="E188" s="9" t="n"/>
-      <c r="F188" s="9" t="n"/>
+      <c r="E188" s="4" t="n"/>
+      <c r="F188" s="4" t="n"/>
     </row>
     <row r="189">
-      <c r="E189" s="9" t="n"/>
-      <c r="F189" s="9" t="n"/>
+      <c r="E189" s="4" t="n"/>
+      <c r="F189" s="4" t="n"/>
     </row>
     <row r="190">
-      <c r="E190" s="9" t="n"/>
-      <c r="F190" s="9" t="n"/>
+      <c r="E190" s="4" t="n"/>
+      <c r="F190" s="4" t="n"/>
     </row>
     <row r="191">
-      <c r="E191" s="9" t="n"/>
-      <c r="F191" s="9" t="n"/>
+      <c r="E191" s="4" t="n"/>
+      <c r="F191" s="4" t="n"/>
     </row>
     <row r="192">
-      <c r="E192" s="9" t="n"/>
-      <c r="F192" s="9" t="n"/>
+      <c r="E192" s="4" t="n"/>
+      <c r="F192" s="4" t="n"/>
     </row>
     <row r="193">
-      <c r="E193" s="9" t="n"/>
-      <c r="F193" s="9" t="n"/>
+      <c r="E193" s="4" t="n"/>
+      <c r="F193" s="4" t="n"/>
     </row>
     <row r="194">
-      <c r="E194" s="9" t="n"/>
-      <c r="F194" s="9" t="n"/>
+      <c r="E194" s="4" t="n"/>
+      <c r="F194" s="4" t="n"/>
     </row>
     <row r="195">
-      <c r="E195" s="9" t="n"/>
-      <c r="F195" s="9" t="n"/>
+      <c r="E195" s="4" t="n"/>
+      <c r="F195" s="4" t="n"/>
     </row>
     <row r="196">
-      <c r="E196" s="9" t="n"/>
-      <c r="F196" s="9" t="n"/>
+      <c r="E196" s="4" t="n"/>
+      <c r="F196" s="4" t="n"/>
     </row>
     <row r="197">
-      <c r="E197" s="9" t="n"/>
-      <c r="F197" s="9" t="n"/>
+      <c r="E197" s="4" t="n"/>
+      <c r="F197" s="4" t="n"/>
     </row>
     <row r="198">
-      <c r="E198" s="9" t="n"/>
-      <c r="F198" s="9" t="n"/>
+      <c r="E198" s="4" t="n"/>
+      <c r="F198" s="4" t="n"/>
     </row>
     <row r="199">
-      <c r="E199" s="9" t="n"/>
-      <c r="F199" s="9" t="n"/>
+      <c r="E199" s="4" t="n"/>
+      <c r="F199" s="4" t="n"/>
     </row>
     <row r="200">
-      <c r="E200" s="9" t="n"/>
-      <c r="F200" s="9" t="n"/>
+      <c r="E200" s="4" t="n"/>
+      <c r="F200" s="4" t="n"/>
     </row>
     <row r="201">
-      <c r="E201" s="9" t="n"/>
-      <c r="F201" s="9" t="n"/>
+      <c r="E201" s="4" t="n"/>
+      <c r="F201" s="4" t="n"/>
     </row>
     <row r="202">
-      <c r="E202" s="9" t="n"/>
-      <c r="F202" s="9" t="n"/>
+      <c r="E202" s="4" t="n"/>
+      <c r="F202" s="4" t="n"/>
     </row>
     <row r="203">
-      <c r="E203" s="9" t="n"/>
-      <c r="F203" s="9" t="n"/>
+      <c r="E203" s="4" t="n"/>
+      <c r="F203" s="4" t="n"/>
     </row>
     <row r="204">
-      <c r="E204" s="9" t="n"/>
-      <c r="F204" s="9" t="n"/>
+      <c r="E204" s="4" t="n"/>
+      <c r="F204" s="4" t="n"/>
     </row>
     <row r="205">
-      <c r="E205" s="9" t="n"/>
-      <c r="F205" s="9" t="n"/>
+      <c r="E205" s="4" t="n"/>
+      <c r="F205" s="4" t="n"/>
     </row>
     <row r="206">
-      <c r="E206" s="9" t="n"/>
-      <c r="F206" s="9" t="n"/>
+      <c r="E206" s="4" t="n"/>
+      <c r="F206" s="4" t="n"/>
     </row>
     <row r="207">
-      <c r="E207" s="9" t="n"/>
-      <c r="F207" s="9" t="n"/>
+      <c r="E207" s="4" t="n"/>
+      <c r="F207" s="4" t="n"/>
     </row>
     <row r="208">
-      <c r="E208" s="9" t="n"/>
-      <c r="F208" s="9" t="n"/>
+      <c r="E208" s="4" t="n"/>
+      <c r="F208" s="4" t="n"/>
     </row>
     <row r="209">
-      <c r="E209" s="9" t="n"/>
-      <c r="F209" s="9" t="n"/>
+      <c r="E209" s="4" t="n"/>
+      <c r="F209" s="4" t="n"/>
     </row>
     <row r="210">
-      <c r="E210" s="9" t="n"/>
-      <c r="F210" s="9" t="n"/>
+      <c r="E210" s="4" t="n"/>
+      <c r="F210" s="4" t="n"/>
     </row>
     <row r="211">
-      <c r="E211" s="9" t="n"/>
-      <c r="F211" s="9" t="n"/>
+      <c r="E211" s="4" t="n"/>
+      <c r="F211" s="4" t="n"/>
     </row>
     <row r="212">
-      <c r="E212" s="9" t="n"/>
-      <c r="F212" s="9" t="n"/>
+      <c r="E212" s="4" t="n"/>
+      <c r="F212" s="4" t="n"/>
     </row>
     <row r="213">
-      <c r="E213" s="9" t="n"/>
-      <c r="F213" s="9" t="n"/>
+      <c r="E213" s="4" t="n"/>
+      <c r="F213" s="4" t="n"/>
     </row>
     <row r="214">
-      <c r="E214" s="9" t="n"/>
-      <c r="F214" s="9" t="n"/>
+      <c r="E214" s="4" t="n"/>
+      <c r="F214" s="4" t="n"/>
     </row>
     <row r="215">
-      <c r="E215" s="9" t="n"/>
-      <c r="F215" s="9" t="n"/>
+      <c r="E215" s="4" t="n"/>
+      <c r="F215" s="4" t="n"/>
     </row>
     <row r="216">
-      <c r="E216" s="9" t="n"/>
-      <c r="F216" s="9" t="n"/>
+      <c r="E216" s="4" t="n"/>
+      <c r="F216" s="4" t="n"/>
     </row>
     <row r="217">
-      <c r="E217" s="9" t="n"/>
-      <c r="F217" s="9" t="n"/>
+      <c r="E217" s="4" t="n"/>
+      <c r="F217" s="4" t="n"/>
     </row>
     <row r="218">
-      <c r="E218" s="9" t="n"/>
-      <c r="F218" s="9" t="n"/>
+      <c r="E218" s="4" t="n"/>
+      <c r="F218" s="4" t="n"/>
     </row>
     <row r="219">
-      <c r="E219" s="9" t="n"/>
-      <c r="F219" s="9" t="n"/>
+      <c r="E219" s="4" t="n"/>
+      <c r="F219" s="4" t="n"/>
     </row>
     <row r="220">
-      <c r="E220" s="9" t="n"/>
-      <c r="F220" s="9" t="n"/>
+      <c r="E220" s="4" t="n"/>
+      <c r="F220" s="4" t="n"/>
     </row>
     <row r="221">
-      <c r="E221" s="9" t="n"/>
-      <c r="F221" s="9" t="n"/>
+      <c r="E221" s="4" t="n"/>
+      <c r="F221" s="4" t="n"/>
     </row>
     <row r="222">
-      <c r="E222" s="9" t="n"/>
-      <c r="F222" s="9" t="n"/>
+      <c r="E222" s="4" t="n"/>
+      <c r="F222" s="4" t="n"/>
     </row>
     <row r="223">
-      <c r="E223" s="9" t="n"/>
-      <c r="F223" s="9" t="n"/>
+      <c r="E223" s="4" t="n"/>
+      <c r="F223" s="4" t="n"/>
     </row>
     <row r="224">
-      <c r="E224" s="9" t="n"/>
-      <c r="F224" s="9" t="n"/>
+      <c r="E224" s="4" t="n"/>
+      <c r="F224" s="4" t="n"/>
     </row>
     <row r="225">
-      <c r="E225" s="9" t="n"/>
-      <c r="F225" s="9" t="n"/>
+      <c r="E225" s="4" t="n"/>
+      <c r="F225" s="4" t="n"/>
     </row>
     <row r="226">
-      <c r="E226" s="9" t="n"/>
-      <c r="F226" s="9" t="n"/>
+      <c r="E226" s="4" t="n"/>
+      <c r="F226" s="4" t="n"/>
     </row>
     <row r="227">
-      <c r="E227" s="9" t="n"/>
-      <c r="F227" s="9" t="n"/>
+      <c r="E227" s="4" t="n"/>
+      <c r="F227" s="4" t="n"/>
     </row>
     <row r="228">
-      <c r="E228" s="9" t="n"/>
-      <c r="F228" s="9" t="n"/>
+      <c r="E228" s="4" t="n"/>
+      <c r="F228" s="4" t="n"/>
     </row>
     <row r="229">
-      <c r="E229" s="9" t="n"/>
-      <c r="F229" s="9" t="n"/>
+      <c r="E229" s="4" t="n"/>
+      <c r="F229" s="4" t="n"/>
     </row>
     <row r="230">
-      <c r="E230" s="9" t="n"/>
-      <c r="F230" s="9" t="n"/>
+      <c r="E230" s="4" t="n"/>
+      <c r="F230" s="4" t="n"/>
     </row>
     <row r="231">
-      <c r="E231" s="9" t="n"/>
-      <c r="F231" s="9" t="n"/>
+      <c r="E231" s="4" t="n"/>
+      <c r="F231" s="4" t="n"/>
     </row>
     <row r="232">
-      <c r="E232" s="9" t="n"/>
-      <c r="F232" s="9" t="n"/>
+      <c r="E232" s="4" t="n"/>
+      <c r="F232" s="4" t="n"/>
     </row>
     <row r="233">
-      <c r="E233" s="9" t="n"/>
-      <c r="F233" s="9" t="n"/>
+      <c r="E233" s="4" t="n"/>
+      <c r="F233" s="4" t="n"/>
     </row>
     <row r="234">
-      <c r="E234" s="9" t="n"/>
-      <c r="F234" s="9" t="n"/>
+      <c r="E234" s="4" t="n"/>
+      <c r="F234" s="4" t="n"/>
     </row>
     <row r="235">
-      <c r="E235" s="9" t="n"/>
-      <c r="F235" s="9" t="n"/>
+      <c r="E235" s="4" t="n"/>
+      <c r="F235" s="4" t="n"/>
     </row>
     <row r="236">
-      <c r="E236" s="9" t="n"/>
-      <c r="F236" s="9" t="n"/>
+      <c r="E236" s="4" t="n"/>
+      <c r="F236" s="4" t="n"/>
     </row>
     <row r="237">
-      <c r="E237" s="9" t="n"/>
-      <c r="F237" s="9" t="n"/>
+      <c r="E237" s="4" t="n"/>
+      <c r="F237" s="4" t="n"/>
     </row>
     <row r="238">
-      <c r="E238" s="9" t="n"/>
-      <c r="F238" s="9" t="n"/>
+      <c r="E238" s="4" t="n"/>
+      <c r="F238" s="4" t="n"/>
     </row>
     <row r="239">
-      <c r="E239" s="9" t="n"/>
-      <c r="F239" s="9" t="n"/>
+      <c r="E239" s="4" t="n"/>
+      <c r="F239" s="4" t="n"/>
     </row>
     <row r="240">
-      <c r="E240" s="9" t="n"/>
-      <c r="F240" s="9" t="n"/>
+      <c r="E240" s="4" t="n"/>
+      <c r="F240" s="4" t="n"/>
     </row>
     <row r="241">
-      <c r="E241" s="9" t="n"/>
-      <c r="F241" s="9" t="n"/>
+      <c r="E241" s="4" t="n"/>
+      <c r="F241" s="4" t="n"/>
     </row>
     <row r="242">
-      <c r="E242" s="9" t="n"/>
-      <c r="F242" s="9" t="n"/>
+      <c r="E242" s="4" t="n"/>
+      <c r="F242" s="4" t="n"/>
     </row>
     <row r="243">
-      <c r="E243" s="9" t="n"/>
-      <c r="F243" s="9" t="n"/>
+      <c r="E243" s="4" t="n"/>
+      <c r="F243" s="4" t="n"/>
     </row>
     <row r="244">
-      <c r="E244" s="9" t="n"/>
-      <c r="F244" s="9" t="n"/>
+      <c r="E244" s="4" t="n"/>
+      <c r="F244" s="4" t="n"/>
     </row>
     <row r="245">
-      <c r="E245" s="9" t="n"/>
-      <c r="F245" s="9" t="n"/>
+      <c r="E245" s="4" t="n"/>
+      <c r="F245" s="4" t="n"/>
     </row>
     <row r="246">
-      <c r="E246" s="9" t="n"/>
-      <c r="F246" s="9" t="n"/>
+      <c r="E246" s="4" t="n"/>
+      <c r="F246" s="4" t="n"/>
     </row>
     <row r="247">
-      <c r="E247" s="9" t="n"/>
-      <c r="F247" s="9" t="n"/>
+      <c r="E247" s="4" t="n"/>
+      <c r="F247" s="4" t="n"/>
     </row>
     <row r="248">
-      <c r="E248" s="9" t="n"/>
-      <c r="F248" s="9" t="n"/>
+      <c r="E248" s="4" t="n"/>
+      <c r="F248" s="4" t="n"/>
     </row>
     <row r="249">
-      <c r="E249" s="9" t="n"/>
-      <c r="F249" s="9" t="n"/>
+      <c r="E249" s="4" t="n"/>
+      <c r="F249" s="4" t="n"/>
     </row>
     <row r="250">
-      <c r="E250" s="9" t="n"/>
-      <c r="F250" s="9" t="n"/>
+      <c r="E250" s="4" t="n"/>
+      <c r="F250" s="4" t="n"/>
     </row>
     <row r="251">
-      <c r="E251" s="9" t="n"/>
-      <c r="F251" s="9" t="n"/>
+      <c r="E251" s="4" t="n"/>
+      <c r="F251" s="4" t="n"/>
     </row>
     <row r="252">
-      <c r="E252" s="9" t="n"/>
-      <c r="F252" s="9" t="n"/>
+      <c r="E252" s="4" t="n"/>
+      <c r="F252" s="4" t="n"/>
     </row>
     <row r="253">
-      <c r="E253" s="9" t="n"/>
-      <c r="F253" s="9" t="n"/>
+      <c r="E253" s="4" t="n"/>
+      <c r="F253" s="4" t="n"/>
     </row>
     <row r="254">
-      <c r="E254" s="9" t="n"/>
-      <c r="F254" s="9" t="n"/>
+      <c r="E254" s="4" t="n"/>
+      <c r="F254" s="4" t="n"/>
     </row>
     <row r="255">
-      <c r="E255" s="9" t="n"/>
-      <c r="F255" s="9" t="n"/>
+      <c r="E255" s="4" t="n"/>
+      <c r="F255" s="4" t="n"/>
     </row>
     <row r="256">
-      <c r="E256" s="9" t="n"/>
-      <c r="F256" s="9" t="n"/>
+      <c r="E256" s="4" t="n"/>
+      <c r="F256" s="4" t="n"/>
     </row>
     <row r="257">
-      <c r="E257" s="9" t="n"/>
-      <c r="F257" s="9" t="n"/>
+      <c r="E257" s="4" t="n"/>
+      <c r="F257" s="4" t="n"/>
     </row>
     <row r="258">
-      <c r="E258" s="9" t="n"/>
-      <c r="F258" s="9" t="n"/>
+      <c r="E258" s="4" t="n"/>
+      <c r="F258" s="4" t="n"/>
     </row>
     <row r="259">
-      <c r="E259" s="9" t="n"/>
-      <c r="F259" s="9" t="n"/>
+      <c r="E259" s="4" t="n"/>
+      <c r="F259" s="4" t="n"/>
     </row>
     <row r="260">
-      <c r="E260" s="9" t="n"/>
-      <c r="F260" s="9" t="n"/>
+      <c r="E260" s="4" t="n"/>
+      <c r="F260" s="4" t="n"/>
     </row>
     <row r="261">
-      <c r="E261" s="9" t="n"/>
-      <c r="F261" s="9" t="n"/>
+      <c r="E261" s="4" t="n"/>
+      <c r="F261" s="4" t="n"/>
     </row>
     <row r="262">
-      <c r="E262" s="9" t="n"/>
-      <c r="F262" s="9" t="n"/>
+      <c r="E262" s="4" t="n"/>
+      <c r="F262" s="4" t="n"/>
     </row>
     <row r="263">
-      <c r="E263" s="9" t="n"/>
-      <c r="F263" s="9" t="n"/>
+      <c r="E263" s="4" t="n"/>
+      <c r="F263" s="4" t="n"/>
     </row>
     <row r="264">
-      <c r="E264" s="9" t="n"/>
-      <c r="F264" s="9" t="n"/>
+      <c r="E264" s="4" t="n"/>
+      <c r="F264" s="4" t="n"/>
     </row>
     <row r="265">
-      <c r="E265" s="9" t="n"/>
-      <c r="F265" s="9" t="n"/>
+      <c r="E265" s="4" t="n"/>
+      <c r="F265" s="4" t="n"/>
     </row>
     <row r="266">
-      <c r="E266" s="9" t="n"/>
-      <c r="F266" s="9" t="n"/>
+      <c r="E266" s="4" t="n"/>
+      <c r="F266" s="4" t="n"/>
     </row>
     <row r="267">
-      <c r="E267" s="9" t="n"/>
-      <c r="F267" s="9" t="n"/>
+      <c r="E267" s="4" t="n"/>
+      <c r="F267" s="4" t="n"/>
     </row>
     <row r="268">
-      <c r="E268" s="9" t="n"/>
-      <c r="F268" s="9" t="n"/>
+      <c r="E268" s="4" t="n"/>
+      <c r="F268" s="4" t="n"/>
     </row>
     <row r="269">
-      <c r="E269" s="9" t="n"/>
-      <c r="F269" s="9" t="n"/>
+      <c r="E269" s="4" t="n"/>
+      <c r="F269" s="4" t="n"/>
     </row>
     <row r="270">
-      <c r="E270" s="9" t="n"/>
-      <c r="F270" s="9" t="n"/>
+      <c r="E270" s="4" t="n"/>
+      <c r="F270" s="4" t="n"/>
     </row>
     <row r="271">
-      <c r="E271" s="9" t="n"/>
-      <c r="F271" s="9" t="n"/>
+      <c r="E271" s="4" t="n"/>
+      <c r="F271" s="4" t="n"/>
     </row>
     <row r="272">
-      <c r="E272" s="9" t="n"/>
-      <c r="F272" s="9" t="n"/>
+      <c r="E272" s="4" t="n"/>
+      <c r="F272" s="4" t="n"/>
     </row>
     <row r="273">
-      <c r="E273" s="9" t="n"/>
-      <c r="F273" s="9" t="n"/>
+      <c r="E273" s="4" t="n"/>
+      <c r="F273" s="4" t="n"/>
     </row>
     <row r="274">
-      <c r="E274" s="9" t="n"/>
-      <c r="F274" s="9" t="n"/>
+      <c r="E274" s="4" t="n"/>
+      <c r="F274" s="4" t="n"/>
     </row>
     <row r="275">
-      <c r="E275" s="9" t="n"/>
-      <c r="F275" s="9" t="n"/>
+      <c r="E275" s="4" t="n"/>
+      <c r="F275" s="4" t="n"/>
     </row>
     <row r="276">
-      <c r="E276" s="9" t="n"/>
-      <c r="F276" s="9" t="n"/>
+      <c r="E276" s="4" t="n"/>
+      <c r="F276" s="4" t="n"/>
     </row>
     <row r="277">
-      <c r="E277" s="9" t="n"/>
-      <c r="F277" s="9" t="n"/>
+      <c r="E277" s="4" t="n"/>
+      <c r="F277" s="4" t="n"/>
     </row>
     <row r="278">
-      <c r="E278" s="9" t="n"/>
-      <c r="F278" s="9" t="n"/>
+      <c r="E278" s="4" t="n"/>
+      <c r="F278" s="4" t="n"/>
     </row>
     <row r="279">
-      <c r="E279" s="9" t="n"/>
-      <c r="F279" s="9" t="n"/>
+      <c r="E279" s="4" t="n"/>
+      <c r="F279" s="4" t="n"/>
     </row>
     <row r="280">
-      <c r="E280" s="9" t="n"/>
-      <c r="F280" s="9" t="n"/>
+      <c r="E280" s="4" t="n"/>
+      <c r="F280" s="4" t="n"/>
     </row>
     <row r="281">
-      <c r="E281" s="9" t="n"/>
-      <c r="F281" s="9" t="n"/>
+      <c r="E281" s="4" t="n"/>
+      <c r="F281" s="4" t="n"/>
     </row>
     <row r="282">
-      <c r="E282" s="9" t="n"/>
-      <c r="F282" s="9" t="n"/>
+      <c r="E282" s="4" t="n"/>
+      <c r="F282" s="4" t="n"/>
     </row>
     <row r="283">
-      <c r="E283" s="9" t="n"/>
-      <c r="F283" s="9" t="n"/>
+      <c r="E283" s="4" t="n"/>
+      <c r="F283" s="4" t="n"/>
     </row>
     <row r="284">
-      <c r="E284" s="9" t="n"/>
-      <c r="F284" s="9" t="n"/>
+      <c r="E284" s="4" t="n"/>
+      <c r="F284" s="4" t="n"/>
     </row>
     <row r="285">
-      <c r="E285" s="9" t="n"/>
-      <c r="F285" s="9" t="n"/>
+      <c r="E285" s="4" t="n"/>
+      <c r="F285" s="4" t="n"/>
     </row>
     <row r="286">
-      <c r="E286" s="9" t="n"/>
-      <c r="F286" s="9" t="n"/>
+      <c r="E286" s="4" t="n"/>
+      <c r="F286" s="4" t="n"/>
     </row>
     <row r="287">
-      <c r="E287" s="9" t="n"/>
-      <c r="F287" s="9" t="n"/>
+      <c r="E287" s="4" t="n"/>
+      <c r="F287" s="4" t="n"/>
     </row>
     <row r="288">
-      <c r="E288" s="9" t="n"/>
-      <c r="F288" s="9" t="n"/>
+      <c r="E288" s="4" t="n"/>
+      <c r="F288" s="4" t="n"/>
     </row>
     <row r="289">
-      <c r="E289" s="9" t="n"/>
-      <c r="F289" s="9" t="n"/>
+      <c r="E289" s="4" t="n"/>
+      <c r="F289" s="4" t="n"/>
     </row>
     <row r="290">
-      <c r="E290" s="9" t="n"/>
-      <c r="F290" s="9" t="n"/>
+      <c r="E290" s="4" t="n"/>
+      <c r="F290" s="4" t="n"/>
     </row>
     <row r="291">
-      <c r="E291" s="9" t="n"/>
-      <c r="F291" s="9" t="n"/>
+      <c r="E291" s="4" t="n"/>
+      <c r="F291" s="4" t="n"/>
     </row>
     <row r="292">
-      <c r="E292" s="9" t="n"/>
-      <c r="F292" s="9" t="n"/>
+      <c r="E292" s="4" t="n"/>
+      <c r="F292" s="4" t="n"/>
     </row>
     <row r="293">
-      <c r="E293" s="9" t="n"/>
-      <c r="F293" s="9" t="n"/>
+      <c r="E293" s="4" t="n"/>
+      <c r="F293" s="4" t="n"/>
     </row>
     <row r="294">
-      <c r="E294" s="9" t="n"/>
-      <c r="F294" s="9" t="n"/>
+      <c r="E294" s="4" t="n"/>
+      <c r="F294" s="4" t="n"/>
     </row>
     <row r="295">
-      <c r="E295" s="9" t="n"/>
-      <c r="F295" s="9" t="n"/>
+      <c r="E295" s="4" t="n"/>
+      <c r="F295" s="4" t="n"/>
     </row>
     <row r="296">
-      <c r="E296" s="9" t="n"/>
-      <c r="F296" s="9" t="n"/>
+      <c r="E296" s="4" t="n"/>
+      <c r="F296" s="4" t="n"/>
     </row>
     <row r="297">
-      <c r="E297" s="9" t="n"/>
-      <c r="F297" s="9" t="n"/>
+      <c r="E297" s="4" t="n"/>
+      <c r="F297" s="4" t="n"/>
     </row>
     <row r="298">
-      <c r="E298" s="9" t="n"/>
-      <c r="F298" s="9" t="n"/>
+      <c r="E298" s="4" t="n"/>
+      <c r="F298" s="4" t="n"/>
     </row>
     <row r="299">
-      <c r="E299" s="9" t="n"/>
-      <c r="F299" s="9" t="n"/>
+      <c r="E299" s="4" t="n"/>
+      <c r="F299" s="4" t="n"/>
     </row>
     <row r="300">
-      <c r="E300" s="9" t="n"/>
-      <c r="F300" s="9" t="n"/>
+      <c r="E300" s="4" t="n"/>
+      <c r="F300" s="4" t="n"/>
     </row>
     <row r="301">
-      <c r="E301" s="9" t="n"/>
-      <c r="F301" s="9" t="n"/>
+      <c r="E301" s="4" t="n"/>
+      <c r="F301" s="4" t="n"/>
     </row>
     <row r="302">
-      <c r="E302" s="9" t="n"/>
-      <c r="F302" s="9" t="n"/>
+      <c r="E302" s="4" t="n"/>
+      <c r="F302" s="4" t="n"/>
     </row>
     <row r="303">
-      <c r="E303" s="9" t="n"/>
-      <c r="F303" s="9" t="n"/>
+      <c r="E303" s="4" t="n"/>
+      <c r="F303" s="4" t="n"/>
     </row>
     <row r="304">
-      <c r="E304" s="9" t="n"/>
-      <c r="F304" s="9" t="n"/>
+      <c r="E304" s="4" t="n"/>
+      <c r="F304" s="4" t="n"/>
     </row>
     <row r="305">
-      <c r="E305" s="9" t="n"/>
-      <c r="F305" s="9" t="n"/>
+      <c r="E305" s="4" t="n"/>
+      <c r="F305" s="4" t="n"/>
     </row>
     <row r="306">
-      <c r="E306" s="9" t="n"/>
-      <c r="F306" s="9" t="n"/>
+      <c r="E306" s="4" t="n"/>
+      <c r="F306" s="4" t="n"/>
     </row>
     <row r="307">
-      <c r="E307" s="9" t="n"/>
-      <c r="F307" s="9" t="n"/>
+      <c r="E307" s="4" t="n"/>
+      <c r="F307" s="4" t="n"/>
     </row>
     <row r="308">
-      <c r="E308" s="9" t="n"/>
-      <c r="F308" s="9" t="n"/>
+      <c r="E308" s="4" t="n"/>
+      <c r="F308" s="4" t="n"/>
     </row>
     <row r="309">
-      <c r="E309" s="9" t="n"/>
-      <c r="F309" s="9" t="n"/>
+      <c r="E309" s="4" t="n"/>
+      <c r="F309" s="4" t="n"/>
     </row>
     <row r="310">
-      <c r="E310" s="9" t="n"/>
-      <c r="F310" s="9" t="n"/>
+      <c r="E310" s="4" t="n"/>
+      <c r="F310" s="4" t="n"/>
     </row>
     <row r="311">
-      <c r="E311" s="9" t="n"/>
-      <c r="F311" s="9" t="n"/>
+      <c r="E311" s="4" t="n"/>
+      <c r="F311" s="4" t="n"/>
     </row>
     <row r="312">
-      <c r="E312" s="9" t="n"/>
-      <c r="F312" s="9" t="n"/>
+      <c r="E312" s="4" t="n"/>
+      <c r="F312" s="4" t="n"/>
     </row>
     <row r="313">
-      <c r="E313" s="9" t="n"/>
-      <c r="F313" s="9" t="n"/>
+      <c r="E313" s="4" t="n"/>
+      <c r="F313" s="4" t="n"/>
     </row>
     <row r="314">
-      <c r="E314" s="9" t="n"/>
-      <c r="F314" s="9" t="n"/>
+      <c r="E314" s="4" t="n"/>
+      <c r="F314" s="4" t="n"/>
     </row>
     <row r="315">
-      <c r="E315" s="9" t="n"/>
-      <c r="F315" s="9" t="n"/>
+      <c r="E315" s="4" t="n"/>
+      <c r="F315" s="4" t="n"/>
     </row>
     <row r="316">
-      <c r="E316" s="9" t="n"/>
-      <c r="F316" s="9" t="n"/>
+      <c r="E316" s="4" t="n"/>
+      <c r="F316" s="4" t="n"/>
     </row>
     <row r="317">
-      <c r="E317" s="9" t="n"/>
-      <c r="F317" s="9" t="n"/>
+      <c r="E317" s="4" t="n"/>
+      <c r="F317" s="4" t="n"/>
     </row>
     <row r="318">
-      <c r="E318" s="9" t="n"/>
-      <c r="F318" s="9" t="n"/>
+      <c r="E318" s="4" t="n"/>
+      <c r="F318" s="4" t="n"/>
     </row>
     <row r="319">
-      <c r="E319" s="9" t="n"/>
-      <c r="F319" s="9" t="n"/>
+      <c r="E319" s="4" t="n"/>
+      <c r="F319" s="4" t="n"/>
     </row>
     <row r="320">
-      <c r="E320" s="9" t="n"/>
-      <c r="F320" s="9" t="n"/>
+      <c r="E320" s="4" t="n"/>
+      <c r="F320" s="4" t="n"/>
     </row>
     <row r="321">
-      <c r="E321" s="9" t="n"/>
-      <c r="F321" s="9" t="n"/>
+      <c r="E321" s="4" t="n"/>
+      <c r="F321" s="4" t="n"/>
     </row>
     <row r="322">
-      <c r="E322" s="9" t="n"/>
-      <c r="F322" s="9" t="n"/>
+      <c r="E322" s="4" t="n"/>
+      <c r="F322" s="4" t="n"/>
     </row>
     <row r="323">
-      <c r="E323" s="9" t="n"/>
-      <c r="F323" s="9" t="n"/>
+      <c r="E323" s="4" t="n"/>
+      <c r="F323" s="4" t="n"/>
     </row>
     <row r="324">
-      <c r="E324" s="9" t="n"/>
-      <c r="F324" s="9" t="n"/>
+      <c r="E324" s="4" t="n"/>
+      <c r="F324" s="4" t="n"/>
     </row>
     <row r="325">
-      <c r="E325" s="9" t="n"/>
-      <c r="F325" s="9" t="n"/>
+      <c r="E325" s="4" t="n"/>
+      <c r="F325" s="4" t="n"/>
     </row>
     <row r="326">
-      <c r="E326" s="9" t="n"/>
-      <c r="F326" s="9" t="n"/>
+      <c r="E326" s="4" t="n"/>
+      <c r="F326" s="4" t="n"/>
     </row>
     <row r="327">
-      <c r="E327" s="9" t="n"/>
-      <c r="F327" s="9" t="n"/>
+      <c r="E327" s="4" t="n"/>
+      <c r="F327" s="4" t="n"/>
     </row>
     <row r="328">
-      <c r="E328" s="9" t="n"/>
-      <c r="F328" s="9" t="n"/>
+      <c r="E328" s="4" t="n"/>
+      <c r="F328" s="4" t="n"/>
     </row>
     <row r="329">
-      <c r="E329" s="9" t="n"/>
-      <c r="F329" s="9" t="n"/>
+      <c r="E329" s="4" t="n"/>
+      <c r="F329" s="4" t="n"/>
     </row>
     <row r="330">
-      <c r="E330" s="9" t="n"/>
-      <c r="F330" s="9" t="n"/>
+      <c r="E330" s="4" t="n"/>
+      <c r="F330" s="4" t="n"/>
     </row>
     <row r="331">
-      <c r="E331" s="9" t="n"/>
-      <c r="F331" s="9" t="n"/>
+      <c r="E331" s="4" t="n"/>
+      <c r="F331" s="4" t="n"/>
     </row>
     <row r="332">
-      <c r="E332" s="9" t="n"/>
-      <c r="F332" s="9" t="n"/>
+      <c r="E332" s="4" t="n"/>
+      <c r="F332" s="4" t="n"/>
     </row>
     <row r="333">
-      <c r="E333" s="9" t="n"/>
-      <c r="F333" s="9" t="n"/>
+      <c r="E333" s="4" t="n"/>
+      <c r="F333" s="4" t="n"/>
     </row>
     <row r="334">
-      <c r="E334" s="9" t="n"/>
-      <c r="F334" s="9" t="n"/>
+      <c r="E334" s="4" t="n"/>
+      <c r="F334" s="4" t="n"/>
     </row>
     <row r="335">
-      <c r="E335" s="9" t="n"/>
-      <c r="F335" s="9" t="n"/>
+      <c r="E335" s="4" t="n"/>
+      <c r="F335" s="4" t="n"/>
     </row>
     <row r="336">
-      <c r="E336" s="9" t="n"/>
-      <c r="F336" s="9" t="n"/>
+      <c r="E336" s="4" t="n"/>
+      <c r="F336" s="4" t="n"/>
     </row>
     <row r="337">
-      <c r="E337" s="9" t="n"/>
-      <c r="F337" s="9" t="n"/>
+      <c r="E337" s="4" t="n"/>
+      <c r="F337" s="4" t="n"/>
     </row>
     <row r="338">
-      <c r="E338" s="9" t="n"/>
-      <c r="F338" s="9" t="n"/>
+      <c r="E338" s="4" t="n"/>
+      <c r="F338" s="4" t="n"/>
     </row>
     <row r="339">
-      <c r="E339" s="9" t="n"/>
-      <c r="F339" s="9" t="n"/>
+      <c r="E339" s="4" t="n"/>
+      <c r="F339" s="4" t="n"/>
     </row>
     <row r="340">
-      <c r="E340" s="9" t="n"/>
-      <c r="F340" s="9" t="n"/>
+      <c r="E340" s="4" t="n"/>
+      <c r="F340" s="4" t="n"/>
     </row>
     <row r="341">
-      <c r="E341" s="9" t="n"/>
-      <c r="F341" s="9" t="n"/>
+      <c r="E341" s="4" t="n"/>
+      <c r="F341" s="4" t="n"/>
     </row>
     <row r="342">
-      <c r="E342" s="9" t="n"/>
-      <c r="F342" s="9" t="n"/>
+      <c r="E342" s="4" t="n"/>
+      <c r="F342" s="4" t="n"/>
     </row>
     <row r="343">
-      <c r="E343" s="9" t="n"/>
-      <c r="F343" s="9" t="n"/>
+      <c r="E343" s="4" t="n"/>
+      <c r="F343" s="4" t="n"/>
     </row>
     <row r="344">
-      <c r="E344" s="9" t="n"/>
-      <c r="F344" s="9" t="n"/>
+      <c r="E344" s="4" t="n"/>
+      <c r="F344" s="4" t="n"/>
     </row>
     <row r="345">
-      <c r="E345" s="9" t="n"/>
-      <c r="F345" s="9" t="n"/>
+      <c r="E345" s="4" t="n"/>
+      <c r="F345" s="4" t="n"/>
     </row>
     <row r="346">
-      <c r="E346" s="9" t="n"/>
-      <c r="F346" s="9" t="n"/>
+      <c r="E346" s="4" t="n"/>
+      <c r="F346" s="4" t="n"/>
     </row>
     <row r="347">
-      <c r="E347" s="9" t="n"/>
-      <c r="F347" s="9" t="n"/>
+      <c r="E347" s="4" t="n"/>
+      <c r="F347" s="4" t="n"/>
     </row>
     <row r="348">
-      <c r="E348" s="9" t="n"/>
-      <c r="F348" s="9" t="n"/>
+      <c r="E348" s="4" t="n"/>
+      <c r="F348" s="4" t="n"/>
     </row>
     <row r="349">
-      <c r="E349" s="9" t="n"/>
-      <c r="F349" s="9" t="n"/>
+      <c r="E349" s="4" t="n"/>
+      <c r="F349" s="4" t="n"/>
     </row>
     <row r="350">
-      <c r="E350" s="9" t="n"/>
-      <c r="F350" s="9" t="n"/>
+      <c r="E350" s="4" t="n"/>
+      <c r="F350" s="4" t="n"/>
     </row>
     <row r="351">
-      <c r="E351" s="9" t="n"/>
-      <c r="F351" s="9" t="n"/>
+      <c r="E351" s="4" t="n"/>
+      <c r="F351" s="4" t="n"/>
     </row>
     <row r="352">
-      <c r="E352" s="9" t="n"/>
-      <c r="F352" s="9" t="n"/>
+      <c r="E352" s="4" t="n"/>
+      <c r="F352" s="4" t="n"/>
     </row>
     <row r="353">
-      <c r="E353" s="9" t="n"/>
-      <c r="F353" s="9" t="n"/>
+      <c r="E353" s="4" t="n"/>
+      <c r="F353" s="4" t="n"/>
     </row>
     <row r="354">
-      <c r="E354" s="9" t="n"/>
-      <c r="F354" s="9" t="n"/>
+      <c r="E354" s="4" t="n"/>
+      <c r="F354" s="4" t="n"/>
     </row>
     <row r="355">
-      <c r="E355" s="9" t="n"/>
-      <c r="F355" s="9" t="n"/>
+      <c r="E355" s="4" t="n"/>
+      <c r="F355" s="4" t="n"/>
     </row>
     <row r="356">
-      <c r="E356" s="9" t="n"/>
-      <c r="F356" s="9" t="n"/>
+      <c r="E356" s="4" t="n"/>
+      <c r="F356" s="4" t="n"/>
     </row>
     <row r="357">
-      <c r="E357" s="9" t="n"/>
-      <c r="F357" s="9" t="n"/>
+      <c r="E357" s="4" t="n"/>
+      <c r="F357" s="4" t="n"/>
     </row>
     <row r="358">
-      <c r="E358" s="9" t="n"/>
-      <c r="F358" s="9" t="n"/>
+      <c r="E358" s="4" t="n"/>
+      <c r="F358" s="4" t="n"/>
     </row>
     <row r="359">
-      <c r="E359" s="9" t="n"/>
-      <c r="F359" s="9" t="n"/>
+      <c r="E359" s="4" t="n"/>
+      <c r="F359" s="4" t="n"/>
     </row>
     <row r="360">
-      <c r="E360" s="9" t="n"/>
-      <c r="F360" s="9" t="n"/>
+      <c r="E360" s="4" t="n"/>
+      <c r="F360" s="4" t="n"/>
     </row>
     <row r="361">
-      <c r="E361" s="9" t="n"/>
-      <c r="F361" s="9" t="n"/>
+      <c r="E361" s="4" t="n"/>
+      <c r="F361" s="4" t="n"/>
     </row>
     <row r="362">
-      <c r="E362" s="9" t="n"/>
-      <c r="F362" s="9" t="n"/>
+      <c r="E362" s="4" t="n"/>
+      <c r="F362" s="4" t="n"/>
     </row>
     <row r="363">
-      <c r="E363" s="9" t="n"/>
-      <c r="F363" s="9" t="n"/>
+      <c r="E363" s="4" t="n"/>
+      <c r="F363" s="4" t="n"/>
     </row>
     <row r="364">
-      <c r="E364" s="9" t="n"/>
-      <c r="F364" s="9" t="n"/>
+      <c r="E364" s="4" t="n"/>
+      <c r="F364" s="4" t="n"/>
     </row>
     <row r="365">
-      <c r="E365" s="9" t="n"/>
-      <c r="F365" s="9" t="n"/>
+      <c r="E365" s="4" t="n"/>
+      <c r="F365" s="4" t="n"/>
     </row>
     <row r="366">
-      <c r="E366" s="9" t="n"/>
-      <c r="F366" s="9" t="n"/>
+      <c r="E366" s="4" t="n"/>
+      <c r="F366" s="4" t="n"/>
     </row>
     <row r="367">
-      <c r="E367" s="9" t="n"/>
-      <c r="F367" s="9" t="n"/>
+      <c r="E367" s="4" t="n"/>
+      <c r="F367" s="4" t="n"/>
     </row>
     <row r="368">
-      <c r="E368" s="9" t="n"/>
-      <c r="F368" s="9" t="n"/>
+      <c r="E368" s="4" t="n"/>
+      <c r="F368" s="4" t="n"/>
     </row>
     <row r="369">
-      <c r="E369" s="9" t="n"/>
-      <c r="F369" s="9" t="n"/>
+      <c r="E369" s="4" t="n"/>
+      <c r="F369" s="4" t="n"/>
     </row>
     <row r="370">
-      <c r="E370" s="9" t="n"/>
-      <c r="F370" s="9" t="n"/>
+      <c r="E370" s="4" t="n"/>
+      <c r="F370" s="4" t="n"/>
     </row>
     <row r="371">
-      <c r="E371" s="9" t="n"/>
-      <c r="F371" s="9" t="n"/>
+      <c r="E371" s="4" t="n"/>
+      <c r="F371" s="4" t="n"/>
     </row>
     <row r="372">
-      <c r="E372" s="9" t="n"/>
-      <c r="F372" s="9" t="n"/>
+      <c r="E372" s="4" t="n"/>
+      <c r="F372" s="4" t="n"/>
     </row>
     <row r="373">
-      <c r="E373" s="9" t="n"/>
-      <c r="F373" s="9" t="n"/>
+      <c r="E373" s="4" t="n"/>
+      <c r="F373" s="4" t="n"/>
     </row>
     <row r="374">
-      <c r="E374" s="9" t="n"/>
-      <c r="F374" s="9" t="n"/>
+      <c r="E374" s="4" t="n"/>
+      <c r="F374" s="4" t="n"/>
     </row>
     <row r="375">
-      <c r="E375" s="9" t="n"/>
-      <c r="F375" s="9" t="n"/>
+      <c r="E375" s="4" t="n"/>
+      <c r="F375" s="4" t="n"/>
     </row>
     <row r="376">
-      <c r="E376" s="9" t="n"/>
-      <c r="F376" s="9" t="n"/>
+      <c r="E376" s="4" t="n"/>
+      <c r="F376" s="4" t="n"/>
     </row>
     <row r="377">
-      <c r="E377" s="9" t="n"/>
-      <c r="F377" s="9" t="n"/>
+      <c r="E377" s="4" t="n"/>
+      <c r="F377" s="4" t="n"/>
     </row>
     <row r="378">
-      <c r="E378" s="9" t="n"/>
-      <c r="F378" s="9" t="n"/>
+      <c r="E378" s="4" t="n"/>
+      <c r="F378" s="4" t="n"/>
     </row>
     <row r="379">
-      <c r="E379" s="9" t="n"/>
-      <c r="F379" s="9" t="n"/>
+      <c r="E379" s="4" t="n"/>
+      <c r="F379" s="4" t="n"/>
     </row>
     <row r="380">
-      <c r="E380" s="9" t="n"/>
-      <c r="F380" s="9" t="n"/>
+      <c r="E380" s="4" t="n"/>
+      <c r="F380" s="4" t="n"/>
     </row>
     <row r="381">
-      <c r="E381" s="9" t="n"/>
-      <c r="F381" s="9" t="n"/>
+      <c r="E381" s="4" t="n"/>
+      <c r="F381" s="4" t="n"/>
     </row>
     <row r="382">
-      <c r="E382" s="9" t="n"/>
-      <c r="F382" s="9" t="n"/>
+      <c r="E382" s="4" t="n"/>
+      <c r="F382" s="4" t="n"/>
     </row>
     <row r="383">
-      <c r="E383" s="9" t="n"/>
-      <c r="F383" s="9" t="n"/>
+      <c r="E383" s="4" t="n"/>
+      <c r="F383" s="4" t="n"/>
     </row>
     <row r="384">
-      <c r="E384" s="9" t="n"/>
-      <c r="F384" s="9" t="n"/>
+      <c r="E384" s="4" t="n"/>
+      <c r="F384" s="4" t="n"/>
     </row>
     <row r="385">
-      <c r="E385" s="9" t="n"/>
-      <c r="F385" s="9" t="n"/>
+      <c r="E385" s="4" t="n"/>
+      <c r="F385" s="4" t="n"/>
     </row>
     <row r="386">
-      <c r="E386" s="9" t="n"/>
-      <c r="F386" s="9" t="n"/>
+      <c r="E386" s="4" t="n"/>
+      <c r="F386" s="4" t="n"/>
     </row>
     <row r="387">
-      <c r="E387" s="9" t="n"/>
-      <c r="F387" s="9" t="n"/>
+      <c r="E387" s="4" t="n"/>
+      <c r="F387" s="4" t="n"/>
     </row>
     <row r="388">
-      <c r="E388" s="9" t="n"/>
-      <c r="F388" s="9" t="n"/>
+      <c r="E388" s="4" t="n"/>
+      <c r="F388" s="4" t="n"/>
     </row>
     <row r="389">
-      <c r="E389" s="9" t="n"/>
-      <c r="F389" s="9" t="n"/>
+      <c r="E389" s="4" t="n"/>
+      <c r="F389" s="4" t="n"/>
     </row>
     <row r="390">
-      <c r="E390" s="9" t="n"/>
-      <c r="F390" s="9" t="n"/>
+      <c r="E390" s="4" t="n"/>
+      <c r="F390" s="4" t="n"/>
     </row>
     <row r="391">
-      <c r="E391" s="9" t="n"/>
-      <c r="F391" s="9" t="n"/>
+      <c r="E391" s="4" t="n"/>
+      <c r="F391" s="4" t="n"/>
     </row>
     <row r="392">
-      <c r="E392" s="9" t="n"/>
-      <c r="F392" s="9" t="n"/>
+      <c r="E392" s="4" t="n"/>
+      <c r="F392" s="4" t="n"/>
     </row>
     <row r="393">
-      <c r="E393" s="9" t="n"/>
-      <c r="F393" s="9" t="n"/>
+      <c r="E393" s="4" t="n"/>
+      <c r="F393" s="4" t="n"/>
     </row>
     <row r="394">
-      <c r="E394" s="9" t="n"/>
-      <c r="F394" s="9" t="n"/>
+      <c r="E394" s="4" t="n"/>
+      <c r="F394" s="4" t="n"/>
     </row>
     <row r="395">
-      <c r="E395" s="9" t="n"/>
-      <c r="F395" s="9" t="n"/>
+      <c r="E395" s="4" t="n"/>
+      <c r="F395" s="4" t="n"/>
     </row>
     <row r="396">
-      <c r="E396" s="9" t="n"/>
-      <c r="F396" s="9" t="n"/>
+      <c r="E396" s="4" t="n"/>
+      <c r="F396" s="4" t="n"/>
     </row>
     <row r="397">
-      <c r="E397" s="9" t="n"/>
-      <c r="F397" s="9" t="n"/>
+      <c r="E397" s="4" t="n"/>
+      <c r="F397" s="4" t="n"/>
     </row>
     <row r="398">
-      <c r="E398" s="9" t="n"/>
-      <c r="F398" s="9" t="n"/>
+      <c r="E398" s="4" t="n"/>
+      <c r="F398" s="4" t="n"/>
     </row>
     <row r="399">
-      <c r="E399" s="9" t="n"/>
-      <c r="F399" s="9" t="n"/>
+      <c r="E399" s="4" t="n"/>
+      <c r="F399" s="4" t="n"/>
     </row>
     <row r="400">
-      <c r="E400" s="9" t="n"/>
-      <c r="F400" s="9" t="n"/>
+      <c r="E400" s="4" t="n"/>
+      <c r="F400" s="4" t="n"/>
     </row>
     <row r="401">
-      <c r="E401" s="9" t="n"/>
-      <c r="F401" s="9" t="n"/>
+      <c r="E401" s="4" t="n"/>
+      <c r="F401" s="4" t="n"/>
     </row>
     <row r="402">
-      <c r="E402" s="9" t="n"/>
-      <c r="F402" s="9" t="n"/>
+      <c r="E402" s="4" t="n"/>
+      <c r="F402" s="4" t="n"/>
     </row>
     <row r="403">
-      <c r="E403" s="9" t="n"/>
-      <c r="F403" s="9" t="n"/>
+      <c r="E403" s="4" t="n"/>
+      <c r="F403" s="4" t="n"/>
     </row>
     <row r="404">
-      <c r="E404" s="9" t="n"/>
-      <c r="F404" s="9" t="n"/>
+      <c r="E404" s="4" t="n"/>
+      <c r="F404" s="4" t="n"/>
     </row>
     <row r="405">
-      <c r="E405" s="9" t="n"/>
-      <c r="F405" s="9" t="n"/>
+      <c r="E405" s="4" t="n"/>
+      <c r="F405" s="4" t="n"/>
     </row>
     <row r="406">
-      <c r="E406" s="9" t="n"/>
-      <c r="F406" s="9" t="n"/>
+      <c r="E406" s="4" t="n"/>
+      <c r="F406" s="4" t="n"/>
     </row>
     <row r="407">
-      <c r="E407" s="9" t="n"/>
-      <c r="F407" s="9" t="n"/>
+      <c r="E407" s="4" t="n"/>
+      <c r="F407" s="4" t="n"/>
     </row>
     <row r="408">
-      <c r="E408" s="9" t="n"/>
-      <c r="F408" s="9" t="n"/>
+      <c r="E408" s="4" t="n"/>
+      <c r="F408" s="4" t="n"/>
     </row>
     <row r="409">
-      <c r="E409" s="9" t="n"/>
-      <c r="F409" s="9" t="n"/>
+      <c r="E409" s="4" t="n"/>
+      <c r="F409" s="4" t="n"/>
     </row>
     <row r="410">
-      <c r="E410" s="9" t="n"/>
-      <c r="F410" s="9" t="n"/>
+      <c r="E410" s="4" t="n"/>
+      <c r="F410" s="4" t="n"/>
     </row>
     <row r="411">
-      <c r="E411" s="9" t="n"/>
-      <c r="F411" s="9" t="n"/>
+      <c r="E411" s="4" t="n"/>
+      <c r="F411" s="4" t="n"/>
     </row>
     <row r="412">
-      <c r="E412" s="9" t="n"/>
-      <c r="F412" s="9" t="n"/>
+      <c r="E412" s="4" t="n"/>
+      <c r="F412" s="4" t="n"/>
     </row>
     <row r="413">
-      <c r="E413" s="9" t="n"/>
-      <c r="F413" s="9" t="n"/>
+      <c r="E413" s="4" t="n"/>
+      <c r="F413" s="4" t="n"/>
     </row>
     <row r="414">
-      <c r="E414" s="9" t="n"/>
-      <c r="F414" s="9" t="n"/>
+      <c r="E414" s="4" t="n"/>
+      <c r="F414" s="4" t="n"/>
     </row>
     <row r="415">
-      <c r="E415" s="9" t="n"/>
-      <c r="F415" s="9" t="n"/>
+      <c r="E415" s="4" t="n"/>
+      <c r="F415" s="4" t="n"/>
     </row>
     <row r="416">
-      <c r="E416" s="9" t="n"/>
-      <c r="F416" s="9" t="n"/>
+      <c r="E416" s="4" t="n"/>
+      <c r="F416" s="4" t="n"/>
     </row>
     <row r="417">
-      <c r="E417" s="9" t="n"/>
-      <c r="F417" s="9" t="n"/>
+      <c r="E417" s="4" t="n"/>
+      <c r="F417" s="4" t="n"/>
     </row>
     <row r="418">
-      <c r="E418" s="9" t="n"/>
-      <c r="F418" s="9" t="n"/>
+      <c r="E418" s="4" t="n"/>
+      <c r="F418" s="4" t="n"/>
     </row>
     <row r="419">
-      <c r="E419" s="9" t="n"/>
-      <c r="F419" s="9" t="n"/>
+      <c r="E419" s="4" t="n"/>
+      <c r="F419" s="4" t="n"/>
     </row>
     <row r="420">
-      <c r="E420" s="9" t="n"/>
-      <c r="F420" s="9" t="n"/>
+      <c r="E420" s="4" t="n"/>
+      <c r="F420" s="4" t="n"/>
     </row>
     <row r="421">
-      <c r="E421" s="9" t="n"/>
-      <c r="F421" s="9" t="n"/>
+      <c r="E421" s="4" t="n"/>
+      <c r="F421" s="4" t="n"/>
     </row>
     <row r="422">
-      <c r="E422" s="9" t="n"/>
-      <c r="F422" s="9" t="n"/>
+      <c r="E422" s="4" t="n"/>
+      <c r="F422" s="4" t="n"/>
     </row>
     <row r="423">
-      <c r="E423" s="9" t="n"/>
-      <c r="F423" s="9" t="n"/>
+      <c r="E423" s="4" t="n"/>
+      <c r="F423" s="4" t="n"/>
     </row>
     <row r="424">
-      <c r="E424" s="9" t="n"/>
-      <c r="F424" s="9" t="n"/>
+      <c r="E424" s="4" t="n"/>
+      <c r="F424" s="4" t="n"/>
     </row>
     <row r="425">
-      <c r="E425" s="9" t="n"/>
-      <c r="F425" s="9" t="n"/>
+      <c r="E425" s="4" t="n"/>
+      <c r="F425" s="4" t="n"/>
     </row>
     <row r="426">
-      <c r="E426" s="9" t="n"/>
-      <c r="F426" s="9" t="n"/>
+      <c r="E426" s="4" t="n"/>
+      <c r="F426" s="4" t="n"/>
     </row>
     <row r="427">
-      <c r="E427" s="9" t="n"/>
-      <c r="F427" s="9" t="n"/>
+      <c r="E427" s="4" t="n"/>
+      <c r="F427" s="4" t="n"/>
     </row>
     <row r="428">
-      <c r="E428" s="9" t="n"/>
-      <c r="F428" s="9" t="n"/>
+      <c r="E428" s="4" t="n"/>
+      <c r="F428" s="4" t="n"/>
     </row>
     <row r="429">
-      <c r="E429" s="9" t="n"/>
-      <c r="F429" s="9" t="n"/>
+      <c r="E429" s="4" t="n"/>
+      <c r="F429" s="4" t="n"/>
     </row>
     <row r="430">
-      <c r="E430" s="9" t="n"/>
-      <c r="F430" s="9" t="n"/>
+      <c r="E430" s="4" t="n"/>
+      <c r="F430" s="4" t="n"/>
     </row>
     <row r="431">
-      <c r="E431" s="9" t="n"/>
-      <c r="F431" s="9" t="n"/>
+      <c r="E431" s="4" t="n"/>
+      <c r="F431" s="4" t="n"/>
     </row>
     <row r="432">
-      <c r="E432" s="9" t="n"/>
-      <c r="F432" s="9" t="n"/>
+      <c r="E432" s="4" t="n"/>
+      <c r="F432" s="4" t="n"/>
     </row>
     <row r="433">
-      <c r="E433" s="9" t="n"/>
-      <c r="F433" s="9" t="n"/>
+      <c r="E433" s="4" t="n"/>
+      <c r="F433" s="4" t="n"/>
     </row>
     <row r="434">
-      <c r="E434" s="9" t="n"/>
-      <c r="F434" s="9" t="n"/>
+      <c r="E434" s="4" t="n"/>
+      <c r="F434" s="4" t="n"/>
     </row>
     <row r="435">
-      <c r="E435" s="9" t="n"/>
-      <c r="F435" s="9" t="n"/>
+      <c r="E435" s="4" t="n"/>
+      <c r="F435" s="4" t="n"/>
     </row>
     <row r="436">
-      <c r="E436" s="9" t="n"/>
-      <c r="F436" s="9" t="n"/>
+      <c r="E436" s="4" t="n"/>
+      <c r="F436" s="4" t="n"/>
     </row>
     <row r="437">
-      <c r="E437" s="9" t="n"/>
-      <c r="F437" s="9" t="n"/>
+      <c r="E437" s="4" t="n"/>
+      <c r="F437" s="4" t="n"/>
     </row>
     <row r="438">
-      <c r="E438" s="9" t="n"/>
-      <c r="F438" s="9" t="n"/>
+      <c r="E438" s="4" t="n"/>
+      <c r="F438" s="4" t="n"/>
     </row>
     <row r="439">
-      <c r="E439" s="9" t="n"/>
-      <c r="F439" s="9" t="n"/>
+      <c r="E439" s="4" t="n"/>
+      <c r="F439" s="4" t="n"/>
     </row>
     <row r="440">
-      <c r="E440" s="9" t="n"/>
-      <c r="F440" s="9" t="n"/>
+      <c r="E440" s="4" t="n"/>
+      <c r="F440" s="4" t="n"/>
     </row>
     <row r="441">
-      <c r="E441" s="9" t="n"/>
-      <c r="F441" s="9" t="n"/>
+      <c r="E441" s="4" t="n"/>
+      <c r="F441" s="4" t="n"/>
     </row>
     <row r="442">
-      <c r="E442" s="9" t="n"/>
-      <c r="F442" s="9" t="n"/>
+      <c r="E442" s="4" t="n"/>
+      <c r="F442" s="4" t="n"/>
     </row>
     <row r="443">
-      <c r="E443" s="9" t="n"/>
-      <c r="F443" s="9" t="n"/>
+      <c r="E443" s="4" t="n"/>
+      <c r="F443" s="4" t="n"/>
     </row>
     <row r="444">
-      <c r="E444" s="9" t="n"/>
-      <c r="F444" s="9" t="n"/>
+      <c r="E444" s="4" t="n"/>
+      <c r="F444" s="4" t="n"/>
     </row>
     <row r="445">
-      <c r="E445" s="9" t="n"/>
-      <c r="F445" s="9" t="n"/>
+      <c r="E445" s="4" t="n"/>
+      <c r="F445" s="4" t="n"/>
     </row>
     <row r="446">
-      <c r="E446" s="9" t="n"/>
-      <c r="F446" s="9" t="n"/>
+      <c r="E446" s="4" t="n"/>
+      <c r="F446" s="4" t="n"/>
     </row>
     <row r="447">
-      <c r="E447" s="9" t="n"/>
-      <c r="F447" s="9" t="n"/>
+      <c r="E447" s="4" t="n"/>
+      <c r="F447" s="4" t="n"/>
     </row>
     <row r="448">
-      <c r="E448" s="9" t="n"/>
-      <c r="F448" s="9" t="n"/>
+      <c r="E448" s="4" t="n"/>
+      <c r="F448" s="4" t="n"/>
     </row>
     <row r="449">
-      <c r="E449" s="9" t="n"/>
-      <c r="F449" s="9" t="n"/>
+      <c r="E449" s="4" t="n"/>
+      <c r="F449" s="4" t="n"/>
     </row>
     <row r="450">
-      <c r="E450" s="9" t="n"/>
-      <c r="F450" s="9" t="n"/>
+      <c r="E450" s="4" t="n"/>
+      <c r="F450" s="4" t="n"/>
     </row>
     <row r="451">
-      <c r="E451" s="9" t="n"/>
-      <c r="F451" s="9" t="n"/>
+      <c r="E451" s="4" t="n"/>
+      <c r="F451" s="4" t="n"/>
     </row>
     <row r="452">
-      <c r="E452" s="9" t="n"/>
-      <c r="F452" s="9" t="n"/>
+      <c r="E452" s="4" t="n"/>
+      <c r="F452" s="4" t="n"/>
     </row>
     <row r="453">
-      <c r="E453" s="9" t="n"/>
-      <c r="F453" s="9" t="n"/>
+      <c r="E453" s="4" t="n"/>
+      <c r="F453" s="4" t="n"/>
     </row>
     <row r="454">
-      <c r="E454" s="9" t="n"/>
-      <c r="F454" s="9" t="n"/>
+      <c r="E454" s="4" t="n"/>
+      <c r="F454" s="4" t="n"/>
     </row>
     <row r="455">
-      <c r="E455" s="9" t="n"/>
-      <c r="F455" s="9" t="n"/>
+      <c r="E455" s="4" t="n"/>
+      <c r="F455" s="4" t="n"/>
     </row>
     <row r="456">
-      <c r="E456" s="9" t="n"/>
-      <c r="F456" s="9" t="n"/>
+      <c r="E456" s="4" t="n"/>
+      <c r="F456" s="4" t="n"/>
     </row>
     <row r="457">
-      <c r="E457" s="9" t="n"/>
-      <c r="F457" s="9" t="n"/>
+      <c r="E457" s="4" t="n"/>
+      <c r="F457" s="4" t="n"/>
     </row>
     <row r="458">
-      <c r="E458" s="9" t="n"/>
-      <c r="F458" s="9" t="n"/>
+      <c r="E458" s="4" t="n"/>
+      <c r="F458" s="4" t="n"/>
     </row>
     <row r="459">
-      <c r="E459" s="9" t="n"/>
-      <c r="F459" s="9" t="n"/>
+      <c r="E459" s="4" t="n"/>
+      <c r="F459" s="4" t="n"/>
     </row>
     <row r="460">
-      <c r="E460" s="9" t="n"/>
-      <c r="F460" s="9" t="n"/>
+      <c r="E460" s="4" t="n"/>
+      <c r="F460" s="4" t="n"/>
     </row>
     <row r="461">
-      <c r="E461" s="9" t="n"/>
-      <c r="F461" s="9" t="n"/>
+      <c r="E461" s="4" t="n"/>
+      <c r="F461" s="4" t="n"/>
     </row>
     <row r="462">
-      <c r="E462" s="9" t="n"/>
-      <c r="F462" s="9" t="n"/>
+      <c r="E462" s="4" t="n"/>
+      <c r="F462" s="4" t="n"/>
     </row>
     <row r="463">
-      <c r="E463" s="9" t="n"/>
-      <c r="F463" s="9" t="n"/>
+      <c r="E463" s="4" t="n"/>
+      <c r="F463" s="4" t="n"/>
     </row>
     <row r="464">
-      <c r="E464" s="9" t="n"/>
-      <c r="F464" s="9" t="n"/>
+      <c r="E464" s="4" t="n"/>
+      <c r="F464" s="4" t="n"/>
     </row>
     <row r="465">
-      <c r="E465" s="9" t="n"/>
-      <c r="F465" s="9" t="n"/>
+      <c r="E465" s="4" t="n"/>
+      <c r="F465" s="4" t="n"/>
     </row>
     <row r="466">
-      <c r="E466" s="9" t="n"/>
-      <c r="F466" s="9" t="n"/>
+      <c r="E466" s="4" t="n"/>
+      <c r="F466" s="4" t="n"/>
     </row>
     <row r="467">
-      <c r="E467" s="9" t="n"/>
-      <c r="F467" s="9" t="n"/>
+      <c r="E467" s="4" t="n"/>
+      <c r="F467" s="4" t="n"/>
     </row>
     <row r="468">
-      <c r="E468" s="9" t="n"/>
-      <c r="F468" s="9" t="n"/>
+      <c r="E468" s="4" t="n"/>
+      <c r="F468" s="4" t="n"/>
     </row>
     <row r="469">
-      <c r="E469" s="9" t="n"/>
-      <c r="F469" s="9" t="n"/>
+      <c r="E469" s="4" t="n"/>
+      <c r="F469" s="4" t="n"/>
     </row>
     <row r="470">
-      <c r="E470" s="9" t="n"/>
-      <c r="F470" s="9" t="n"/>
+      <c r="E470" s="4" t="n"/>
+      <c r="F470" s="4" t="n"/>
     </row>
     <row r="471">
-      <c r="E471" s="9" t="n"/>
-      <c r="F471" s="9" t="n"/>
+      <c r="E471" s="4" t="n"/>
+      <c r="F471" s="4" t="n"/>
     </row>
     <row r="472">
-      <c r="E472" s="9" t="n"/>
-      <c r="F472" s="9" t="n"/>
+      <c r="E472" s="4" t="n"/>
+      <c r="F472" s="4" t="n"/>
     </row>
     <row r="473">
-      <c r="E473" s="9" t="n"/>
-      <c r="F473" s="9" t="n"/>
+      <c r="E473" s="4" t="n"/>
+      <c r="F473" s="4" t="n"/>
     </row>
     <row r="474">
-      <c r="E474" s="9" t="n"/>
-      <c r="F474" s="9" t="n"/>
+      <c r="E474" s="4" t="n"/>
+      <c r="F474" s="4" t="n"/>
     </row>
     <row r="475">
-      <c r="E475" s="9" t="n"/>
-      <c r="F475" s="9" t="n"/>
+      <c r="E475" s="4" t="n"/>
+      <c r="F475" s="4" t="n"/>
     </row>
     <row r="476">
-      <c r="E476" s="9" t="n"/>
-      <c r="F476" s="9" t="n"/>
+      <c r="E476" s="4" t="n"/>
+      <c r="F476" s="4" t="n"/>
     </row>
     <row r="477">
-      <c r="E477" s="9" t="n"/>
-      <c r="F477" s="9" t="n"/>
+      <c r="E477" s="4" t="n"/>
+      <c r="F477" s="4" t="n"/>
     </row>
     <row r="478">
-      <c r="E478" s="9" t="n"/>
-      <c r="F478" s="9" t="n"/>
+      <c r="E478" s="4" t="n"/>
+      <c r="F478" s="4" t="n"/>
     </row>
     <row r="479">
-      <c r="E479" s="9" t="n"/>
-      <c r="F479" s="9" t="n"/>
+      <c r="E479" s="4" t="n"/>
+      <c r="F479" s="4" t="n"/>
     </row>
     <row r="480">
-      <c r="E480" s="9" t="n"/>
-      <c r="F480" s="9" t="n"/>
+      <c r="E480" s="4" t="n"/>
+      <c r="F480" s="4" t="n"/>
     </row>
     <row r="481">
-      <c r="E481" s="9" t="n"/>
-      <c r="F481" s="9" t="n"/>
+      <c r="E481" s="4" t="n"/>
+      <c r="F481" s="4" t="n"/>
     </row>
     <row r="482">
-      <c r="E482" s="9" t="n"/>
-      <c r="F482" s="9" t="n"/>
+      <c r="E482" s="4" t="n"/>
+      <c r="F482" s="4" t="n"/>
     </row>
     <row r="483">
-      <c r="E483" s="9" t="n"/>
-      <c r="F483" s="9" t="n"/>
+      <c r="E483" s="4" t="n"/>
+      <c r="F483" s="4" t="n"/>
     </row>
     <row r="484">
-      <c r="E484" s="9" t="n"/>
-      <c r="F484" s="9" t="n"/>
+      <c r="E484" s="4" t="n"/>
+      <c r="F484" s="4" t="n"/>
     </row>
     <row r="485">
-      <c r="E485" s="9" t="n"/>
-      <c r="F485" s="9" t="n"/>
+      <c r="E485" s="4" t="n"/>
+      <c r="F485" s="4" t="n"/>
     </row>
     <row r="486">
-      <c r="E486" s="9" t="n"/>
-      <c r="F486" s="9" t="n"/>
+      <c r="E486" s="4" t="n"/>
+      <c r="F486" s="4" t="n"/>
     </row>
     <row r="487">
-      <c r="E487" s="9" t="n"/>
-      <c r="F487" s="9" t="n"/>
+      <c r="E487" s="4" t="n"/>
+      <c r="F487" s="4" t="n"/>
     </row>
     <row r="488">
-      <c r="E488" s="9" t="n"/>
-      <c r="F488" s="9" t="n"/>
+      <c r="E488" s="4" t="n"/>
+      <c r="F488" s="4" t="n"/>
     </row>
     <row r="489">
-      <c r="E489" s="9" t="n"/>
-      <c r="F489" s="9" t="n"/>
+      <c r="E489" s="4" t="n"/>
+      <c r="F489" s="4" t="n"/>
     </row>
     <row r="490">
-      <c r="E490" s="9" t="n"/>
-      <c r="F490" s="9" t="n"/>
+      <c r="E490" s="4" t="n"/>
+      <c r="F490" s="4" t="n"/>
     </row>
     <row r="491">
-      <c r="E491" s="9" t="n"/>
-      <c r="F491" s="9" t="n"/>
+      <c r="E491" s="4" t="n"/>
+      <c r="F491" s="4" t="n"/>
     </row>
     <row r="492">
-      <c r="E492" s="9" t="n"/>
-      <c r="F492" s="9" t="n"/>
+      <c r="E492" s="4" t="n"/>
+      <c r="F492" s="4" t="n"/>
     </row>
     <row r="493">
-      <c r="E493" s="9" t="n"/>
-      <c r="F493" s="9" t="n"/>
+      <c r="E493" s="4" t="n"/>
+      <c r="F493" s="4" t="n"/>
     </row>
     <row r="494">
-      <c r="E494" s="9" t="n"/>
-      <c r="F494" s="9" t="n"/>
+      <c r="E494" s="4" t="n"/>
+      <c r="F494" s="4" t="n"/>
     </row>
     <row r="495">
-      <c r="E495" s="9" t="n"/>
-      <c r="F495" s="9" t="n"/>
+      <c r="E495" s="4" t="n"/>
+      <c r="F495" s="4" t="n"/>
     </row>
     <row r="496">
-      <c r="E496" s="9" t="n"/>
-      <c r="F496" s="9" t="n"/>
+      <c r="E496" s="4" t="n"/>
+      <c r="F496" s="4" t="n"/>
     </row>
     <row r="497">
-      <c r="E497" s="9" t="n"/>
-      <c r="F497" s="9" t="n"/>
+      <c r="E497" s="4" t="n"/>
+      <c r="F497" s="4" t="n"/>
     </row>
     <row r="498">
-      <c r="E498" s="9" t="n"/>
-      <c r="F498" s="9" t="n"/>
+      <c r="E498" s="4" t="n"/>
+      <c r="F498" s="4" t="n"/>
     </row>
     <row r="499">
-      <c r="E499" s="9" t="n"/>
-      <c r="F499" s="9" t="n"/>
+      <c r="E499" s="4" t="n"/>
+      <c r="F499" s="4" t="n"/>
     </row>
     <row r="500">
-      <c r="E500" s="9" t="n"/>
-      <c r="F500" s="9" t="n"/>
+      <c r="E500" s="4" t="n"/>
+      <c r="F500" s="4" t="n"/>
     </row>
     <row r="501">
-      <c r="E501" s="9" t="n"/>
-      <c r="F501" s="9" t="n"/>
+      <c r="E501" s="4" t="n"/>
+      <c r="F501" s="4" t="n"/>
     </row>
     <row r="502">
-      <c r="E502" s="9" t="n"/>
-      <c r="F502" s="9" t="n"/>
+      <c r="E502" s="4" t="n"/>
+      <c r="F502" s="4" t="n"/>
     </row>
     <row r="503">
-      <c r="E503" s="9" t="n"/>
-      <c r="F503" s="9" t="n"/>
+      <c r="E503" s="4" t="n"/>
+      <c r="F503" s="4" t="n"/>
     </row>
     <row r="504">
-      <c r="E504" s="9" t="n"/>
-      <c r="F504" s="9" t="n"/>
+      <c r="E504" s="4" t="n"/>
+      <c r="F504" s="4" t="n"/>
     </row>
     <row r="505">
-      <c r="E505" s="9" t="n"/>
-      <c r="F505" s="9" t="n"/>
+      <c r="E505" s="4" t="n"/>
+      <c r="F505" s="4" t="n"/>
     </row>
     <row r="506">
-      <c r="E506" s="9" t="n"/>
-      <c r="F506" s="9" t="n"/>
+      <c r="E506" s="4" t="n"/>
+      <c r="F506" s="4" t="n"/>
     </row>
     <row r="507">
-      <c r="E507" s="9" t="n"/>
-      <c r="F507" s="9" t="n"/>
+      <c r="E507" s="4" t="n"/>
+      <c r="F507" s="4" t="n"/>
     </row>
     <row r="508">
-      <c r="E508" s="9" t="n"/>
-      <c r="F508" s="9" t="n"/>
+      <c r="E508" s="4" t="n"/>
+      <c r="F508" s="4" t="n"/>
     </row>
     <row r="509">
-      <c r="E509" s="9" t="n"/>
-      <c r="F509" s="9" t="n"/>
+      <c r="E509" s="4" t="n"/>
+      <c r="F509" s="4" t="n"/>
     </row>
     <row r="510">
-      <c r="E510" s="9" t="n"/>
-      <c r="F510" s="9" t="n"/>
+      <c r="E510" s="4" t="n"/>
+      <c r="F510" s="4" t="n"/>
     </row>
     <row r="511">
-      <c r="E511" s="9" t="n"/>
-      <c r="F511" s="9" t="n"/>
+      <c r="E511" s="4" t="n"/>
+      <c r="F511" s="4" t="n"/>
     </row>
     <row r="512">
-      <c r="E512" s="9" t="n"/>
-      <c r="F512" s="9" t="n"/>
+      <c r="E512" s="4" t="n"/>
+      <c r="F512" s="4" t="n"/>
     </row>
     <row r="513">
-      <c r="E513" s="9" t="n"/>
-      <c r="F513" s="9" t="n"/>
+      <c r="E513" s="4" t="n"/>
+      <c r="F513" s="4" t="n"/>
     </row>
     <row r="514">
-      <c r="E514" s="9" t="n"/>
-      <c r="F514" s="9" t="n"/>
+      <c r="E514" s="4" t="n"/>
+      <c r="F514" s="4" t="n"/>
     </row>
     <row r="515">
-      <c r="E515" s="9" t="n"/>
-      <c r="F515" s="9" t="n"/>
+      <c r="E515" s="4" t="n"/>
+      <c r="F515" s="4" t="n"/>
     </row>
     <row r="516">
-      <c r="E516" s="9" t="n"/>
-      <c r="F516" s="9" t="n"/>
+      <c r="E516" s="4" t="n"/>
+      <c r="F516" s="4" t="n"/>
     </row>
     <row r="517">
-      <c r="E517" s="9" t="n"/>
-      <c r="F517" s="9" t="n"/>
+      <c r="E517" s="4" t="n"/>
+      <c r="F517" s="4" t="n"/>
     </row>
     <row r="518">
-      <c r="E518" s="9" t="n"/>
-      <c r="F518" s="9" t="n"/>
+      <c r="E518" s="4" t="n"/>
+      <c r="F518" s="4" t="n"/>
     </row>
     <row r="519">
-      <c r="E519" s="9" t="n"/>
-      <c r="F519" s="9" t="n"/>
+      <c r="E519" s="4" t="n"/>
+      <c r="F519" s="4" t="n"/>
     </row>
     <row r="520">
-      <c r="E520" s="9" t="n"/>
-      <c r="F520" s="9" t="n"/>
+      <c r="E520" s="4" t="n"/>
+      <c r="F520" s="4" t="n"/>
     </row>
     <row r="521">
-      <c r="E521" s="9" t="n"/>
-      <c r="F521" s="9" t="n"/>
+      <c r="E521" s="4" t="n"/>
+      <c r="F521" s="4" t="n"/>
     </row>
     <row r="522">
-      <c r="E522" s="9" t="n"/>
-      <c r="F522" s="9" t="n"/>
+      <c r="E522" s="4" t="n"/>
+      <c r="F522" s="4" t="n"/>
     </row>
     <row r="523">
-      <c r="E523" s="9" t="n"/>
-      <c r="F523" s="9" t="n"/>
+      <c r="E523" s="4" t="n"/>
+      <c r="F523" s="4" t="n"/>
     </row>
     <row r="524">
-      <c r="E524" s="9" t="n"/>
-      <c r="F524" s="9" t="n"/>
+      <c r="E524" s="4" t="n"/>
+      <c r="F524" s="4" t="n"/>
     </row>
     <row r="525">
-      <c r="E525" s="9" t="n"/>
-      <c r="F525" s="9" t="n"/>
+      <c r="E525" s="4" t="n"/>
+      <c r="F525" s="4" t="n"/>
     </row>
     <row r="526">
-      <c r="E526" s="9" t="n"/>
-      <c r="F526" s="9" t="n"/>
+      <c r="E526" s="4" t="n"/>
+      <c r="F526" s="4" t="n"/>
     </row>
     <row r="527">
-      <c r="E527" s="9" t="n"/>
-      <c r="F527" s="9" t="n"/>
+      <c r="E527" s="4" t="n"/>
+      <c r="F527" s="4" t="n"/>
     </row>
     <row r="528">
-      <c r="E528" s="9" t="n"/>
-      <c r="F528" s="9" t="n"/>
+      <c r="E528" s="4" t="n"/>
+      <c r="F528" s="4" t="n"/>
     </row>
     <row r="529">
-      <c r="E529" s="9" t="n"/>
-      <c r="F529" s="9" t="n"/>
+      <c r="E529" s="4" t="n"/>
+      <c r="F529" s="4" t="n"/>
     </row>
     <row r="530">
-      <c r="E530" s="9" t="n"/>
-      <c r="F530" s="9" t="n"/>
+      <c r="E530" s="4" t="n"/>
+      <c r="F530" s="4" t="n"/>
     </row>
     <row r="531">
-      <c r="E531" s="9" t="n"/>
-      <c r="F531" s="9" t="n"/>
+      <c r="E531" s="4" t="n"/>
+      <c r="F531" s="4" t="n"/>
     </row>
     <row r="532">
-      <c r="E532" s="9" t="n"/>
-      <c r="F532" s="9" t="n"/>
+      <c r="E532" s="4" t="n"/>
+      <c r="F532" s="4" t="n"/>
     </row>
     <row r="533">
-      <c r="E533" s="9" t="n"/>
-      <c r="F533" s="9" t="n"/>
+      <c r="E533" s="4" t="n"/>
+      <c r="F533" s="4" t="n"/>
     </row>
     <row r="534">
-      <c r="E534" s="9" t="n"/>
-      <c r="F534" s="9" t="n"/>
+      <c r="E534" s="4" t="n"/>
+      <c r="F534" s="4" t="n"/>
     </row>
     <row r="535">
-      <c r="E535" s="9" t="n"/>
-      <c r="F535" s="9" t="n"/>
+      <c r="E535" s="4" t="n"/>
+      <c r="F535" s="4" t="n"/>
     </row>
     <row r="536">
-      <c r="E536" s="9" t="n"/>
-      <c r="F536" s="9" t="n"/>
+      <c r="E536" s="4" t="n"/>
+      <c r="F536" s="4" t="n"/>
     </row>
     <row r="537">
-      <c r="E537" s="9" t="n"/>
-      <c r="F537" s="9" t="n"/>
+      <c r="E537" s="4" t="n"/>
+      <c r="F537" s="4" t="n"/>
     </row>
     <row r="538">
-      <c r="E538" s="9" t="n"/>
-      <c r="F538" s="9" t="n"/>
+      <c r="E538" s="4" t="n"/>
+      <c r="F538" s="4" t="n"/>
     </row>
     <row r="539">
-      <c r="E539" s="9" t="n"/>
-      <c r="F539" s="9" t="n"/>
+      <c r="E539" s="4" t="n"/>
+      <c r="F539" s="4" t="n"/>
     </row>
     <row r="540">
-      <c r="E540" s="9" t="n"/>
-      <c r="F540" s="9" t="n"/>
+      <c r="E540" s="4" t="n"/>
+      <c r="F540" s="4" t="n"/>
     </row>
     <row r="541">
-      <c r="E541" s="9" t="n"/>
-      <c r="F541" s="9" t="n"/>
+      <c r="E541" s="4" t="n"/>
+      <c r="F541" s="4" t="n"/>
     </row>
     <row r="542">
-      <c r="E542" s="9" t="n"/>
-      <c r="F542" s="9" t="n"/>
+      <c r="E542" s="4" t="n"/>
+      <c r="F542" s="4" t="n"/>
     </row>
     <row r="543">
-      <c r="E543" s="9" t="n"/>
-      <c r="F543" s="9" t="n"/>
+      <c r="E543" s="4" t="n"/>
+      <c r="F543" s="4" t="n"/>
     </row>
     <row r="544">
-      <c r="E544" s="9" t="n"/>
-      <c r="F544" s="9" t="n"/>
+      <c r="E544" s="4" t="n"/>
+      <c r="F544" s="4" t="n"/>
     </row>
     <row r="545">
-      <c r="E545" s="9" t="n"/>
-      <c r="F545" s="9" t="n"/>
+      <c r="E545" s="4" t="n"/>
+      <c r="F545" s="4" t="n"/>
     </row>
     <row r="546">
-      <c r="E546" s="9" t="n"/>
-      <c r="F546" s="9" t="n"/>
+      <c r="E546" s="4" t="n"/>
+      <c r="F546" s="4" t="n"/>
     </row>
     <row r="547">
-      <c r="E547" s="9" t="n"/>
-      <c r="F547" s="9" t="n"/>
+      <c r="E547" s="4" t="n"/>
+      <c r="F547" s="4" t="n"/>
     </row>
     <row r="548">
-      <c r="E548" s="9" t="n"/>
-      <c r="F548" s="9" t="n"/>
+      <c r="E548" s="4" t="n"/>
+      <c r="F548" s="4" t="n"/>
     </row>
     <row r="549">
-      <c r="E549" s="9" t="n"/>
-      <c r="F549" s="9" t="n"/>
+      <c r="E549" s="4" t="n"/>
+      <c r="F549" s="4" t="n"/>
     </row>
     <row r="550">
-      <c r="E550" s="9" t="n"/>
-      <c r="F550" s="9" t="n"/>
+      <c r="E550" s="4" t="n"/>
+      <c r="F550" s="4" t="n"/>
     </row>
     <row r="551">
-      <c r="E551" s="9" t="n"/>
-      <c r="F551" s="9" t="n"/>
+      <c r="E551" s="4" t="n"/>
+      <c r="F551" s="4" t="n"/>
     </row>
     <row r="552">
-      <c r="E552" s="9" t="n"/>
-      <c r="F552" s="9" t="n"/>
+      <c r="E552" s="4" t="n"/>
+      <c r="F552" s="4" t="n"/>
     </row>
     <row r="553">
-      <c r="E553" s="9" t="n"/>
-      <c r="F553" s="9" t="n"/>
+      <c r="E553" s="4" t="n"/>
+      <c r="F553" s="4" t="n"/>
     </row>
     <row r="554">
-      <c r="E554" s="9" t="n"/>
-      <c r="F554" s="9" t="n"/>
+      <c r="E554" s="4" t="n"/>
+      <c r="F554" s="4" t="n"/>
     </row>
     <row r="555">
-      <c r="E555" s="9" t="n"/>
-      <c r="F555" s="9" t="n"/>
+      <c r="E555" s="4" t="n"/>
+      <c r="F555" s="4" t="n"/>
     </row>
     <row r="556">
-      <c r="E556" s="9" t="n"/>
-      <c r="F556" s="9" t="n"/>
+      <c r="E556" s="4" t="n"/>
+      <c r="F556" s="4" t="n"/>
     </row>
     <row r="557">
-      <c r="E557" s="9" t="n"/>
-      <c r="F557" s="9" t="n"/>
+      <c r="E557" s="4" t="n"/>
+      <c r="F557" s="4" t="n"/>
     </row>
     <row r="558">
-      <c r="E558" s="9" t="n"/>
-      <c r="F558" s="9" t="n"/>
+      <c r="E558" s="4" t="n"/>
+      <c r="F558" s="4" t="n"/>
     </row>
     <row r="559">
-      <c r="E559" s="9" t="n"/>
-      <c r="F559" s="9" t="n"/>
+      <c r="E559" s="4" t="n"/>
+      <c r="F559" s="4" t="n"/>
     </row>
     <row r="560">
-      <c r="E560" s="9" t="n"/>
-      <c r="F560" s="9" t="n"/>
+      <c r="E560" s="4" t="n"/>
+      <c r="F560" s="4" t="n"/>
     </row>
     <row r="561">
-      <c r="E561" s="9" t="n"/>
-      <c r="F561" s="9" t="n"/>
+      <c r="E561" s="4" t="n"/>
+      <c r="F561" s="4" t="n"/>
     </row>
     <row r="562">
-      <c r="E562" s="9" t="n"/>
-      <c r="F562" s="9" t="n"/>
+      <c r="E562" s="4" t="n"/>
+      <c r="F562" s="4" t="n"/>
     </row>
     <row r="563">
-      <c r="E563" s="9" t="n"/>
-      <c r="F563" s="9" t="n"/>
+      <c r="E563" s="4" t="n"/>
+      <c r="F563" s="4" t="n"/>
     </row>
     <row r="564">
-      <c r="E564" s="9" t="n"/>
-      <c r="F564" s="9" t="n"/>
+      <c r="E564" s="4" t="n"/>
+      <c r="F564" s="4" t="n"/>
     </row>
     <row r="565">
-      <c r="E565" s="9" t="n"/>
-      <c r="F565" s="9" t="n"/>
+      <c r="E565" s="4" t="n"/>
+      <c r="F565" s="4" t="n"/>
     </row>
     <row r="566">
-      <c r="E566" s="9" t="n"/>
-      <c r="F566" s="9" t="n"/>
+      <c r="E566" s="4" t="n"/>
+      <c r="F566" s="4" t="n"/>
     </row>
     <row r="567">
-      <c r="E567" s="9" t="n"/>
-      <c r="F567" s="9" t="n"/>
+      <c r="E567" s="4" t="n"/>
+      <c r="F567" s="4" t="n"/>
     </row>
     <row r="568">
-      <c r="E568" s="9" t="n"/>
-      <c r="F568" s="9" t="n"/>
+      <c r="E568" s="4" t="n"/>
+      <c r="F568" s="4" t="n"/>
     </row>
     <row r="569">
-      <c r="E569" s="9" t="n"/>
-      <c r="F569" s="9" t="n"/>
+      <c r="E569" s="4" t="n"/>
+      <c r="F569" s="4" t="n"/>
     </row>
     <row r="570">
-      <c r="E570" s="9" t="n"/>
-      <c r="F570" s="9" t="n"/>
+      <c r="E570" s="4" t="n"/>
+      <c r="F570" s="4" t="n"/>
     </row>
     <row r="571">
-      <c r="E571" s="9" t="n"/>
-      <c r="F571" s="9" t="n"/>
+      <c r="E571" s="4" t="n"/>
+      <c r="F571" s="4" t="n"/>
     </row>
     <row r="572">
-      <c r="E572" s="9" t="n"/>
-      <c r="F572" s="9" t="n"/>
+      <c r="E572" s="4" t="n"/>
+      <c r="F572" s="4" t="n"/>
     </row>
     <row r="573">
-      <c r="E573" s="9" t="n"/>
-      <c r="F573" s="9" t="n"/>
+      <c r="E573" s="4" t="n"/>
+      <c r="F573" s="4" t="n"/>
     </row>
     <row r="574">
-      <c r="E574" s="9" t="n"/>
-      <c r="F574" s="9" t="n"/>
+      <c r="E574" s="4" t="n"/>
+      <c r="F574" s="4" t="n"/>
     </row>
     <row r="575">
-      <c r="E575" s="9" t="n"/>
-      <c r="F575" s="9" t="n"/>
+      <c r="E575" s="4" t="n"/>
+      <c r="F575" s="4" t="n"/>
     </row>
     <row r="576">
-      <c r="E576" s="9" t="n"/>
-      <c r="F576" s="9" t="n"/>
+      <c r="E576" s="4" t="n"/>
+      <c r="F576" s="4" t="n"/>
     </row>
     <row r="577">
-      <c r="E577" s="9" t="n"/>
-      <c r="F577" s="9" t="n"/>
+      <c r="E577" s="4" t="n"/>
+      <c r="F577" s="4" t="n"/>
     </row>
     <row r="578">
-      <c r="E578" s="9" t="n"/>
-      <c r="F578" s="9" t="n"/>
+      <c r="E578" s="4" t="n"/>
+      <c r="F578" s="4" t="n"/>
     </row>
     <row r="579">
-      <c r="E579" s="9" t="n"/>
-      <c r="F579" s="9" t="n"/>
+      <c r="E579" s="4" t="n"/>
+      <c r="F579" s="4" t="n"/>
     </row>
     <row r="580">
-      <c r="E580" s="9" t="n"/>
-      <c r="F580" s="9" t="n"/>
+      <c r="E580" s="4" t="n"/>
+      <c r="F580" s="4" t="n"/>
     </row>
     <row r="581">
-      <c r="E581" s="9" t="n"/>
-      <c r="F581" s="9" t="n"/>
+      <c r="E581" s="4" t="n"/>
+      <c r="F581" s="4" t="n"/>
     </row>
     <row r="582">
-      <c r="E582" s="9" t="n"/>
-      <c r="F582" s="9" t="n"/>
+      <c r="E582" s="4" t="n"/>
+      <c r="F582" s="4" t="n"/>
     </row>
     <row r="583">
-      <c r="E583" s="9" t="n"/>
-      <c r="F583" s="9" t="n"/>
+      <c r="E583" s="4" t="n"/>
+      <c r="F583" s="4" t="n"/>
     </row>
     <row r="584">
-      <c r="E584" s="9" t="n"/>
-      <c r="F584" s="9" t="n"/>
+      <c r="E584" s="4" t="n"/>
+      <c r="F584" s="4" t="n"/>
     </row>
     <row r="585">
-      <c r="E585" s="9" t="n"/>
-      <c r="F585" s="9" t="n"/>
+      <c r="E585" s="4" t="n"/>
+      <c r="F585" s="4" t="n"/>
     </row>
     <row r="586">
-      <c r="E586" s="9" t="n"/>
-      <c r="F586" s="9" t="n"/>
+      <c r="E586" s="4" t="n"/>
+      <c r="F586" s="4" t="n"/>
     </row>
     <row r="587">
-      <c r="E587" s="9" t="n"/>
-      <c r="F587" s="9" t="n"/>
+      <c r="E587" s="4" t="n"/>
+      <c r="F587" s="4" t="n"/>
     </row>
     <row r="588">
-      <c r="E588" s="9" t="n"/>
-      <c r="F588" s="9" t="n"/>
+      <c r="E588" s="4" t="n"/>
+      <c r="F588" s="4" t="n"/>
     </row>
     <row r="589">
-      <c r="E589" s="9" t="n"/>
-      <c r="F589" s="9" t="n"/>
+      <c r="E589" s="4" t="n"/>
+      <c r="F589" s="4" t="n"/>
     </row>
     <row r="590">
-      <c r="E590" s="9" t="n"/>
-      <c r="F590" s="9" t="n"/>
+      <c r="E590" s="4" t="n"/>
+      <c r="F590" s="4" t="n"/>
     </row>
     <row r="591">
-      <c r="E591" s="9" t="n"/>
-      <c r="F591" s="9" t="n"/>
+      <c r="E591" s="4" t="n"/>
+      <c r="F591" s="4" t="n"/>
     </row>
     <row r="592">
-      <c r="E592" s="9" t="n"/>
-      <c r="F592" s="9" t="n"/>
+      <c r="E592" s="4" t="n"/>
+      <c r="F592" s="4" t="n"/>
     </row>
     <row r="593">
-      <c r="E593" s="9" t="n"/>
-      <c r="F593" s="9" t="n"/>
+      <c r="E593" s="4" t="n"/>
+      <c r="F593" s="4" t="n"/>
     </row>
     <row r="594">
-      <c r="E594" s="9" t="n"/>
-      <c r="F594" s="9" t="n"/>
+      <c r="E594" s="4" t="n"/>
+      <c r="F594" s="4" t="n"/>
     </row>
     <row r="595">
-      <c r="E595" s="9" t="n"/>
-      <c r="F595" s="9" t="n"/>
+      <c r="E595" s="4" t="n"/>
+      <c r="F595" s="4" t="n"/>
     </row>
     <row r="596">
-      <c r="E596" s="9" t="n"/>
-      <c r="F596" s="9" t="n"/>
+      <c r="E596" s="4" t="n"/>
+      <c r="F596" s="4" t="n"/>
     </row>
     <row r="597">
-      <c r="E597" s="9" t="n"/>
-      <c r="F597" s="9" t="n"/>
+      <c r="E597" s="4" t="n"/>
+      <c r="F597" s="4" t="n"/>
     </row>
     <row r="598">
-      <c r="E598" s="9" t="n"/>
-      <c r="F598" s="9" t="n"/>
+      <c r="E598" s="4" t="n"/>
+      <c r="F598" s="4" t="n"/>
     </row>
     <row r="599">
-      <c r="E599" s="9" t="n"/>
-      <c r="F599" s="9" t="n"/>
+      <c r="E599" s="4" t="n"/>
+      <c r="F599" s="4" t="n"/>
     </row>
     <row r="600">
-      <c r="E600" s="9" t="n"/>
-      <c r="F600" s="9" t="n"/>
+      <c r="E600" s="4" t="n"/>
+      <c r="F600" s="4" t="n"/>
     </row>
     <row r="601">
-      <c r="E601" s="9" t="n"/>
-      <c r="F601" s="9" t="n"/>
+      <c r="E601" s="4" t="n"/>
+      <c r="F601" s="4" t="n"/>
     </row>
     <row r="602">
-      <c r="E602" s="9" t="n"/>
-      <c r="F602" s="9" t="n"/>
+      <c r="E602" s="4" t="n"/>
+      <c r="F602" s="4" t="n"/>
     </row>
     <row r="603">
-      <c r="E603" s="9" t="n"/>
-      <c r="F603" s="9" t="n"/>
+      <c r="E603" s="4" t="n"/>
+      <c r="F603" s="4" t="n"/>
     </row>
     <row r="604">
-      <c r="E604" s="9" t="n"/>
-      <c r="F604" s="9" t="n"/>
+      <c r="E604" s="4" t="n"/>
+      <c r="F604" s="4" t="n"/>
     </row>
     <row r="605">
-      <c r="E605" s="9" t="n"/>
-      <c r="F605" s="9" t="n"/>
+      <c r="E605" s="4" t="n"/>
+      <c r="F605" s="4" t="n"/>
     </row>
     <row r="606">
-      <c r="E606" s="9" t="n"/>
-      <c r="F606" s="9" t="n"/>
+      <c r="E606" s="4" t="n"/>
+      <c r="F606" s="4" t="n"/>
     </row>
     <row r="607">
-      <c r="E607" s="9" t="n"/>
-      <c r="F607" s="9" t="n"/>
+      <c r="E607" s="4" t="n"/>
+      <c r="F607" s="4" t="n"/>
     </row>
     <row r="608">
-      <c r="E608" s="9" t="n"/>
-      <c r="F608" s="9" t="n"/>
+      <c r="E608" s="4" t="n"/>
+      <c r="F608" s="4" t="n"/>
     </row>
     <row r="609">
-      <c r="E609" s="9" t="n"/>
-      <c r="F609" s="9" t="n"/>
+      <c r="E609" s="4" t="n"/>
+      <c r="F609" s="4" t="n"/>
     </row>
     <row r="610">
-      <c r="E610" s="9" t="n"/>
-      <c r="F610" s="9" t="n"/>
+      <c r="E610" s="4" t="n"/>
+      <c r="F610" s="4" t="n"/>
     </row>
     <row r="611">
-      <c r="E611" s="9" t="n"/>
-      <c r="F611" s="9" t="n"/>
+      <c r="E611" s="4" t="n"/>
+      <c r="F611" s="4" t="n"/>
     </row>
     <row r="612">
-      <c r="E612" s="9" t="n"/>
-      <c r="F612" s="9" t="n"/>
+      <c r="E612" s="4" t="n"/>
+      <c r="F612" s="4" t="n"/>
     </row>
     <row r="613">
-      <c r="E613" s="9" t="n"/>
-      <c r="F613" s="9" t="n"/>
+      <c r="E613" s="4" t="n"/>
+      <c r="F613" s="4" t="n"/>
     </row>
     <row r="614">
-      <c r="E614" s="9" t="n"/>
-      <c r="F614" s="9" t="n"/>
+      <c r="E614" s="4" t="n"/>
+      <c r="F614" s="4" t="n"/>
     </row>
     <row r="615">
-      <c r="E615" s="9" t="n"/>
-      <c r="F615" s="9" t="n"/>
+      <c r="E615" s="4" t="n"/>
+      <c r="F615" s="4" t="n"/>
     </row>
     <row r="616">
-      <c r="E616" s="9" t="n"/>
-      <c r="F616" s="9" t="n"/>
+      <c r="E616" s="4" t="n"/>
+      <c r="F616" s="4" t="n"/>
     </row>
     <row r="617">
-      <c r="E617" s="9" t="n"/>
-      <c r="F617" s="9" t="n"/>
+      <c r="E617" s="4" t="n"/>
+      <c r="F617" s="4" t="n"/>
     </row>
     <row r="618">
-      <c r="E618" s="9" t="n"/>
-      <c r="F618" s="9" t="n"/>
+      <c r="E618" s="4" t="n"/>
+      <c r="F618" s="4" t="n"/>
     </row>
     <row r="619">
-      <c r="E619" s="9" t="n"/>
-      <c r="F619" s="9" t="n"/>
+      <c r="E619" s="4" t="n"/>
+      <c r="F619" s="4" t="n"/>
     </row>
     <row r="620">
-      <c r="E620" s="9" t="n"/>
-      <c r="F620" s="9" t="n"/>
+      <c r="E620" s="4" t="n"/>
+      <c r="F620" s="4" t="n"/>
     </row>
     <row r="621">
-      <c r="E621" s="9" t="n"/>
-      <c r="F621" s="9" t="n"/>
+      <c r="E621" s="4" t="n"/>
+      <c r="F621" s="4" t="n"/>
     </row>
     <row r="622">
-      <c r="E622" s="9" t="n"/>
-      <c r="F622" s="9" t="n"/>
+      <c r="E622" s="4" t="n"/>
+      <c r="F622" s="4" t="n"/>
     </row>
     <row r="623">
-      <c r="E623" s="9" t="n"/>
-      <c r="F623" s="9" t="n"/>
+      <c r="E623" s="4" t="n"/>
+      <c r="F623" s="4" t="n"/>
     </row>
     <row r="624">
-      <c r="E624" s="9" t="n"/>
-      <c r="F624" s="9" t="n"/>
+      <c r="E624" s="4" t="n"/>
+      <c r="F624" s="4" t="n"/>
     </row>
     <row r="625">
-      <c r="E625" s="9" t="n"/>
-      <c r="F625" s="9" t="n"/>
+      <c r="E625" s="4" t="n"/>
+      <c r="F625" s="4" t="n"/>
     </row>
     <row r="626">
-      <c r="E626" s="9" t="n"/>
-      <c r="F626" s="9" t="n"/>
+      <c r="E626" s="4" t="n"/>
+      <c r="F626" s="4" t="n"/>
     </row>
     <row r="627">
-      <c r="E627" s="9" t="n"/>
-      <c r="F627" s="9" t="n"/>
+      <c r="E627" s="4" t="n"/>
+      <c r="F627" s="4" t="n"/>
     </row>
     <row r="628">
-      <c r="E628" s="9" t="n"/>
-      <c r="F628" s="9" t="n"/>
+      <c r="E628" s="4" t="n"/>
+      <c r="F628" s="4" t="n"/>
     </row>
     <row r="629">
-      <c r="E629" s="9" t="n"/>
-      <c r="F629" s="9" t="n"/>
+      <c r="E629" s="4" t="n"/>
+      <c r="F629" s="4" t="n"/>
     </row>
     <row r="630">
-      <c r="E630" s="9" t="n"/>
-      <c r="F630" s="9" t="n"/>
+      <c r="E630" s="4" t="n"/>
+      <c r="F630" s="4" t="n"/>
     </row>
     <row r="631">
-      <c r="E631" s="9" t="n"/>
-      <c r="F631" s="9" t="n"/>
+      <c r="E631" s="4" t="n"/>
+      <c r="F631" s="4" t="n"/>
     </row>
     <row r="632">
-      <c r="E632" s="9" t="n"/>
-      <c r="F632" s="9" t="n"/>
+      <c r="E632" s="4" t="n"/>
+      <c r="F632" s="4" t="n"/>
     </row>
     <row r="633">
-      <c r="E633" s="9" t="n"/>
-      <c r="F633" s="9" t="n"/>
+      <c r="E633" s="4" t="n"/>
+      <c r="F633" s="4" t="n"/>
     </row>
     <row r="634">
-      <c r="E634" s="9" t="n"/>
-      <c r="F634" s="9" t="n"/>
+      <c r="E634" s="4" t="n"/>
+      <c r="F634" s="4" t="n"/>
     </row>
     <row r="635">
-      <c r="E635" s="9" t="n"/>
-      <c r="F635" s="9" t="n"/>
+      <c r="E635" s="4" t="n"/>
+      <c r="F635" s="4" t="n"/>
     </row>
     <row r="636">
-      <c r="E636" s="9" t="n"/>
-      <c r="F636" s="9" t="n"/>
+      <c r="E636" s="4" t="n"/>
+      <c r="F636" s="4" t="n"/>
     </row>
     <row r="637">
-      <c r="E637" s="9" t="n"/>
-      <c r="F637" s="9" t="n"/>
+      <c r="E637" s="4" t="n"/>
+      <c r="F637" s="4" t="n"/>
     </row>
     <row r="638">
-      <c r="E638" s="9" t="n"/>
-      <c r="F638" s="9" t="n"/>
+      <c r="E638" s="4" t="n"/>
+      <c r="F638" s="4" t="n"/>
     </row>
     <row r="639">
-      <c r="E639" s="9" t="n"/>
-      <c r="F639" s="9" t="n"/>
+      <c r="E639" s="4" t="n"/>
+      <c r="F639" s="4" t="n"/>
     </row>
     <row r="640">
-      <c r="E640" s="9" t="n"/>
-      <c r="F640" s="9" t="n"/>
+      <c r="E640" s="4" t="n"/>
+      <c r="F640" s="4" t="n"/>
     </row>
     <row r="641">
-      <c r="E641" s="9" t="n"/>
-      <c r="F641" s="9" t="n"/>
+      <c r="E641" s="4" t="n"/>
+      <c r="F641" s="4" t="n"/>
     </row>
     <row r="642">
-      <c r="E642" s="9" t="n"/>
-      <c r="F642" s="9" t="n"/>
+      <c r="E642" s="4" t="n"/>
+      <c r="F642" s="4" t="n"/>
     </row>
     <row r="643">
-      <c r="E643" s="9" t="n"/>
-      <c r="F643" s="9" t="n"/>
+      <c r="E643" s="4" t="n"/>
+      <c r="F643" s="4" t="n"/>
     </row>
     <row r="644">
-      <c r="E644" s="9" t="n"/>
-      <c r="F644" s="9" t="n"/>
+      <c r="E644" s="4" t="n"/>
+      <c r="F644" s="4" t="n"/>
     </row>
     <row r="645">
-      <c r="E645" s="9" t="n"/>
-      <c r="F645" s="9" t="n"/>
+      <c r="E645" s="4" t="n"/>
+      <c r="F645" s="4" t="n"/>
     </row>
     <row r="646">
-      <c r="E646" s="9" t="n"/>
-      <c r="F646" s="9" t="n"/>
+      <c r="E646" s="4" t="n"/>
+      <c r="F646" s="4" t="n"/>
     </row>
     <row r="647">
-      <c r="E647" s="9" t="n"/>
-      <c r="F647" s="9" t="n"/>
+      <c r="E647" s="4" t="n"/>
+      <c r="F647" s="4" t="n"/>
     </row>
     <row r="648">
-      <c r="E648" s="9" t="n"/>
-      <c r="F648" s="9" t="n"/>
+      <c r="E648" s="4" t="n"/>
+      <c r="F648" s="4" t="n"/>
     </row>
     <row r="649">
-      <c r="E649" s="9" t="n"/>
-      <c r="F649" s="9" t="n"/>
+      <c r="E649" s="4" t="n"/>
+      <c r="F649" s="4" t="n"/>
     </row>
     <row r="650">
-      <c r="E650" s="9" t="n"/>
-      <c r="F650" s="9" t="n"/>
+      <c r="E650" s="4" t="n"/>
+      <c r="F650" s="4" t="n"/>
     </row>
     <row r="651">
-      <c r="E651" s="9" t="n"/>
-      <c r="F651" s="9" t="n"/>
+      <c r="E651" s="4" t="n"/>
+      <c r="F651" s="4" t="n"/>
     </row>
     <row r="652">
-      <c r="E652" s="9" t="n"/>
-      <c r="F652" s="9" t="n"/>
+      <c r="E652" s="4" t="n"/>
+      <c r="F652" s="4" t="n"/>
     </row>
     <row r="653">
-      <c r="E653" s="9" t="n"/>
-      <c r="F653" s="9" t="n"/>
+      <c r="E653" s="4" t="n"/>
+      <c r="F653" s="4" t="n"/>
     </row>
     <row r="654">
-      <c r="E654" s="9" t="n"/>
-      <c r="F654" s="9" t="n"/>
+      <c r="E654" s="4" t="n"/>
+      <c r="F654" s="4" t="n"/>
     </row>
     <row r="655">
-      <c r="E655" s="9" t="n"/>
-      <c r="F655" s="9" t="n"/>
+      <c r="E655" s="4" t="n"/>
+      <c r="F655" s="4" t="n"/>
     </row>
     <row r="656">
-      <c r="E656" s="9" t="n"/>
-      <c r="F656" s="9" t="n"/>
+      <c r="E656" s="4" t="n"/>
+      <c r="F656" s="4" t="n"/>
     </row>
     <row r="657">
-      <c r="E657" s="9" t="n"/>
-      <c r="F657" s="9" t="n"/>
+      <c r="E657" s="4" t="n"/>
+      <c r="F657" s="4" t="n"/>
     </row>
     <row r="658">
-      <c r="E658" s="9" t="n"/>
-      <c r="F658" s="9" t="n"/>
+      <c r="E658" s="4" t="n"/>
+      <c r="F658" s="4" t="n"/>
     </row>
     <row r="659">
-      <c r="E659" s="9" t="n"/>
-      <c r="F659" s="9" t="n"/>
+      <c r="E659" s="4" t="n"/>
+      <c r="F659" s="4" t="n"/>
     </row>
     <row r="660">
-      <c r="E660" s="9" t="n"/>
-      <c r="F660" s="9" t="n"/>
+      <c r="E660" s="4" t="n"/>
+      <c r="F660" s="4" t="n"/>
     </row>
     <row r="661">
-      <c r="E661" s="9" t="n"/>
-      <c r="F661" s="9" t="n"/>
+      <c r="E661" s="4" t="n"/>
+      <c r="F661" s="4" t="n"/>
     </row>
     <row r="662">
-      <c r="E662" s="9" t="n"/>
-      <c r="F662" s="9" t="n"/>
+      <c r="E662" s="4" t="n"/>
+      <c r="F662" s="4" t="n"/>
     </row>
     <row r="663">
-      <c r="E663" s="9" t="n"/>
-      <c r="F663" s="9" t="n"/>
+      <c r="E663" s="4" t="n"/>
+      <c r="F663" s="4" t="n"/>
     </row>
     <row r="664">
-      <c r="E664" s="9" t="n"/>
-      <c r="F664" s="9" t="n"/>
+      <c r="E664" s="4" t="n"/>
+      <c r="F664" s="4" t="n"/>
     </row>
     <row r="665">
-      <c r="E665" s="9" t="n"/>
-      <c r="F665" s="9" t="n"/>
+      <c r="E665" s="4" t="n"/>
+      <c r="F665" s="4" t="n"/>
     </row>
     <row r="666">
-      <c r="E666" s="9" t="n"/>
-      <c r="F666" s="9" t="n"/>
+      <c r="E666" s="4" t="n"/>
+      <c r="F666" s="4" t="n"/>
     </row>
     <row r="667">
-      <c r="E667" s="9" t="n"/>
-      <c r="F667" s="9" t="n"/>
+      <c r="E667" s="4" t="n"/>
+      <c r="F667" s="4" t="n"/>
     </row>
     <row r="668">
-      <c r="E668" s="9" t="n"/>
-      <c r="F668" s="9" t="n"/>
+      <c r="E668" s="4" t="n"/>
+      <c r="F668" s="4" t="n"/>
     </row>
     <row r="669">
-      <c r="E669" s="9" t="n"/>
-      <c r="F669" s="9" t="n"/>
+      <c r="E669" s="4" t="n"/>
+      <c r="F669" s="4" t="n"/>
     </row>
     <row r="670">
-      <c r="E670" s="9" t="n"/>
-      <c r="F670" s="9" t="n"/>
+      <c r="E670" s="4" t="n"/>
+      <c r="F670" s="4" t="n"/>
     </row>
     <row r="671">
-      <c r="E671" s="9" t="n"/>
-      <c r="F671" s="9" t="n"/>
+      <c r="E671" s="4" t="n"/>
+      <c r="F671" s="4" t="n"/>
     </row>
     <row r="672">
-      <c r="E672" s="9" t="n"/>
-      <c r="F672" s="9" t="n"/>
+      <c r="E672" s="4" t="n"/>
+      <c r="F672" s="4" t="n"/>
     </row>
     <row r="673">
-      <c r="E673" s="9" t="n"/>
-      <c r="F673" s="9" t="n"/>
+      <c r="E673" s="4" t="n"/>
+      <c r="F673" s="4" t="n"/>
     </row>
     <row r="674">
-      <c r="E674" s="9" t="n"/>
-      <c r="F674" s="9" t="n"/>
+      <c r="E674" s="4" t="n"/>
+      <c r="F674" s="4" t="n"/>
     </row>
     <row r="675">
-      <c r="E675" s="9" t="n"/>
-      <c r="F675" s="9" t="n"/>
+      <c r="E675" s="4" t="n"/>
+      <c r="F675" s="4" t="n"/>
     </row>
     <row r="676">
-      <c r="E676" s="9" t="n"/>
-      <c r="F676" s="9" t="n"/>
+      <c r="E676" s="4" t="n"/>
+      <c r="F676" s="4" t="n"/>
     </row>
     <row r="677">
-      <c r="E677" s="9" t="n"/>
-      <c r="F677" s="9" t="n"/>
+      <c r="E677" s="4" t="n"/>
+      <c r="F677" s="4" t="n"/>
     </row>
     <row r="678">
-      <c r="E678" s="9" t="n"/>
-      <c r="F678" s="9" t="n"/>
+      <c r="E678" s="4" t="n"/>
+      <c r="F678" s="4" t="n"/>
     </row>
     <row r="679">
-      <c r="E679" s="9" t="n"/>
-      <c r="F679" s="9" t="n"/>
+      <c r="E679" s="4" t="n"/>
+      <c r="F679" s="4" t="n"/>
     </row>
     <row r="680">
-      <c r="E680" s="9" t="n"/>
-      <c r="F680" s="9" t="n"/>
+      <c r="E680" s="4" t="n"/>
+      <c r="F680" s="4" t="n"/>
     </row>
     <row r="681">
-      <c r="E681" s="9" t="n"/>
-      <c r="F681" s="9" t="n"/>
+      <c r="E681" s="4" t="n"/>
+      <c r="F681" s="4" t="n"/>
     </row>
     <row r="682">
-      <c r="E682" s="9" t="n"/>
-      <c r="F682" s="9" t="n"/>
+      <c r="E682" s="4" t="n"/>
+      <c r="F682" s="4" t="n"/>
     </row>
     <row r="683">
-      <c r="E683" s="9" t="n"/>
-      <c r="F683" s="9" t="n"/>
+      <c r="E683" s="4" t="n"/>
+      <c r="F683" s="4" t="n"/>
     </row>
     <row r="684">
-      <c r="E684" s="9" t="n"/>
-      <c r="F684" s="9" t="n"/>
+      <c r="E684" s="4" t="n"/>
+      <c r="F684" s="4" t="n"/>
     </row>
     <row r="685">
-      <c r="E685" s="9" t="n"/>
-      <c r="F685" s="9" t="n"/>
+      <c r="E685" s="4" t="n"/>
+      <c r="F685" s="4" t="n"/>
     </row>
     <row r="686">
-      <c r="E686" s="9" t="n"/>
-      <c r="F686" s="9" t="n"/>
+      <c r="E686" s="4" t="n"/>
+      <c r="F686" s="4" t="n"/>
     </row>
     <row r="687">
-      <c r="E687" s="9" t="n"/>
-      <c r="F687" s="9" t="n"/>
+      <c r="E687" s="4" t="n"/>
+      <c r="F687" s="4" t="n"/>
     </row>
     <row r="688">
-      <c r="E688" s="9" t="n"/>
-      <c r="F688" s="9" t="n"/>
+      <c r="E688" s="4" t="n"/>
+      <c r="F688" s="4" t="n"/>
     </row>
     <row r="689">
-      <c r="E689" s="9" t="n"/>
-      <c r="F689" s="9" t="n"/>
+      <c r="E689" s="4" t="n"/>
+      <c r="F689" s="4" t="n"/>
     </row>
     <row r="690">
-      <c r="E690" s="9" t="n"/>
-      <c r="F690" s="9" t="n"/>
+      <c r="E690" s="4" t="n"/>
+      <c r="F690" s="4" t="n"/>
     </row>
     <row r="691">
-      <c r="E691" s="9" t="n"/>
-      <c r="F691" s="9" t="n"/>
+      <c r="E691" s="4" t="n"/>
+      <c r="F691" s="4" t="n"/>
     </row>
     <row r="692">
-      <c r="E692" s="9" t="n"/>
-      <c r="F692" s="9" t="n"/>
+      <c r="E692" s="4" t="n"/>
+      <c r="F692" s="4" t="n"/>
     </row>
     <row r="693">
-      <c r="E693" s="9" t="n"/>
-      <c r="F693" s="9" t="n"/>
+      <c r="E693" s="4" t="n"/>
+      <c r="F693" s="4" t="n"/>
     </row>
     <row r="694">
-      <c r="E694" s="9" t="n"/>
-      <c r="F694" s="9" t="n"/>
+      <c r="E694" s="4" t="n"/>
+      <c r="F694" s="4" t="n"/>
     </row>
     <row r="695">
-      <c r="E695" s="9" t="n"/>
-      <c r="F695" s="9" t="n"/>
+      <c r="E695" s="4" t="n"/>
+      <c r="F695" s="4" t="n"/>
     </row>
     <row r="696">
-      <c r="E696" s="9" t="n"/>
-      <c r="F696" s="9" t="n"/>
+      <c r="E696" s="4" t="n"/>
+      <c r="F696" s="4" t="n"/>
     </row>
     <row r="697">
-      <c r="E697" s="9" t="n"/>
-      <c r="F697" s="9" t="n"/>
+      <c r="E697" s="4" t="n"/>
+      <c r="F697" s="4" t="n"/>
     </row>
     <row r="698">
-      <c r="E698" s="9" t="n"/>
-      <c r="F698" s="9" t="n"/>
+      <c r="E698" s="4" t="n"/>
+      <c r="F698" s="4" t="n"/>
     </row>
     <row r="699">
-      <c r="E699" s="9" t="n"/>
-      <c r="F699" s="9" t="n"/>
+      <c r="E699" s="4" t="n"/>
+      <c r="F699" s="4" t="n"/>
     </row>
     <row r="700">
-      <c r="E700" s="9" t="n"/>
-      <c r="F700" s="9" t="n"/>
+      <c r="E700" s="4" t="n"/>
+      <c r="F700" s="4" t="n"/>
     </row>
     <row r="701">
-      <c r="E701" s="9" t="n"/>
-      <c r="F701" s="9" t="n"/>
+      <c r="E701" s="4" t="n"/>
+      <c r="F701" s="4" t="n"/>
     </row>
     <row r="702">
-      <c r="E702" s="9" t="n"/>
-      <c r="F702" s="9" t="n"/>
+      <c r="E702" s="4" t="n"/>
+      <c r="F702" s="4" t="n"/>
     </row>
     <row r="703">
-      <c r="E703" s="9" t="n"/>
-      <c r="F703" s="9" t="n"/>
+      <c r="E703" s="4" t="n"/>
+      <c r="F703" s="4" t="n"/>
     </row>
     <row r="704">
-      <c r="E704" s="9" t="n"/>
-      <c r="F704" s="9" t="n"/>
+      <c r="E704" s="4" t="n"/>
+      <c r="F704" s="4" t="n"/>
     </row>
     <row r="705">
-      <c r="E705" s="9" t="n"/>
-      <c r="F705" s="9" t="n"/>
+      <c r="E705" s="4" t="n"/>
+      <c r="F705" s="4" t="n"/>
     </row>
     <row r="706">
-      <c r="E706" s="9" t="n"/>
-      <c r="F706" s="9" t="n"/>
+      <c r="E706" s="4" t="n"/>
+      <c r="F706" s="4" t="n"/>
     </row>
     <row r="707">
-      <c r="E707" s="9" t="n"/>
-      <c r="F707" s="9" t="n"/>
+      <c r="E707" s="4" t="n"/>
+      <c r="F707" s="4" t="n"/>
     </row>
     <row r="708">
-      <c r="E708" s="9" t="n"/>
-      <c r="F708" s="9" t="n"/>
+      <c r="E708" s="4" t="n"/>
+      <c r="F708" s="4" t="n"/>
     </row>
     <row r="709">
-      <c r="E709" s="9" t="n"/>
-      <c r="F709" s="9" t="n"/>
+      <c r="E709" s="4" t="n"/>
+      <c r="F709" s="4" t="n"/>
     </row>
     <row r="710">
-      <c r="E710" s="9" t="n"/>
-      <c r="F710" s="9" t="n"/>
+      <c r="E710" s="4" t="n"/>
+      <c r="F710" s="4" t="n"/>
     </row>
     <row r="711">
-      <c r="E711" s="9" t="n"/>
-      <c r="F711" s="9" t="n"/>
+      <c r="E711" s="4" t="n"/>
+      <c r="F711" s="4" t="n"/>
     </row>
     <row r="712">
-      <c r="E712" s="9" t="n"/>
-      <c r="F712" s="9" t="n"/>
+      <c r="E712" s="4" t="n"/>
+      <c r="F712" s="4" t="n"/>
     </row>
     <row r="713">
-      <c r="E713" s="9" t="n"/>
-      <c r="F713" s="9" t="n"/>
+      <c r="E713" s="4" t="n"/>
+      <c r="F713" s="4" t="n"/>
     </row>
     <row r="714">
-      <c r="E714" s="9" t="n"/>
-      <c r="F714" s="9" t="n"/>
+      <c r="E714" s="4" t="n"/>
+      <c r="F714" s="4" t="n"/>
     </row>
     <row r="715">
-      <c r="E715" s="9" t="n"/>
-      <c r="F715" s="9" t="n"/>
+      <c r="E715" s="4" t="n"/>
+      <c r="F715" s="4" t="n"/>
     </row>
     <row r="716">
-      <c r="E716" s="9" t="n"/>
-      <c r="F716" s="9" t="n"/>
+      <c r="E716" s="4" t="n"/>
+      <c r="F716" s="4" t="n"/>
     </row>
     <row r="717">
-      <c r="E717" s="9" t="n"/>
-      <c r="F717" s="9" t="n"/>
+      <c r="E717" s="4" t="n"/>
+      <c r="F717" s="4" t="n"/>
     </row>
     <row r="718">
-      <c r="E718" s="9" t="n"/>
-      <c r="F718" s="9" t="n"/>
+      <c r="E718" s="4" t="n"/>
+      <c r="F718" s="4" t="n"/>
     </row>
     <row r="719">
-      <c r="E719" s="9" t="n"/>
-      <c r="F719" s="9" t="n"/>
+      <c r="E719" s="4" t="n"/>
+      <c r="F719" s="4" t="n"/>
     </row>
     <row r="720">
-      <c r="E720" s="9" t="n"/>
-      <c r="F720" s="9" t="n"/>
+      <c r="E720" s="4" t="n"/>
+      <c r="F720" s="4" t="n"/>
     </row>
     <row r="721">
-      <c r="E721" s="9" t="n"/>
-      <c r="F721" s="9" t="n"/>
+      <c r="E721" s="4" t="n"/>
+      <c r="F721" s="4" t="n"/>
     </row>
     <row r="722">
-      <c r="E722" s="9" t="n"/>
-      <c r="F722" s="9" t="n"/>
+      <c r="E722" s="4" t="n"/>
+      <c r="F722" s="4" t="n"/>
     </row>
     <row r="723">
-      <c r="E723" s="9" t="n"/>
-      <c r="F723" s="9" t="n"/>
+      <c r="E723" s="4" t="n"/>
+      <c r="F723" s="4" t="n"/>
     </row>
     <row r="724">
-      <c r="E724" s="9" t="n"/>
-      <c r="F724" s="9" t="n"/>
+      <c r="E724" s="4" t="n"/>
+      <c r="F724" s="4" t="n"/>
     </row>
     <row r="725">
-      <c r="E725" s="9" t="n"/>
-      <c r="F725" s="9" t="n"/>
+      <c r="E725" s="4" t="n"/>
+      <c r="F725" s="4" t="n"/>
     </row>
     <row r="726">
-      <c r="E726" s="9" t="n"/>
-      <c r="F726" s="9" t="n"/>
+      <c r="E726" s="4" t="n"/>
+      <c r="F726" s="4" t="n"/>
     </row>
     <row r="727">
-      <c r="E727" s="9" t="n"/>
-      <c r="F727" s="9" t="n"/>
+      <c r="E727" s="4" t="n"/>
+      <c r="F727" s="4" t="n"/>
     </row>
     <row r="728">
-      <c r="E728" s="9" t="n"/>
-      <c r="F728" s="9" t="n"/>
+      <c r="E728" s="4" t="n"/>
+      <c r="F728" s="4" t="n"/>
     </row>
     <row r="729">
-      <c r="E729" s="9" t="n"/>
-      <c r="F729" s="9" t="n"/>
+      <c r="E729" s="4" t="n"/>
+      <c r="F729" s="4" t="n"/>
     </row>
     <row r="730">
-      <c r="E730" s="9" t="n"/>
-      <c r="F730" s="9" t="n"/>
+      <c r="E730" s="4" t="n"/>
+      <c r="F730" s="4" t="n"/>
     </row>
     <row r="731">
-      <c r="E731" s="9" t="n"/>
-      <c r="F731" s="9" t="n"/>
+      <c r="E731" s="4" t="n"/>
+      <c r="F731" s="4" t="n"/>
     </row>
     <row r="732">
-      <c r="E732" s="9" t="n"/>
-      <c r="F732" s="9" t="n"/>
+      <c r="E732" s="4" t="n"/>
+      <c r="F732" s="4" t="n"/>
     </row>
     <row r="733">
-      <c r="E733" s="9" t="n"/>
-      <c r="F733" s="9" t="n"/>
+      <c r="E733" s="4" t="n"/>
+      <c r="F733" s="4" t="n"/>
     </row>
     <row r="734">
-      <c r="E734" s="9" t="n"/>
-      <c r="F734" s="9" t="n"/>
+      <c r="E734" s="4" t="n"/>
+      <c r="F734" s="4" t="n"/>
     </row>
     <row r="735">
-      <c r="E735" s="9" t="n"/>
-      <c r="F735" s="9" t="n"/>
+      <c r="E735" s="4" t="n"/>
+      <c r="F735" s="4" t="n"/>
     </row>
     <row r="736">
-      <c r="E736" s="9" t="n"/>
-      <c r="F736" s="9" t="n"/>
+      <c r="E736" s="4" t="n"/>
+      <c r="F736" s="4" t="n"/>
     </row>
     <row r="737">
-      <c r="E737" s="9" t="n"/>
-      <c r="F737" s="9" t="n"/>
+      <c r="E737" s="4" t="n"/>
+      <c r="F737" s="4" t="n"/>
     </row>
     <row r="738">
-      <c r="E738" s="9" t="n"/>
-      <c r="F738" s="9" t="n"/>
+      <c r="E738" s="4" t="n"/>
+      <c r="F738" s="4" t="n"/>
     </row>
     <row r="739">
-      <c r="E739" s="9" t="n"/>
-      <c r="F739" s="9" t="n"/>
+      <c r="E739" s="4" t="n"/>
+      <c r="F739" s="4" t="n"/>
     </row>
     <row r="740">
-      <c r="E740" s="9" t="n"/>
-      <c r="F740" s="9" t="n"/>
+      <c r="E740" s="4" t="n"/>
+      <c r="F740" s="4" t="n"/>
     </row>
     <row r="741">
-      <c r="E741" s="9" t="n"/>
-      <c r="F741" s="9" t="n"/>
+      <c r="E741" s="4" t="n"/>
+      <c r="F741" s="4" t="n"/>
     </row>
     <row r="742">
-      <c r="E742" s="9" t="n"/>
-      <c r="F742" s="9" t="n"/>
+      <c r="E742" s="4" t="n"/>
+      <c r="F742" s="4" t="n"/>
     </row>
     <row r="743">
-      <c r="E743" s="9" t="n"/>
-      <c r="F743" s="9" t="n"/>
+      <c r="E743" s="4" t="n"/>
+      <c r="F743" s="4" t="n"/>
     </row>
     <row r="744">
-      <c r="E744" s="9" t="n"/>
-      <c r="F744" s="9" t="n"/>
+      <c r="E744" s="4" t="n"/>
+      <c r="F744" s="4" t="n"/>
     </row>
     <row r="745">
-      <c r="E745" s="9" t="n"/>
-      <c r="F745" s="9" t="n"/>
+      <c r="E745" s="4" t="n"/>
+      <c r="F745" s="4" t="n"/>
     </row>
     <row r="746">
-      <c r="E746" s="9" t="n"/>
-      <c r="F746" s="9" t="n"/>
+      <c r="E746" s="4" t="n"/>
+      <c r="F746" s="4" t="n"/>
     </row>
     <row r="747">
-      <c r="E747" s="9" t="n"/>
-      <c r="F747" s="9" t="n"/>
+      <c r="E747" s="4" t="n"/>
+      <c r="F747" s="4" t="n"/>
     </row>
     <row r="748">
-      <c r="E748" s="9" t="n"/>
-      <c r="F748" s="9" t="n"/>
+      <c r="E748" s="4" t="n"/>
+      <c r="F748" s="4" t="n"/>
     </row>
     <row r="749">
-      <c r="E749" s="9" t="n"/>
-      <c r="F749" s="9" t="n"/>
+      <c r="E749" s="4" t="n"/>
+      <c r="F749" s="4" t="n"/>
     </row>
     <row r="750">
-      <c r="E750" s="9" t="n"/>
-      <c r="F750" s="9" t="n"/>
+      <c r="E750" s="4" t="n"/>
+      <c r="F750" s="4" t="n"/>
     </row>
     <row r="751">
-      <c r="E751" s="9" t="n"/>
-      <c r="F751" s="9" t="n"/>
+      <c r="E751" s="4" t="n"/>
+      <c r="F751" s="4" t="n"/>
     </row>
     <row r="752">
-      <c r="E752" s="9" t="n"/>
-      <c r="F752" s="9" t="n"/>
+      <c r="E752" s="4" t="n"/>
+      <c r="F752" s="4" t="n"/>
     </row>
     <row r="753">
-      <c r="E753" s="9" t="n"/>
-      <c r="F753" s="9" t="n"/>
+      <c r="E753" s="4" t="n"/>
+      <c r="F753" s="4" t="n"/>
     </row>
     <row r="754">
-      <c r="E754" s="9" t="n"/>
-      <c r="F754" s="9" t="n"/>
+      <c r="E754" s="4" t="n"/>
+      <c r="F754" s="4" t="n"/>
     </row>
     <row r="755">
-      <c r="E755" s="9" t="n"/>
-      <c r="F755" s="9" t="n"/>
+      <c r="E755" s="4" t="n"/>
+      <c r="F755" s="4" t="n"/>
     </row>
     <row r="756">
-      <c r="E756" s="9" t="n"/>
-      <c r="F756" s="9" t="n"/>
+      <c r="E756" s="4" t="n"/>
+      <c r="F756" s="4" t="n"/>
     </row>
     <row r="757">
-      <c r="E757" s="9" t="n"/>
-      <c r="F757" s="9" t="n"/>
+      <c r="E757" s="4" t="n"/>
+      <c r="F757" s="4" t="n"/>
     </row>
     <row r="758">
-      <c r="E758" s="9" t="n"/>
-      <c r="F758" s="9" t="n"/>
+      <c r="E758" s="4" t="n"/>
+      <c r="F758" s="4" t="n"/>
     </row>
     <row r="759">
-      <c r="E759" s="9" t="n"/>
-      <c r="F759" s="9" t="n"/>
+      <c r="E759" s="4" t="n"/>
+      <c r="F759" s="4" t="n"/>
     </row>
     <row r="760">
-      <c r="E760" s="9" t="n"/>
-      <c r="F760" s="9" t="n"/>
+      <c r="E760" s="4" t="n"/>
+      <c r="F760" s="4" t="n"/>
     </row>
     <row r="761">
-      <c r="E761" s="9" t="n"/>
-      <c r="F761" s="9" t="n"/>
+      <c r="E761" s="4" t="n"/>
+      <c r="F761" s="4" t="n"/>
     </row>
     <row r="762">
-      <c r="E762" s="9" t="n"/>
-      <c r="F762" s="9" t="n"/>
+      <c r="E762" s="4" t="n"/>
+      <c r="F762" s="4" t="n"/>
     </row>
     <row r="763">
-      <c r="E763" s="9" t="n"/>
-      <c r="F763" s="9" t="n"/>
+      <c r="E763" s="4" t="n"/>
+      <c r="F763" s="4" t="n"/>
     </row>
     <row r="764">
-      <c r="E764" s="9" t="n"/>
-      <c r="F764" s="9" t="n"/>
+      <c r="E764" s="4" t="n"/>
+      <c r="F764" s="4" t="n"/>
     </row>
     <row r="765">
-      <c r="E765" s="9" t="n"/>
-      <c r="F765" s="9" t="n"/>
+      <c r="E765" s="4" t="n"/>
+      <c r="F765" s="4" t="n"/>
     </row>
     <row r="766">
-      <c r="E766" s="9" t="n"/>
-      <c r="F766" s="9" t="n"/>
+      <c r="E766" s="4" t="n"/>
+      <c r="F766" s="4" t="n"/>
     </row>
     <row r="767">
-      <c r="E767" s="9" t="n"/>
-      <c r="F767" s="9" t="n"/>
+      <c r="E767" s="4" t="n"/>
+      <c r="F767" s="4" t="n"/>
     </row>
     <row r="768">
-      <c r="E768" s="9" t="n"/>
-      <c r="F768" s="9" t="n"/>
+      <c r="E768" s="4" t="n"/>
+      <c r="F768" s="4" t="n"/>
     </row>
     <row r="769">
-      <c r="E769" s="9" t="n"/>
-      <c r="F769" s="9" t="n"/>
+      <c r="E769" s="4" t="n"/>
+      <c r="F769" s="4" t="n"/>
     </row>
     <row r="770">
-      <c r="E770" s="9" t="n"/>
-      <c r="F770" s="9" t="n"/>
+      <c r="E770" s="4" t="n"/>
+      <c r="F770" s="4" t="n"/>
     </row>
     <row r="771">
-      <c r="E771" s="9" t="n"/>
-      <c r="F771" s="9" t="n"/>
+      <c r="E771" s="4" t="n"/>
+      <c r="F771" s="4" t="n"/>
     </row>
     <row r="772">
-      <c r="E772" s="9" t="n"/>
-      <c r="F772" s="9" t="n"/>
+      <c r="E772" s="4" t="n"/>
+      <c r="F772" s="4" t="n"/>
     </row>
     <row r="773">
-      <c r="E773" s="9" t="n"/>
-      <c r="F773" s="9" t="n"/>
+      <c r="E773" s="4" t="n"/>
+      <c r="F773" s="4" t="n"/>
     </row>
     <row r="774">
-      <c r="E774" s="9" t="n"/>
-      <c r="F774" s="9" t="n"/>
+      <c r="E774" s="4" t="n"/>
+      <c r="F774" s="4" t="n"/>
     </row>
     <row r="775">
-      <c r="E775" s="9" t="n"/>
-      <c r="F775" s="9" t="n"/>
+      <c r="E775" s="4" t="n"/>
+      <c r="F775" s="4" t="n"/>
     </row>
     <row r="776">
-      <c r="E776" s="9" t="n"/>
-      <c r="F776" s="9" t="n"/>
+      <c r="E776" s="4" t="n"/>
+      <c r="F776" s="4" t="n"/>
     </row>
     <row r="777">
-      <c r="E777" s="9" t="n"/>
-      <c r="F777" s="9" t="n"/>
+      <c r="E777" s="4" t="n"/>
+      <c r="F777" s="4" t="n"/>
     </row>
     <row r="778">
-      <c r="E778" s="9" t="n"/>
-      <c r="F778" s="9" t="n"/>
+      <c r="E778" s="4" t="n"/>
+      <c r="F778" s="4" t="n"/>
     </row>
     <row r="779">
-      <c r="E779" s="9" t="n"/>
-      <c r="F779" s="9" t="n"/>
+      <c r="E779" s="4" t="n"/>
+      <c r="F779" s="4" t="n"/>
     </row>
     <row r="780">
-      <c r="E780" s="9" t="n"/>
-      <c r="F780" s="9" t="n"/>
+      <c r="E780" s="4" t="n"/>
+      <c r="F780" s="4" t="n"/>
     </row>
     <row r="781">
-      <c r="E781" s="9" t="n"/>
-      <c r="F781" s="9" t="n"/>
+      <c r="E781" s="4" t="n"/>
+      <c r="F781" s="4" t="n"/>
     </row>
     <row r="782">
-      <c r="E782" s="9" t="n"/>
-      <c r="F782" s="9" t="n"/>
+      <c r="E782" s="4" t="n"/>
+      <c r="F782" s="4" t="n"/>
     </row>
     <row r="783">
-      <c r="E783" s="9" t="n"/>
-      <c r="F783" s="9" t="n"/>
+      <c r="E783" s="4" t="n"/>
+      <c r="F783" s="4" t="n"/>
     </row>
     <row r="784">
-      <c r="E784" s="9" t="n"/>
-      <c r="F784" s="9" t="n"/>
+      <c r="E784" s="4" t="n"/>
+      <c r="F784" s="4" t="n"/>
     </row>
     <row r="785">
-      <c r="E785" s="9" t="n"/>
-      <c r="F785" s="9" t="n"/>
+      <c r="E785" s="4" t="n"/>
+      <c r="F785" s="4" t="n"/>
     </row>
     <row r="786">
-      <c r="E786" s="9" t="n"/>
-      <c r="F786" s="9" t="n"/>
+      <c r="E786" s="4" t="n"/>
+      <c r="F786" s="4" t="n"/>
     </row>
     <row r="787">
-      <c r="E787" s="9" t="n"/>
-      <c r="F787" s="9" t="n"/>
+      <c r="E787" s="4" t="n"/>
+      <c r="F787" s="4" t="n"/>
     </row>
     <row r="788">
-      <c r="E788" s="9" t="n"/>
-      <c r="F788" s="9" t="n"/>
+      <c r="E788" s="4" t="n"/>
+      <c r="F788" s="4" t="n"/>
     </row>
     <row r="789">
-      <c r="E789" s="9" t="n"/>
-      <c r="F789" s="9" t="n"/>
+      <c r="E789" s="4" t="n"/>
+      <c r="F789" s="4" t="n"/>
     </row>
     <row r="790">
-      <c r="E790" s="9" t="n"/>
-      <c r="F790" s="9" t="n"/>
+      <c r="E790" s="4" t="n"/>
+      <c r="F790" s="4" t="n"/>
     </row>
     <row r="791">
-      <c r="E791" s="9" t="n"/>
-      <c r="F791" s="9" t="n"/>
+      <c r="E791" s="4" t="n"/>
+      <c r="F791" s="4" t="n"/>
     </row>
     <row r="792">
-      <c r="E792" s="9" t="n"/>
-      <c r="F792" s="9" t="n"/>
+      <c r="E792" s="4" t="n"/>
+      <c r="F792" s="4" t="n"/>
     </row>
     <row r="793">
-      <c r="E793" s="9" t="n"/>
-      <c r="F793" s="9" t="n"/>
+      <c r="E793" s="4" t="n"/>
+      <c r="F793" s="4" t="n"/>
     </row>
     <row r="794">
-      <c r="E794" s="9" t="n"/>
-      <c r="F794" s="9" t="n"/>
+      <c r="E794" s="4" t="n"/>
+      <c r="F794" s="4" t="n"/>
     </row>
     <row r="795">
-      <c r="E795" s="9" t="n"/>
-      <c r="F795" s="9" t="n"/>
+      <c r="E795" s="4" t="n"/>
+      <c r="F795" s="4" t="n"/>
     </row>
     <row r="796">
-      <c r="E796" s="9" t="n"/>
-      <c r="F796" s="9" t="n"/>
+      <c r="E796" s="4" t="n"/>
+      <c r="F796" s="4" t="n"/>
     </row>
     <row r="797">
-      <c r="E797" s="9" t="n"/>
-      <c r="F797" s="9" t="n"/>
+      <c r="E797" s="4" t="n"/>
+      <c r="F797" s="4" t="n"/>
     </row>
     <row r="798">
-      <c r="E798" s="9" t="n"/>
-      <c r="F798" s="9" t="n"/>
+      <c r="E798" s="4" t="n"/>
+      <c r="F798" s="4" t="n"/>
     </row>
     <row r="799">
-      <c r="E799" s="9" t="n"/>
-      <c r="F799" s="9" t="n"/>
+      <c r="E799" s="4" t="n"/>
+      <c r="F799" s="4" t="n"/>
     </row>
     <row r="800">
-      <c r="E800" s="9" t="n"/>
-      <c r="F800" s="9" t="n"/>
+      <c r="E800" s="4" t="n"/>
+      <c r="F800" s="4" t="n"/>
     </row>
     <row r="801">
-      <c r="E801" s="9" t="n"/>
-      <c r="F801" s="9" t="n"/>
+      <c r="E801" s="4" t="n"/>
+      <c r="F801" s="4" t="n"/>
     </row>
     <row r="802">
-      <c r="E802" s="9" t="n"/>
-      <c r="F802" s="9" t="n"/>
+      <c r="E802" s="4" t="n"/>
+      <c r="F802" s="4" t="n"/>
     </row>
     <row r="803">
-      <c r="E803" s="9" t="n"/>
-      <c r="F803" s="9" t="n"/>
+      <c r="E803" s="4" t="n"/>
+      <c r="F803" s="4" t="n"/>
     </row>
     <row r="804">
-      <c r="E804" s="9" t="n"/>
-      <c r="F804" s="9" t="n"/>
+      <c r="E804" s="4" t="n"/>
+      <c r="F804" s="4" t="n"/>
     </row>
     <row r="805">
-      <c r="E805" s="9" t="n"/>
-      <c r="F805" s="9" t="n"/>
+      <c r="E805" s="4" t="n"/>
+      <c r="F805" s="4" t="n"/>
     </row>
     <row r="806">
-      <c r="E806" s="9" t="n"/>
-      <c r="F806" s="9" t="n"/>
+      <c r="E806" s="4" t="n"/>
+      <c r="F806" s="4" t="n"/>
     </row>
     <row r="807">
-      <c r="E807" s="9" t="n"/>
-      <c r="F807" s="9" t="n"/>
+      <c r="E807" s="4" t="n"/>
+      <c r="F807" s="4" t="n"/>
     </row>
     <row r="808">
-      <c r="E808" s="9" t="n"/>
-      <c r="F808" s="9" t="n"/>
+      <c r="E808" s="4" t="n"/>
+      <c r="F808" s="4" t="n"/>
     </row>
     <row r="809">
-      <c r="E809" s="9" t="n"/>
-      <c r="F809" s="9" t="n"/>
+      <c r="E809" s="4" t="n"/>
+      <c r="F809" s="4" t="n"/>
     </row>
     <row r="810">
-      <c r="E810" s="9" t="n"/>
-      <c r="F810" s="9" t="n"/>
+      <c r="E810" s="4" t="n"/>
+      <c r="F810" s="4" t="n"/>
     </row>
     <row r="811">
-      <c r="E811" s="9" t="n"/>
-      <c r="F811" s="9" t="n"/>
+      <c r="E811" s="4" t="n"/>
+      <c r="F811" s="4" t="n"/>
     </row>
     <row r="812">
-      <c r="E812" s="9" t="n"/>
-      <c r="F812" s="9" t="n"/>
+      <c r="E812" s="4" t="n"/>
+      <c r="F812" s="4" t="n"/>
     </row>
     <row r="813">
-      <c r="E813" s="9" t="n"/>
-      <c r="F813" s="9" t="n"/>
+      <c r="E813" s="4" t="n"/>
+      <c r="F813" s="4" t="n"/>
     </row>
     <row r="814">
-      <c r="E814" s="9" t="n"/>
-      <c r="F814" s="9" t="n"/>
+      <c r="E814" s="4" t="n"/>
+      <c r="F814" s="4" t="n"/>
     </row>
     <row r="815">
-      <c r="E815" s="9" t="n"/>
-      <c r="F815" s="9" t="n"/>
+      <c r="E815" s="4" t="n"/>
+      <c r="F815" s="4" t="n"/>
     </row>
     <row r="816">
-      <c r="E816" s="9" t="n"/>
-      <c r="F816" s="9" t="n"/>
+      <c r="E816" s="4" t="n"/>
+      <c r="F816" s="4" t="n"/>
     </row>
     <row r="817">
-      <c r="E817" s="9" t="n"/>
-      <c r="F817" s="9" t="n"/>
+      <c r="E817" s="4" t="n"/>
+      <c r="F817" s="4" t="n"/>
     </row>
     <row r="818">
-      <c r="E818" s="9" t="n"/>
-      <c r="F818" s="9" t="n"/>
+      <c r="E818" s="4" t="n"/>
+      <c r="F818" s="4" t="n"/>
     </row>
     <row r="819">
-      <c r="E819" s="9" t="n"/>
-      <c r="F819" s="9" t="n"/>
+      <c r="E819" s="4" t="n"/>
+      <c r="F819" s="4" t="n"/>
     </row>
     <row r="820">
-      <c r="E820" s="9" t="n"/>
-      <c r="F820" s="9" t="n"/>
+      <c r="E820" s="4" t="n"/>
+      <c r="F820" s="4" t="n"/>
     </row>
     <row r="821">
-      <c r="E821" s="9" t="n"/>
-      <c r="F821" s="9" t="n"/>
+      <c r="E821" s="4" t="n"/>
+      <c r="F821" s="4" t="n"/>
     </row>
     <row r="822">
-      <c r="E822" s="9" t="n"/>
-      <c r="F822" s="9" t="n"/>
+      <c r="E822" s="4" t="n"/>
+      <c r="F822" s="4" t="n"/>
     </row>
     <row r="823">
-      <c r="E823" s="9" t="n"/>
-      <c r="F823" s="9" t="n"/>
+      <c r="E823" s="4" t="n"/>
+      <c r="F823" s="4" t="n"/>
     </row>
     <row r="824">
-      <c r="E824" s="9" t="n"/>
-      <c r="F824" s="9" t="n"/>
+      <c r="E824" s="4" t="n"/>
+      <c r="F824" s="4" t="n"/>
     </row>
     <row r="825">
-      <c r="E825" s="9" t="n"/>
-      <c r="F825" s="9" t="n"/>
+      <c r="E825" s="4" t="n"/>
+      <c r="F825" s="4" t="n"/>
     </row>
     <row r="826">
-      <c r="E826" s="9" t="n"/>
-      <c r="F826" s="9" t="n"/>
+      <c r="E826" s="4" t="n"/>
+      <c r="F826" s="4" t="n"/>
     </row>
     <row r="827">
-      <c r="E827" s="9" t="n"/>
-      <c r="F827" s="9" t="n"/>
+      <c r="E827" s="4" t="n"/>
+      <c r="F827" s="4" t="n"/>
     </row>
     <row r="828">
-      <c r="E828" s="9" t="n"/>
-      <c r="F828" s="9" t="n"/>
+      <c r="E828" s="4" t="n"/>
+      <c r="F828" s="4" t="n"/>
     </row>
     <row r="829">
-      <c r="E829" s="9" t="n"/>
-      <c r="F829" s="9" t="n"/>
+      <c r="E829" s="4" t="n"/>
+      <c r="F829" s="4" t="n"/>
     </row>
     <row r="830">
-      <c r="E830" s="9" t="n"/>
-      <c r="F830" s="9" t="n"/>
+      <c r="E830" s="4" t="n"/>
+      <c r="F830" s="4" t="n"/>
     </row>
     <row r="831">
-      <c r="E831" s="9" t="n"/>
-      <c r="F831" s="9" t="n"/>
+      <c r="E831" s="4" t="n"/>
+      <c r="F831" s="4" t="n"/>
     </row>
     <row r="832">
-      <c r="E832" s="9" t="n"/>
-      <c r="F832" s="9" t="n"/>
+      <c r="E832" s="4" t="n"/>
+      <c r="F832" s="4" t="n"/>
     </row>
     <row r="833">
-      <c r="E833" s="9" t="n"/>
-      <c r="F833" s="9" t="n"/>
+      <c r="E833" s="4" t="n"/>
+      <c r="F833" s="4" t="n"/>
     </row>
     <row r="834">
-      <c r="E834" s="9" t="n"/>
-      <c r="F834" s="9" t="n"/>
+      <c r="E834" s="4" t="n"/>
+      <c r="F834" s="4" t="n"/>
     </row>
     <row r="835">
-      <c r="E835" s="9" t="n"/>
-      <c r="F835" s="9" t="n"/>
+      <c r="E835" s="4" t="n"/>
+      <c r="F835" s="4" t="n"/>
     </row>
     <row r="836">
-      <c r="E836" s="9" t="n"/>
-      <c r="F836" s="9" t="n"/>
+      <c r="E836" s="4" t="n"/>
+      <c r="F836" s="4" t="n"/>
     </row>
     <row r="837">
-      <c r="E837" s="9" t="n"/>
-      <c r="F837" s="9" t="n"/>
+      <c r="E837" s="4" t="n"/>
+      <c r="F837" s="4" t="n"/>
     </row>
     <row r="838">
-      <c r="E838" s="9" t="n"/>
-      <c r="F838" s="9" t="n"/>
+      <c r="E838" s="4" t="n"/>
+      <c r="F838" s="4" t="n"/>
     </row>
     <row r="839">
-      <c r="E839" s="9" t="n"/>
-      <c r="F839" s="9" t="n"/>
+      <c r="E839" s="4" t="n"/>
+      <c r="F839" s="4" t="n"/>
     </row>
     <row r="840">
-      <c r="E840" s="9" t="n"/>
-      <c r="F840" s="9" t="n"/>
+      <c r="E840" s="4" t="n"/>
+      <c r="F840" s="4" t="n"/>
     </row>
     <row r="841">
-      <c r="E841" s="9" t="n"/>
-      <c r="F841" s="9" t="n"/>
+      <c r="E841" s="4" t="n"/>
+      <c r="F841" s="4" t="n"/>
     </row>
     <row r="842">
-      <c r="E842" s="9" t="n"/>
-      <c r="F842" s="9" t="n"/>
+      <c r="E842" s="4" t="n"/>
+      <c r="F842" s="4" t="n"/>
     </row>
     <row r="843">
-      <c r="E843" s="9" t="n"/>
-      <c r="F843" s="9" t="n"/>
+      <c r="E843" s="4" t="n"/>
+      <c r="F843" s="4" t="n"/>
     </row>
     <row r="844">
-      <c r="E844" s="9" t="n"/>
-      <c r="F844" s="9" t="n"/>
+      <c r="E844" s="4" t="n"/>
+      <c r="F844" s="4" t="n"/>
     </row>
     <row r="845">
-      <c r="E845" s="9" t="n"/>
-      <c r="F845" s="9" t="n"/>
+      <c r="E845" s="4" t="n"/>
+      <c r="F845" s="4" t="n"/>
     </row>
     <row r="846">
-      <c r="E846" s="9" t="n"/>
-      <c r="F846" s="9" t="n"/>
+      <c r="E846" s="4" t="n"/>
+      <c r="F846" s="4" t="n"/>
     </row>
     <row r="847">
-      <c r="E847" s="9" t="n"/>
-      <c r="F847" s="9" t="n"/>
+      <c r="E847" s="4" t="n"/>
+      <c r="F847" s="4" t="n"/>
     </row>
     <row r="848">
-      <c r="E848" s="9" t="n"/>
-      <c r="F848" s="9" t="n"/>
+      <c r="E848" s="4" t="n"/>
+      <c r="F848" s="4" t="n"/>
     </row>
     <row r="849">
-      <c r="E849" s="9" t="n"/>
-      <c r="F849" s="9" t="n"/>
+      <c r="E849" s="4" t="n"/>
+      <c r="F849" s="4" t="n"/>
+    </row>
+    <row r="850">
+      <c r="E850" s="4" t="n"/>
+      <c r="F850" s="4" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>